--- a/data/1902 powdery mildew-Mungbean - Collated means.xlsx
+++ b/data/1902 powdery mildew-Mungbean - Collated means.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U8011054\Cloudstor\Mungbean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U8011054\Documents\GitHub\Mungbean_PM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="12120" windowHeight="8205"/>
+    <workbookView xWindow="11385" yWindow="0" windowWidth="12120" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="71">
   <si>
     <t>Trial_ref</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Sulphur</t>
-  </si>
-  <si>
-    <t>Amistar</t>
   </si>
   <si>
     <t>comments</t>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>Wellcamp</t>
+  </si>
+  <si>
+    <t>Tebeconazole+</t>
+  </si>
+  <si>
+    <t>Amistar+</t>
   </si>
 </sst>
 </file>
@@ -654,8 +657,8 @@
   <dimension ref="A1:AA195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O80" sqref="O80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -744,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
         <v>26</v>
@@ -753,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" t="s">
-        <v>64</v>
-      </c>
       <c r="AA1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -828,7 +831,7 @@
         <v>1.58</v>
       </c>
       <c r="AA2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -869,10 +872,10 @@
         <v>42437</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O3" s="2">
         <f>430*0.145</f>
@@ -910,7 +913,7 @@
         <v>0.18134715025906731</v>
       </c>
       <c r="AA3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -951,10 +954,10 @@
         <v>42437</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O4" s="2">
         <f>430*0.145</f>
@@ -994,7 +997,7 @@
         <v>0.23300970873786406</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1035,10 +1038,10 @@
         <v>42437</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O8" si="2">430*0.145</f>
@@ -1080,7 +1083,7 @@
         <v>0.21393034825870635</v>
       </c>
       <c r="AA5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1121,10 +1124,10 @@
         <v>42437</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="2"/>
@@ -1162,7 +1165,7 @@
         <v>0.15053763440860216</v>
       </c>
       <c r="AA6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1203,10 +1206,10 @@
         <v>42437</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="2"/>
@@ -1246,7 +1249,7 @@
         <v>0.22167487684729054</v>
       </c>
       <c r="AA7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1287,10 +1290,10 @@
         <v>42437</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="2"/>
@@ -1330,12 +1333,12 @@
         <v>0.31304347826086948</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
         <v>2011</v>
@@ -1344,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>17</v>
@@ -1407,12 +1410,12 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8">
         <v>2011</v>
@@ -1421,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>17</v>
@@ -1447,10 +1450,10 @@
         <v>40624</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O10" s="2">
         <f>430*0.145</f>
@@ -1491,12 +1494,12 @@
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="AA10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8">
         <v>2011</v>
@@ -1505,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
@@ -1531,10 +1534,10 @@
         <v>40624</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O11" s="2">
         <f>430*0.145</f>
@@ -1571,12 +1574,12 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8">
         <v>2011</v>
@@ -1585,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>17</v>
@@ -1611,7 +1614,7 @@
         <v>40624</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
         <v>30</v>
@@ -1654,12 +1657,12 @@
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="AA12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="8">
         <v>2011</v>
@@ -1668,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>17</v>
@@ -1694,7 +1697,7 @@
         <v>40624</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
         <v>30</v>
@@ -1743,12 +1746,12 @@
         <v>0.11764705882352938</v>
       </c>
       <c r="AA13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="8">
         <v>2011</v>
@@ -1757,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>17</v>
@@ -1783,10 +1786,10 @@
         <v>40624</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2">
         <f>200*0.6</f>
@@ -1827,12 +1830,12 @@
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="AA14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="9">
         <v>2011</v>
@@ -1841,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>17</v>
@@ -1867,10 +1870,10 @@
         <v>40624</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
       </c>
       <c r="O15" s="20">
         <f>200*0.6</f>
@@ -1917,12 +1920,12 @@
         <v>0</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8">
         <v>2015</v>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -2032,10 +2035,10 @@
         <v>42072</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O17" s="2">
         <v>62.35</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -2114,10 +2117,10 @@
         <v>42072</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O18" s="2">
         <v>62.35</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -2192,10 +2195,10 @@
         <v>42072</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O19" s="2">
         <v>62.35</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -2272,10 +2275,10 @@
         <v>42072</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O20" s="2">
         <v>62.35</v>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="21" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="5">
         <v>2015</v>
@@ -2350,10 +2353,10 @@
         <v>42072</v>
       </c>
       <c r="M21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="O21" s="20">
         <v>62.35</v>
@@ -2400,10 +2403,10 @@
         <v>2011</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>17</v>
@@ -2463,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -2474,10 +2477,10 @@
         <v>2011</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>17</v>
@@ -2502,10 +2505,10 @@
         <v>40624</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O23" s="2">
         <f>430*0.145</f>
@@ -2543,7 +2546,7 @@
         <v>0.1103678929765886</v>
       </c>
       <c r="AA23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -2554,10 +2557,10 @@
         <v>2011</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>17</v>
@@ -2582,10 +2585,10 @@
         <v>40624</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O24" s="2">
         <f>430*0.145</f>
@@ -2626,7 +2629,7 @@
         <v>0.14377682403433475</v>
       </c>
       <c r="AA24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -2637,10 +2640,10 @@
         <v>2011</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>17</v>
@@ -2665,10 +2668,10 @@
         <v>40624</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O25" s="2">
         <f>430*0.145</f>
@@ -2712,7 +2715,7 @@
         <v>-5.8355437665782543E-2</v>
       </c>
       <c r="AA25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -2723,10 +2726,10 @@
         <v>2011</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>17</v>
@@ -2751,7 +2754,7 @@
         <v>40624</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
         <v>30</v>
@@ -2791,7 +2794,7 @@
         <v>-9.0163934426229594E-2</v>
       </c>
       <c r="AA26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -2802,10 +2805,10 @@
         <v>2011</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>17</v>
@@ -2830,7 +2833,7 @@
         <v>40624</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N27" t="s">
         <v>30</v>
@@ -2873,7 +2876,7 @@
         <v>-2.512562814070354E-3</v>
       </c>
       <c r="AA27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -2884,10 +2887,10 @@
         <v>2011</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>17</v>
@@ -2912,7 +2915,7 @@
         <v>40624</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
         <v>30</v>
@@ -2958,7 +2961,7 @@
         <v>-4.0417209908735367E-2</v>
       </c>
       <c r="AA28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -2969,10 +2972,10 @@
         <v>2011</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>17</v>
@@ -2997,10 +3000,10 @@
         <v>40624</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O29" s="2">
         <f>200*0.6</f>
@@ -3038,7 +3041,7 @@
         <v>2.3255813953488257E-2</v>
       </c>
       <c r="AA29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -3049,10 +3052,10 @@
         <v>2011</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>17</v>
@@ -3077,10 +3080,10 @@
         <v>40624</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O30" s="2">
         <f>200*0.6</f>
@@ -3121,7 +3124,7 @@
         <v>-2.3076923076923096E-2</v>
       </c>
       <c r="AA30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3132,10 +3135,10 @@
         <v>2011</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>17</v>
@@ -3160,10 +3163,10 @@
         <v>40624</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
       </c>
       <c r="O31" s="20">
         <f>200*0.6</f>
@@ -3207,18 +3210,18 @@
         <v>7.7456647398843878E-2</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8">
         <v>2012</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -3279,18 +3282,18 @@
         <v>0</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="8">
         <v>2012</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -3318,10 +3321,10 @@
         <v>41001</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O33" s="2">
         <v>62.35</v>
@@ -3358,18 +3361,18 @@
         <v>8.8888888888888962E-2</v>
       </c>
       <c r="AA33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8">
         <v>2012</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -3397,10 +3400,10 @@
         <v>41001</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O34" s="2">
         <v>62.35</v>
@@ -3440,18 +3443,18 @@
         <v>0.22151898734177214</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="8">
         <v>2012</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -3479,7 +3482,7 @@
         <v>41001</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N35" t="s">
         <v>30</v>
@@ -3519,18 +3522,18 @@
         <v>5.9872611464968202E-2</v>
       </c>
       <c r="AA35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8">
         <v>2012</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -3558,7 +3561,7 @@
         <v>41001</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N36" t="s">
         <v>30</v>
@@ -3601,18 +3604,18 @@
         <v>0.23839009287925694</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8">
         <v>2012</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -3640,10 +3643,10 @@
         <v>41001</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" ref="O37:O38" si="11">200*0.2</f>
@@ -3681,18 +3684,18 @@
         <v>0.20043336944745399</v>
       </c>
       <c r="AA37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8">
         <v>2012</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -3720,10 +3723,10 @@
         <v>41001</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="11"/>
@@ -3764,18 +3767,18 @@
         <v>0.23523316062176164</v>
       </c>
       <c r="AA38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>2012</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -3803,10 +3806,10 @@
         <v>41001</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" ref="O39:O40" si="12">200*0.4</f>
@@ -3844,18 +3847,18 @@
         <v>5.3908355795148294E-3</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="8">
         <v>2012</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -3883,10 +3886,10 @@
         <v>41001</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N40" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="12"/>
@@ -3927,18 +3930,18 @@
         <v>-3.21678321678322E-2</v>
       </c>
       <c r="AA40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="8">
         <v>2012</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>28</v>
@@ -3966,10 +3969,10 @@
         <v>41001</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N41" t="s">
+        <v>70</v>
       </c>
       <c r="O41" s="21">
         <f t="shared" ref="O41:O42" si="13">200*0.6</f>
@@ -4007,18 +4010,18 @@
         <v>4.5278137128072486E-2</v>
       </c>
       <c r="AA41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="8">
         <v>2012</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>28</v>
@@ -4046,10 +4049,10 @@
         <v>41001</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N42" t="s">
+        <v>70</v>
       </c>
       <c r="O42" s="21">
         <f t="shared" si="13"/>
@@ -4090,18 +4093,18 @@
         <v>-4.384724186704389E-2</v>
       </c>
       <c r="AA42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="8">
         <v>2012</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>28</v>
@@ -4129,7 +4132,7 @@
         <v>41001</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>20</v>
@@ -4170,18 +4173,18 @@
         <v>0.18901098901098906</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="8">
         <v>2012</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>28</v>
@@ -4209,7 +4212,7 @@
         <v>41001</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>20</v>
@@ -4253,18 +4256,18 @@
         <v>0.20216216216216221</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="8">
         <v>2012</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>28</v>
@@ -4292,7 +4295,7 @@
         <v>41001</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>20</v>
@@ -4333,18 +4336,18 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="AA45" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="9">
         <v>2012</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>28</v>
@@ -4372,7 +4375,7 @@
         <v>41001</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>20</v>
@@ -4416,18 +4419,18 @@
         <v>0.21822033898305082</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>2012</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -4488,18 +4491,18 @@
         <v>0</v>
       </c>
       <c r="AA47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>2012</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -4527,10 +4530,10 @@
         <v>40980</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O48" s="2">
         <v>62.35</v>
@@ -4567,18 +4570,18 @@
         <v>0.31100917431192665</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>2012</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -4606,10 +4609,10 @@
         <v>40980</v>
       </c>
       <c r="M49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O49" s="2">
         <v>62.35</v>
@@ -4649,18 +4652,18 @@
         <v>0.31602914389799641</v>
       </c>
       <c r="AA49" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>2012</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -4688,7 +4691,7 @@
         <v>40980</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N50" t="s">
         <v>30</v>
@@ -4728,18 +4731,18 @@
         <v>0.1367816091954023</v>
       </c>
       <c r="AA50" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51">
         <v>2012</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -4767,7 +4770,7 @@
         <v>40980</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N51" t="s">
         <v>30</v>
@@ -4810,18 +4813,18 @@
         <v>0.39968025579536365</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>2012</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
@@ -4849,10 +4852,10 @@
         <v>40980</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N52" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O52" s="2">
         <f>200*0.2</f>
@@ -4890,18 +4893,18 @@
         <v>0.32464028776978421</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="10">
         <v>2012</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>28</v>
@@ -4929,10 +4932,10 @@
         <v>40980</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N53" t="s">
+        <v>70</v>
       </c>
       <c r="O53" s="21">
         <f t="shared" ref="O53" si="16">200*0.2</f>
@@ -4973,18 +4976,18 @@
         <v>0.36085106382978727</v>
       </c>
       <c r="AA53" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="10">
         <v>2012</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>28</v>
@@ -5012,10 +5015,10 @@
         <v>40980</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N54" t="s">
+        <v>70</v>
       </c>
       <c r="O54" s="21">
         <f>200*0.4</f>
@@ -5053,18 +5056,18 @@
         <v>0.40632411067193669</v>
       </c>
       <c r="AA54" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="10">
         <v>2012</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>28</v>
@@ -5092,10 +5095,10 @@
         <v>40980</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N55" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N55" t="s">
+        <v>70</v>
       </c>
       <c r="O55" s="21">
         <f t="shared" ref="O55" si="17">200*0.4</f>
@@ -5136,18 +5139,18 @@
         <v>0.35591766723842189</v>
       </c>
       <c r="AA55" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="10">
         <v>2012</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>28</v>
@@ -5175,10 +5178,10 @@
         <v>40980</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N56" t="s">
+        <v>70</v>
       </c>
       <c r="O56" s="21">
         <f>200*0.6</f>
@@ -5216,18 +5219,18 @@
         <v>0.28612167300380231</v>
       </c>
       <c r="AA56" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="10">
         <v>2012</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>28</v>
@@ -5255,10 +5258,10 @@
         <v>40980</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="N57" t="s">
+        <v>70</v>
       </c>
       <c r="O57" s="21">
         <f t="shared" ref="O57" si="18">200*0.6</f>
@@ -5299,18 +5302,18 @@
         <v>0.3624787775891341</v>
       </c>
       <c r="AA57" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="10">
         <v>2012</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>28</v>
@@ -5338,7 +5341,7 @@
         <v>40980</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>20</v>
@@ -5379,18 +5382,18 @@
         <v>0.2750965250965251</v>
       </c>
       <c r="AA58" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="10">
         <v>2012</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>28</v>
@@ -5418,7 +5421,7 @@
         <v>40980</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N59" s="8" t="s">
         <v>20</v>
@@ -5462,18 +5465,18 @@
         <v>0.37468776019983352</v>
       </c>
       <c r="AA59" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="10">
         <v>2012</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>28</v>
@@ -5501,7 +5504,7 @@
         <v>40980</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N60" s="8" t="s">
         <v>20</v>
@@ -5542,18 +5545,18 @@
         <v>0.2894985808893093</v>
       </c>
       <c r="AA60" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="5">
         <v>2012</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>28</v>
@@ -5581,7 +5584,7 @@
         <v>40980</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>20</v>
@@ -5625,18 +5628,18 @@
         <v>0.43235071806500375</v>
       </c>
       <c r="AA61" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="8">
         <v>2016</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>16</v>
@@ -5700,18 +5703,18 @@
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="8">
         <v>2016</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>16</v>
@@ -5741,10 +5744,10 @@
         <v>42446</v>
       </c>
       <c r="M63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O63" s="26">
         <f t="shared" ref="O63:O68" si="19">430*0.145</f>
@@ -5782,18 +5785,18 @@
         <v>7.4712643678160856E-2</v>
       </c>
       <c r="AA63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="8">
         <v>2016</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>16</v>
@@ -5823,10 +5826,10 @@
         <v>42446</v>
       </c>
       <c r="M64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O64" s="26">
         <f t="shared" si="19"/>
@@ -5867,18 +5870,18 @@
         <v>9.8439375750300082E-2</v>
       </c>
       <c r="AA64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="8">
         <v>2016</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>16</v>
@@ -5908,10 +5911,10 @@
         <v>42446</v>
       </c>
       <c r="M65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O65" s="26">
         <f t="shared" si="19"/>
@@ -5953,18 +5956,18 @@
         <v>0.11438679245283016</v>
       </c>
       <c r="AA65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="8">
         <v>2016</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>16</v>
@@ -5994,10 +5997,10 @@
         <v>42446</v>
       </c>
       <c r="M66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O66" s="26">
         <f t="shared" si="19"/>
@@ -6035,18 +6038,18 @@
         <v>0.18898488120950327</v>
       </c>
       <c r="AA66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="8">
         <v>2016</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>16</v>
@@ -6076,10 +6079,10 @@
         <v>42446</v>
       </c>
       <c r="M67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O67" s="26">
         <f t="shared" si="19"/>
@@ -6120,18 +6123,18 @@
         <v>6.7080745341614956E-2</v>
       </c>
       <c r="AA67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="9">
         <v>2016</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>16</v>
@@ -6161,10 +6164,10 @@
         <v>42446</v>
       </c>
       <c r="M68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="O68" s="30">
         <f t="shared" si="19"/>
@@ -6204,18 +6207,18 @@
         <v>4.209183673469391E-2</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="8">
         <v>2016</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>16</v>
@@ -6278,18 +6281,18 @@
         <v>0</v>
       </c>
       <c r="AA69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="8">
         <v>2016</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>16</v>
@@ -6319,10 +6322,10 @@
         <v>42438</v>
       </c>
       <c r="M70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O70" s="26">
         <f>430*0.145</f>
@@ -6360,18 +6363,18 @@
         <v>0.23417059131344839</v>
       </c>
       <c r="AA70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="8">
         <v>2016</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>16</v>
@@ -6401,10 +6404,10 @@
         <v>42438</v>
       </c>
       <c r="M71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O71" s="26">
         <f t="shared" ref="O71:O75" si="21">430*0.145</f>
@@ -6444,18 +6447,18 @@
         <v>0.24629844212694724</v>
       </c>
       <c r="AA71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="8">
         <v>2016</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>16</v>
@@ -6485,10 +6488,10 @@
         <v>42438</v>
       </c>
       <c r="M72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N72" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O72" s="26">
         <f t="shared" si="21"/>
@@ -6530,18 +6533,18 @@
         <v>8.858788728008711E-2</v>
       </c>
       <c r="AA72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="8">
         <v>2016</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>16</v>
@@ -6571,10 +6574,10 @@
         <v>42438</v>
       </c>
       <c r="M73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N73" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O73" s="26">
         <f t="shared" si="21"/>
@@ -6612,18 +6615,18 @@
         <v>0.12652939421068335</v>
       </c>
       <c r="AA73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" s="8">
         <v>2016</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>16</v>
@@ -6653,10 +6656,10 @@
         <v>42438</v>
       </c>
       <c r="M74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O74" s="26">
         <f t="shared" si="21"/>
@@ -6696,18 +6699,18 @@
         <v>0.15404624277456636</v>
       </c>
       <c r="AA74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" s="9">
         <v>2016</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>16</v>
@@ -6737,10 +6740,10 @@
         <v>42438</v>
       </c>
       <c r="M75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N75" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O75" s="30">
         <f t="shared" si="21"/>
@@ -6780,12 +6783,12 @@
         <v>0.16095743156084272</v>
       </c>
       <c r="AA75" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="8">
         <v>2017</v>
@@ -6854,7 +6857,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="8">
         <v>2017</v>
@@ -6894,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R77" s="22"/>
       <c r="S77" s="22"/>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="8">
         <v>2017</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="8">
         <v>2017</v>
@@ -7059,7 +7062,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="8">
         <v>2017</v>
@@ -7124,7 +7127,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="8">
         <v>2017</v>
@@ -7189,7 +7192,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="8">
         <v>2017</v>
@@ -7254,7 +7257,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="8">
         <v>2017</v>
@@ -7319,7 +7322,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="8">
         <v>2017</v>
@@ -7384,7 +7387,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" s="8">
         <v>2017</v>
@@ -7416,10 +7419,10 @@
         <v>42817</v>
       </c>
       <c r="M85" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N85" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N85" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O85" s="34">
         <f>0.145*430</f>
@@ -7454,7 +7457,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B86" s="8">
         <v>2017</v>
@@ -7486,10 +7489,10 @@
         <v>42817</v>
       </c>
       <c r="M86" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N86" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O86" s="19">
         <f>0.145*430</f>
@@ -7499,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="Q86" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
@@ -7526,7 +7529,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="8">
         <v>2017</v>
@@ -7558,10 +7561,10 @@
         <v>42817</v>
       </c>
       <c r="M87" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N87" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O87" s="19">
         <f>0.145*430</f>
@@ -7596,7 +7599,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" s="8">
         <v>2017</v>
@@ -7628,7 +7631,7 @@
         <v>42817</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>20</v>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="8">
         <v>2017</v>
@@ -7698,7 +7701,7 @@
         <v>42817</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>20</v>
@@ -7736,7 +7739,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B90" s="8">
         <v>2017</v>
@@ -7768,7 +7771,7 @@
         <v>42817</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>20</v>
@@ -7806,7 +7809,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="8">
         <v>2017</v>
@@ -7838,10 +7841,10 @@
         <v>42817</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O91" s="19">
         <f>0.3*200</f>
@@ -7876,7 +7879,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="8">
         <v>2017</v>
@@ -7908,10 +7911,10 @@
         <v>42817</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O92" s="19">
         <f>0.3*200</f>
@@ -7946,7 +7949,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="8">
         <v>2017</v>
@@ -7978,10 +7981,10 @@
         <v>42817</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O93" s="13">
         <f>0.3*200</f>
@@ -8016,7 +8019,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="8">
         <v>2017</v>
@@ -8048,10 +8051,10 @@
         <v>42817</v>
       </c>
       <c r="M94" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N94" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N94" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O94" s="34">
         <f>0.145*430</f>
@@ -8086,7 +8089,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="8">
         <v>2017</v>
@@ -8118,10 +8121,10 @@
         <v>42817</v>
       </c>
       <c r="M95" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N95" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N95" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O95" s="19">
         <f>0.145*430</f>
@@ -8131,7 +8134,7 @@
         <v>3</v>
       </c>
       <c r="Q95" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R95" s="22"/>
       <c r="S95" s="22"/>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="8">
         <v>2017</v>
@@ -8190,10 +8193,10 @@
         <v>42817</v>
       </c>
       <c r="M96" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N96" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N96" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O96" s="19">
         <f>0.145*430</f>
@@ -8228,7 +8231,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B97" s="8">
         <v>2017</v>
@@ -8260,7 +8263,7 @@
         <v>42817</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>20</v>
@@ -8298,7 +8301,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B98" s="8">
         <v>2017</v>
@@ -8330,7 +8333,7 @@
         <v>42817</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>20</v>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" s="8">
         <v>2017</v>
@@ -8400,7 +8403,7 @@
         <v>42817</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N99" s="8" t="s">
         <v>20</v>
@@ -8438,7 +8441,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B100" s="8">
         <v>2017</v>
@@ -8470,10 +8473,10 @@
         <v>42817</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O100" s="19">
         <f>0.3*200</f>
@@ -8508,7 +8511,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B101" s="8">
         <v>2017</v>
@@ -8540,10 +8543,10 @@
         <v>42817</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O101" s="19">
         <f>0.3*200</f>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="8">
         <v>2017</v>
@@ -8610,10 +8613,10 @@
         <v>42817</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O102" s="13">
         <f>0.3*200</f>
@@ -8648,7 +8651,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="8">
         <v>2017</v>
@@ -8680,10 +8683,10 @@
         <v>42817</v>
       </c>
       <c r="M103" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N103" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N103" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O103" s="34">
         <f>0.145*430</f>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B104" s="8">
         <v>2017</v>
@@ -8750,10 +8753,10 @@
         <v>42817</v>
       </c>
       <c r="M104" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N104" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N104" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O104" s="19">
         <f>0.145*430</f>
@@ -8763,7 +8766,7 @@
         <v>4</v>
       </c>
       <c r="Q104" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R104" s="22"/>
       <c r="S104" s="22"/>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B105" s="8">
         <v>2017</v>
@@ -8822,10 +8825,10 @@
         <v>42817</v>
       </c>
       <c r="M105" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N105" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N105" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O105" s="19">
         <f>0.145*430</f>
@@ -8860,7 +8863,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B106" s="8">
         <v>2017</v>
@@ -8892,7 +8895,7 @@
         <v>42817</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N106" s="8" t="s">
         <v>20</v>
@@ -8930,7 +8933,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" s="8">
         <v>2017</v>
@@ -8962,7 +8965,7 @@
         <v>42817</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N107" s="8" t="s">
         <v>20</v>
@@ -9000,7 +9003,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108" s="8">
         <v>2017</v>
@@ -9032,7 +9035,7 @@
         <v>42817</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N108" s="8" t="s">
         <v>20</v>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109" s="8">
         <v>2017</v>
@@ -9102,10 +9105,10 @@
         <v>42817</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O109" s="19">
         <f>0.3*200</f>
@@ -9140,7 +9143,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110" s="8">
         <v>2017</v>
@@ -9172,10 +9175,10 @@
         <v>42817</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O110" s="19">
         <f>0.3*200</f>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B111" s="8">
         <v>2017</v>
@@ -9242,10 +9245,10 @@
         <v>42817</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O111" s="13">
         <f>0.3*200</f>
@@ -9280,7 +9283,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B112" s="8">
         <v>2017</v>
@@ -9312,10 +9315,10 @@
         <v>42817</v>
       </c>
       <c r="M112" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N112" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N112" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O112" s="34">
         <f>0.145*430</f>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B113" s="8">
         <v>2017</v>
@@ -9382,10 +9385,10 @@
         <v>42817</v>
       </c>
       <c r="M113" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N113" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N113" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O113" s="19">
         <f>0.145*430</f>
@@ -9395,7 +9398,7 @@
         <v>5</v>
       </c>
       <c r="Q113" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R113" s="22"/>
       <c r="S113" s="22"/>
@@ -9422,7 +9425,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B114" s="8">
         <v>2017</v>
@@ -9454,10 +9457,10 @@
         <v>42817</v>
       </c>
       <c r="M114" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N114" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N114" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O114" s="19">
         <f>0.145*430</f>
@@ -9492,7 +9495,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B115" s="8">
         <v>2017</v>
@@ -9524,7 +9527,7 @@
         <v>42817</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N115" s="8" t="s">
         <v>20</v>
@@ -9562,7 +9565,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B116" s="8">
         <v>2017</v>
@@ -9594,7 +9597,7 @@
         <v>42817</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N116" s="8" t="s">
         <v>20</v>
@@ -9632,7 +9635,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" s="8">
         <v>2017</v>
@@ -9664,7 +9667,7 @@
         <v>42817</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N117" s="8" t="s">
         <v>20</v>
@@ -9702,7 +9705,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B118" s="8">
         <v>2017</v>
@@ -9734,10 +9737,10 @@
         <v>42817</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O118" s="19">
         <f>0.3*200</f>
@@ -9772,7 +9775,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B119" s="8">
         <v>2017</v>
@@ -9804,10 +9807,10 @@
         <v>42817</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O119" s="19">
         <f>0.3*200</f>
@@ -9842,7 +9845,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B120" s="8">
         <v>2017</v>
@@ -9874,10 +9877,10 @@
         <v>42817</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O120" s="13">
         <f>0.3*200</f>
@@ -9912,7 +9915,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B121" s="8">
         <v>2017</v>
@@ -9944,10 +9947,10 @@
         <v>42817</v>
       </c>
       <c r="M121" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N121" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N121" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O121" s="34">
         <f>0.145*430</f>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B122" s="8">
         <v>2017</v>
@@ -10014,10 +10017,10 @@
         <v>42817</v>
       </c>
       <c r="M122" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N122" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N122" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O122" s="19">
         <f>0.145*430</f>
@@ -10027,7 +10030,7 @@
         <v>6</v>
       </c>
       <c r="Q122" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R122" s="22"/>
       <c r="S122" s="22"/>
@@ -10054,7 +10057,7 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123" s="8">
         <v>2017</v>
@@ -10086,10 +10089,10 @@
         <v>42817</v>
       </c>
       <c r="M123" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N123" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N123" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O123" s="19">
         <f>0.145*430</f>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B124" s="8">
         <v>2017</v>
@@ -10156,7 +10159,7 @@
         <v>42817</v>
       </c>
       <c r="M124" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N124" s="8" t="s">
         <v>20</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125" s="8">
         <v>2017</v>
@@ -10226,7 +10229,7 @@
         <v>42817</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N125" s="8" t="s">
         <v>20</v>
@@ -10264,7 +10267,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B126" s="8">
         <v>2017</v>
@@ -10296,7 +10299,7 @@
         <v>42817</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N126" s="8" t="s">
         <v>20</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B127" s="8">
         <v>2017</v>
@@ -10366,10 +10369,10 @@
         <v>42817</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O127" s="19">
         <f>0.3*200</f>
@@ -10404,7 +10407,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B128" s="8">
         <v>2017</v>
@@ -10436,10 +10439,10 @@
         <v>42817</v>
       </c>
       <c r="M128" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O128" s="19">
         <f>0.3*200</f>
@@ -10474,7 +10477,7 @@
     </row>
     <row r="129" spans="1:26" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B129" s="39">
         <v>2017</v>
@@ -10506,10 +10509,10 @@
         <v>42817</v>
       </c>
       <c r="M129" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N129" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O129" s="42">
         <f>0.3*200</f>
@@ -10544,13 +10547,13 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B130" s="8">
         <v>2017</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>16</v>
@@ -10611,13 +10614,13 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B131" s="8">
         <v>2017</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>16</v>
@@ -10653,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R131" s="22"/>
       <c r="S131" s="22"/>
@@ -10680,13 +10683,13 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B132" s="8">
         <v>2017</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>16</v>
@@ -10747,13 +10750,13 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B133" s="8">
         <v>2017</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>16</v>
@@ -10814,13 +10817,13 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B134" s="8">
         <v>2017</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>16</v>
@@ -10881,13 +10884,13 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B135" s="8">
         <v>2017</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>16</v>
@@ -10948,13 +10951,13 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B136" s="8">
         <v>2017</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>16</v>
@@ -11015,13 +11018,13 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137" s="8">
         <v>2017</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>16</v>
@@ -11082,13 +11085,13 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B138" s="8">
         <v>2017</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>16</v>
@@ -11149,13 +11152,13 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B139" s="8">
         <v>2017</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>16</v>
@@ -11183,10 +11186,10 @@
         <v>42815</v>
       </c>
       <c r="M139" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N139" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N139" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O139" s="34">
         <f>0.145*430</f>
@@ -11221,13 +11224,13 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B140" s="8">
         <v>2017</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>16</v>
@@ -11255,10 +11258,10 @@
         <v>42815</v>
       </c>
       <c r="M140" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N140" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N140" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O140" s="19">
         <f>0.145*430</f>
@@ -11268,7 +11271,7 @@
         <v>2</v>
       </c>
       <c r="Q140" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R140" s="22"/>
       <c r="S140" s="22"/>
@@ -11295,13 +11298,13 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B141" s="8">
         <v>2017</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>16</v>
@@ -11329,10 +11332,10 @@
         <v>42815</v>
       </c>
       <c r="M141" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N141" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N141" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O141" s="19">
         <f>0.145*430</f>
@@ -11367,13 +11370,13 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B142" s="8">
         <v>2017</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>16</v>
@@ -11401,7 +11404,7 @@
         <v>42815</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N142" s="8" t="s">
         <v>20</v>
@@ -11439,13 +11442,13 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B143" s="8">
         <v>2017</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>16</v>
@@ -11473,7 +11476,7 @@
         <v>42815</v>
       </c>
       <c r="M143" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N143" s="8" t="s">
         <v>20</v>
@@ -11511,13 +11514,13 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B144" s="8">
         <v>2017</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>16</v>
@@ -11545,7 +11548,7 @@
         <v>42815</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N144" s="8" t="s">
         <v>20</v>
@@ -11583,13 +11586,13 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B145" s="8">
         <v>2017</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>16</v>
@@ -11617,10 +11620,10 @@
         <v>42815</v>
       </c>
       <c r="M145" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O145" s="19">
         <f>0.3*200</f>
@@ -11655,13 +11658,13 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B146" s="8">
         <v>2017</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>16</v>
@@ -11689,10 +11692,10 @@
         <v>42815</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O146" s="19">
         <f>0.3*200</f>
@@ -11727,13 +11730,13 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B147" s="8">
         <v>2017</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>16</v>
@@ -11761,10 +11764,10 @@
         <v>42815</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O147" s="13">
         <f>0.3*200</f>
@@ -11799,13 +11802,13 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B148" s="8">
         <v>2017</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>16</v>
@@ -11833,10 +11836,10 @@
         <v>42815</v>
       </c>
       <c r="M148" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N148" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N148" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O148" s="34">
         <f>0.145*430</f>
@@ -11871,13 +11874,13 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B149" s="8">
         <v>2017</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>16</v>
@@ -11905,10 +11908,10 @@
         <v>42815</v>
       </c>
       <c r="M149" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N149" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N149" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O149" s="19">
         <f>0.145*430</f>
@@ -11918,7 +11921,7 @@
         <v>3</v>
       </c>
       <c r="Q149" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R149" s="22"/>
       <c r="S149" s="22"/>
@@ -11941,13 +11944,13 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B150" s="8">
         <v>2017</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>16</v>
@@ -11975,10 +11978,10 @@
         <v>42815</v>
       </c>
       <c r="M150" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N150" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N150" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O150" s="19">
         <f>0.145*430</f>
@@ -12013,13 +12016,13 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B151" s="8">
         <v>2017</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>16</v>
@@ -12047,7 +12050,7 @@
         <v>42815</v>
       </c>
       <c r="M151" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N151" s="8" t="s">
         <v>20</v>
@@ -12085,13 +12088,13 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B152" s="8">
         <v>2017</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>16</v>
@@ -12119,7 +12122,7 @@
         <v>42815</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N152" s="8" t="s">
         <v>20</v>
@@ -12157,13 +12160,13 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B153" s="8">
         <v>2017</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>16</v>
@@ -12191,7 +12194,7 @@
         <v>42815</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N153" s="8" t="s">
         <v>20</v>
@@ -12229,13 +12232,13 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B154" s="8">
         <v>2017</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>16</v>
@@ -12263,10 +12266,10 @@
         <v>42815</v>
       </c>
       <c r="M154" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N154" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O154" s="19">
         <f>0.3*200</f>
@@ -12301,13 +12304,13 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B155" s="8">
         <v>2017</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>16</v>
@@ -12335,10 +12338,10 @@
         <v>42815</v>
       </c>
       <c r="M155" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O155" s="19">
         <f>0.3*200</f>
@@ -12373,13 +12376,13 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B156" s="8">
         <v>2017</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>16</v>
@@ -12407,10 +12410,10 @@
         <v>42815</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N156" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O156" s="13">
         <f>0.3*200</f>
@@ -12445,13 +12448,13 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B157" s="8">
         <v>2017</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>16</v>
@@ -12479,10 +12482,10 @@
         <v>42815</v>
       </c>
       <c r="M157" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N157" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N157" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O157" s="34">
         <f>0.145*430</f>
@@ -12517,13 +12520,13 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B158" s="8">
         <v>2017</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>16</v>
@@ -12551,10 +12554,10 @@
         <v>42815</v>
       </c>
       <c r="M158" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N158" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N158" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O158" s="19">
         <f>0.145*430</f>
@@ -12564,7 +12567,7 @@
         <v>4</v>
       </c>
       <c r="Q158" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R158" s="22"/>
       <c r="S158" s="22"/>
@@ -12591,13 +12594,13 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="8">
         <v>2017</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>16</v>
@@ -12625,10 +12628,10 @@
         <v>42815</v>
       </c>
       <c r="M159" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N159" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N159" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O159" s="19">
         <f>0.145*430</f>
@@ -12663,13 +12666,13 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B160" s="8">
         <v>2017</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>16</v>
@@ -12697,7 +12700,7 @@
         <v>42815</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N160" s="8" t="s">
         <v>20</v>
@@ -12735,13 +12738,13 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B161" s="8">
         <v>2017</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>16</v>
@@ -12769,7 +12772,7 @@
         <v>42815</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N161" s="8" t="s">
         <v>20</v>
@@ -12807,13 +12810,13 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B162" s="8">
         <v>2017</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>16</v>
@@ -12841,7 +12844,7 @@
         <v>42815</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N162" s="8" t="s">
         <v>20</v>
@@ -12879,13 +12882,13 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B163" s="8">
         <v>2017</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>16</v>
@@ -12913,10 +12916,10 @@
         <v>42815</v>
       </c>
       <c r="M163" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O163" s="19">
         <f>0.3*200</f>
@@ -12951,13 +12954,13 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B164" s="8">
         <v>2017</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>16</v>
@@ -12985,10 +12988,10 @@
         <v>42815</v>
       </c>
       <c r="M164" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N164" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O164" s="19">
         <f>0.3*200</f>
@@ -13023,13 +13026,13 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B165" s="8">
         <v>2017</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>16</v>
@@ -13057,10 +13060,10 @@
         <v>42815</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N165" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O165" s="13">
         <f>0.3*200</f>
@@ -13095,13 +13098,13 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B166" s="8">
         <v>2017</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>16</v>
@@ -13129,10 +13132,10 @@
         <v>42815</v>
       </c>
       <c r="M166" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N166" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N166" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O166" s="34">
         <f>0.145*430</f>
@@ -13167,13 +13170,13 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B167" s="8">
         <v>2017</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>16</v>
@@ -13201,10 +13204,10 @@
         <v>42815</v>
       </c>
       <c r="M167" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N167" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N167" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O167" s="19">
         <f>0.145*430</f>
@@ -13214,7 +13217,7 @@
         <v>5</v>
       </c>
       <c r="Q167" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R167" s="22"/>
       <c r="S167" s="22"/>
@@ -13241,13 +13244,13 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B168" s="8">
         <v>2017</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>16</v>
@@ -13275,10 +13278,10 @@
         <v>42815</v>
       </c>
       <c r="M168" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N168" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N168" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O168" s="19">
         <f>0.145*430</f>
@@ -13313,13 +13316,13 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B169" s="8">
         <v>2017</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>16</v>
@@ -13347,7 +13350,7 @@
         <v>42815</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N169" s="8" t="s">
         <v>20</v>
@@ -13385,13 +13388,13 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B170" s="8">
         <v>2017</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>16</v>
@@ -13419,7 +13422,7 @@
         <v>42815</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N170" s="8" t="s">
         <v>20</v>
@@ -13457,13 +13460,13 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B171" s="8">
         <v>2017</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>16</v>
@@ -13491,7 +13494,7 @@
         <v>42815</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N171" s="8" t="s">
         <v>20</v>
@@ -13529,13 +13532,13 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B172" s="8">
         <v>2017</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>16</v>
@@ -13563,10 +13566,10 @@
         <v>42815</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O172" s="19">
         <f>0.3*200</f>
@@ -13601,13 +13604,13 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B173" s="8">
         <v>2017</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>16</v>
@@ -13635,10 +13638,10 @@
         <v>42815</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O173" s="19">
         <f>0.3*200</f>
@@ -13673,13 +13676,13 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B174" s="8">
         <v>2017</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>16</v>
@@ -13707,10 +13710,10 @@
         <v>42815</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N174" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O174" s="13">
         <f>0.3*200</f>
@@ -13745,13 +13748,13 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B175" s="8">
         <v>2017</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>16</v>
@@ -13779,10 +13782,10 @@
         <v>42815</v>
       </c>
       <c r="M175" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N175" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N175" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="O175" s="34">
         <f>0.145*430</f>
@@ -13817,13 +13820,13 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B176" s="8">
         <v>2017</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>16</v>
@@ -13851,10 +13854,10 @@
         <v>42815</v>
       </c>
       <c r="M176" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N176" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N176" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O176" s="19">
         <f>0.145*430</f>
@@ -13864,7 +13867,7 @@
         <v>6</v>
       </c>
       <c r="Q176" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R176" s="22"/>
       <c r="S176" s="22"/>
@@ -13891,13 +13894,13 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B177" s="8">
         <v>2017</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>16</v>
@@ -13925,10 +13928,10 @@
         <v>42815</v>
       </c>
       <c r="M177" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N177" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="N177" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="O177" s="19">
         <f>0.145*430</f>
@@ -13963,13 +13966,13 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B178" s="8">
         <v>2017</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>16</v>
@@ -13997,7 +14000,7 @@
         <v>42815</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N178" s="8" t="s">
         <v>20</v>
@@ -14035,13 +14038,13 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B179" s="8">
         <v>2017</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>16</v>
@@ -14069,7 +14072,7 @@
         <v>42815</v>
       </c>
       <c r="M179" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N179" s="8" t="s">
         <v>20</v>
@@ -14107,13 +14110,13 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B180" s="8">
         <v>2017</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>16</v>
@@ -14141,7 +14144,7 @@
         <v>42815</v>
       </c>
       <c r="M180" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N180" s="8" t="s">
         <v>20</v>
@@ -14179,13 +14182,13 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B181" s="8">
         <v>2017</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>16</v>
@@ -14213,10 +14216,10 @@
         <v>42815</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N181" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O181" s="19">
         <f>0.3*200</f>
@@ -14251,13 +14254,13 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B182" s="8">
         <v>2017</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>16</v>
@@ -14285,10 +14288,10 @@
         <v>42815</v>
       </c>
       <c r="M182" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N182" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O182" s="19">
         <f>0.3*200</f>
@@ -14323,13 +14326,13 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B183" s="8">
         <v>2017</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>16</v>
@@ -14357,10 +14360,10 @@
         <v>42815</v>
       </c>
       <c r="M183" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N183" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O183" s="13">
         <f>0.3*200</f>
@@ -14395,13 +14398,13 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B184" s="8">
         <v>2018</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>17</v>
@@ -14451,13 +14454,13 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B185" s="8">
         <v>2018</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>17</v>
@@ -14507,13 +14510,13 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B186" s="8">
         <v>2018</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>17</v>
@@ -14563,13 +14566,13 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B187" s="8">
         <v>2018</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>17</v>
@@ -14589,10 +14592,10 @@
         <v>43182</v>
       </c>
       <c r="M187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N187" s="8" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O187" s="34">
         <f t="shared" ref="O187:O189" si="34">0.145*430</f>
@@ -14627,13 +14630,13 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B188" s="8">
         <v>2018</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>17</v>
@@ -14653,10 +14656,10 @@
         <v>43182</v>
       </c>
       <c r="M188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N188" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O188" s="34">
         <f t="shared" si="34"/>
@@ -14691,13 +14694,13 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B189" s="8">
         <v>2018</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>17</v>
@@ -14717,10 +14720,10 @@
         <v>43182</v>
       </c>
       <c r="M189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N189" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O189" s="34">
         <f t="shared" si="34"/>
@@ -14755,13 +14758,13 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B190" s="8">
         <v>2018</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>17</v>
@@ -14781,10 +14784,10 @@
         <v>43182</v>
       </c>
       <c r="M190" t="s">
+        <v>46</v>
+      </c>
+      <c r="N190" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N190" t="s">
-        <v>20</v>
       </c>
       <c r="O190" s="19">
         <f t="shared" ref="O190:O192" si="35">0.3*200</f>
@@ -14819,13 +14822,13 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B191" s="8">
         <v>2018</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>17</v>
@@ -14845,10 +14848,10 @@
         <v>43182</v>
       </c>
       <c r="M191" t="s">
+        <v>46</v>
+      </c>
+      <c r="N191" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N191" t="s">
-        <v>20</v>
       </c>
       <c r="O191" s="19">
         <f t="shared" si="35"/>
@@ -14883,13 +14886,13 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B192" s="8">
         <v>2018</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>17</v>
@@ -14909,10 +14912,10 @@
         <v>43182</v>
       </c>
       <c r="M192" t="s">
+        <v>46</v>
+      </c>
+      <c r="N192" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="N192" t="s">
-        <v>20</v>
       </c>
       <c r="O192" s="19">
         <f t="shared" si="35"/>
@@ -14947,13 +14950,13 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B193" s="8">
         <v>2018</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>17</v>
@@ -14973,7 +14976,7 @@
         <v>43182</v>
       </c>
       <c r="M193" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N193" t="s">
         <v>20</v>
@@ -15011,13 +15014,13 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B194" s="8">
         <v>2018</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>17</v>
@@ -15037,7 +15040,7 @@
         <v>43182</v>
       </c>
       <c r="M194" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N194" t="s">
         <v>20</v>
@@ -15075,13 +15078,13 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B195" s="8">
         <v>2018</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>17</v>
@@ -15101,7 +15104,7 @@
         <v>43182</v>
       </c>
       <c r="M195" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N195" t="s">
         <v>20</v>

--- a/data/1902 powdery mildew-Mungbean - Collated means.xlsx
+++ b/data/1902 powdery mildew-Mungbean - Collated means.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U8011054\Cloudstor\Mungbean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U8011054\Documents\GitHub\Mungbean_PM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="0" windowWidth="11460" windowHeight="8205"/>
+    <workbookView xWindow="14850" yWindow="0" windowWidth="10305" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,30 @@
     <author>Paul Melloy</author>
   </authors>
   <commentList>
+    <comment ref="AE66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Paul Melloy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No erreor given</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R101" authorId="0" shapeId="0">
       <text>
         <r>
@@ -58,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="93">
   <si>
     <t>Trial_ref</t>
   </si>
@@ -276,15 +300,6 @@
     <t>Green diamond</t>
   </si>
   <si>
-    <t>error type</t>
-  </si>
-  <si>
-    <t>Y_s_square</t>
-  </si>
-  <si>
-    <t>D_s_square</t>
-  </si>
-  <si>
     <t>Raw data avail</t>
   </si>
   <si>
@@ -322,6 +337,30 @@
   </si>
   <si>
     <t>First sign of powdery mildew 9 weeks after planting (at flowering); Final assessment 11 weeks after planting;</t>
+  </si>
+  <si>
+    <t>cv%</t>
+  </si>
+  <si>
+    <t>Disease_error</t>
+  </si>
+  <si>
+    <t>Yield_error</t>
+  </si>
+  <si>
+    <t>Y_error type</t>
+  </si>
+  <si>
+    <t>D_error type</t>
+  </si>
+  <si>
+    <t>lsd (P=0.05)</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -412,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -460,6 +499,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,11 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI242"/>
+  <dimension ref="A1:AJ242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X109" sqref="X109"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z96" sqref="Z96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,10 +812,10 @@
     <col min="27" max="27" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="10.42578125" style="2" customWidth="1"/>
     <col min="30" max="30" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="2" customWidth="1"/>
+    <col min="31" max="32" width="10.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -833,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>13</v>
@@ -857,31 +898,34 @@
         <v>26</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="AI1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -895,7 +939,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" s="8">
         <v>7.7666666666666702</v>
@@ -950,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD2" s="32">
         <v>1.0010822510822499</v>
@@ -958,16 +1002,19 @@
       <c r="AE2" s="8">
         <v>3.3003976489826795E-2</v>
       </c>
-      <c r="AF2" s="8"/>
+      <c r="AF2" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="AG2" s="8"/>
-      <c r="AH2" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="AH2" s="8"/>
       <c r="AI2" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -981,7 +1028,7 @@
         <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8">
         <v>7.7333333333333298</v>
@@ -1051,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD3" s="32">
         <v>1.11938288704217</v>
@@ -1059,22 +1106,25 @@
       <c r="AE3" s="8">
         <v>0.17442897975812</v>
       </c>
-      <c r="AF3" s="32">
+      <c r="AF3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="32">
         <f>AD3-AD$2</f>
         <v>0.11830063595992013</v>
       </c>
-      <c r="AG3" s="8">
-        <f>AF3/AD3</f>
+      <c r="AH3" s="8">
+        <f>AG3/AD3</f>
         <v>0.1056837989300648</v>
       </c>
-      <c r="AH3" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI3" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>69</v>
       </c>
@@ -1088,7 +1138,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8">
         <v>7.7</v>
@@ -1151,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD4" s="32">
         <v>1.1750968329915699</v>
@@ -1159,22 +1209,25 @@
       <c r="AE4" s="8">
         <v>5.2713165379343896E-2</v>
       </c>
-      <c r="AF4" s="32">
-        <f t="shared" ref="AF4:AF6" si="1">AD4-AD$2</f>
+      <c r="AF4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="32">
+        <f t="shared" ref="AG4:AG6" si="1">AD4-AD$2</f>
         <v>0.17401458190931995</v>
       </c>
-      <c r="AG4" s="8">
-        <f t="shared" ref="AG4:AG16" si="2">AF4/AD4</f>
+      <c r="AH4" s="8">
+        <f t="shared" ref="AH4:AH16" si="2">AG4/AD4</f>
         <v>0.14808531265147945</v>
       </c>
-      <c r="AH4" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI4" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
@@ -1188,7 +1241,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8">
         <v>7.8333333333333304</v>
@@ -1247,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD5" s="32">
         <v>1.2607656149461599</v>
@@ -1255,22 +1308,25 @@
       <c r="AE5" s="8">
         <v>8.8210191428488197E-2</v>
       </c>
-      <c r="AF5" s="32">
+      <c r="AF5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="32">
         <f t="shared" si="1"/>
         <v>0.25968336386391</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AH5" s="8">
         <f t="shared" si="2"/>
         <v>0.20597275241758525</v>
       </c>
-      <c r="AH5" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI5" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
@@ -1284,7 +1340,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8">
         <v>7.8333333333333304</v>
@@ -1341,7 +1397,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD6" s="32">
         <v>1.2759963775953098</v>
@@ -1349,22 +1405,25 @@
       <c r="AE6" s="8">
         <v>0.15744627185933099</v>
       </c>
-      <c r="AF6" s="32">
+      <c r="AF6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="32">
         <f t="shared" si="1"/>
         <v>0.27491412651305991</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AH6" s="8">
         <f t="shared" si="2"/>
         <v>0.21545055404557789</v>
       </c>
-      <c r="AH6" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI6" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
@@ -1378,7 +1437,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8">
         <v>7.8</v>
@@ -1433,7 +1492,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD7" s="32">
         <v>1.7045361571817601</v>
@@ -1441,16 +1500,19 @@
       <c r="AE7" s="8">
         <v>0.11079806478579199</v>
       </c>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="AF7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
@@ -1464,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8">
         <v>7.7</v>
@@ -1534,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD8" s="32">
         <v>1.7861074751656498</v>
@@ -1542,22 +1604,25 @@
       <c r="AE8" s="8">
         <v>0.15507812463618001</v>
       </c>
-      <c r="AF8" s="32">
+      <c r="AF8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="32">
         <f>AD8-AD$7</f>
         <v>8.1571317983889724E-2</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AH8" s="8">
         <f t="shared" si="2"/>
         <v>4.566988219806007E-2</v>
       </c>
-      <c r="AH8" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI8" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
@@ -1571,7 +1636,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8">
         <v>7.9</v>
@@ -1634,7 +1699,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD9" s="32">
         <v>1.6686098156784401</v>
@@ -1642,22 +1707,25 @@
       <c r="AE9" s="8">
         <v>0.27688381055761896</v>
       </c>
-      <c r="AF9" s="32">
-        <f t="shared" ref="AF9:AF11" si="3">AD9-AD$7</f>
+      <c r="AF9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9" s="32">
+        <f t="shared" ref="AG9:AG11" si="3">AD9-AD$7</f>
         <v>-3.592634150331997E-2</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AH9" s="8">
         <f t="shared" si="2"/>
         <v>-2.1530702484039193E-2</v>
       </c>
-      <c r="AH9" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>69</v>
       </c>
@@ -1671,7 +1739,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8">
         <v>7.8333333333333304</v>
@@ -1730,7 +1798,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD10" s="32">
         <v>1.89189890722202</v>
@@ -1738,22 +1806,25 @@
       <c r="AE10" s="8">
         <v>2.3232068813838599E-2</v>
       </c>
-      <c r="AF10" s="32">
+      <c r="AF10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG10" s="32">
         <f t="shared" si="3"/>
         <v>0.18736275004025993</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AH10" s="8">
         <f t="shared" si="2"/>
         <v>9.9034229220722497E-2</v>
       </c>
-      <c r="AH10" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
@@ -1767,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="8">
         <v>7.56666666666667</v>
@@ -1824,7 +1895,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD11" s="32">
         <v>1.7360264696829799</v>
@@ -1832,22 +1903,25 @@
       <c r="AE11" s="8">
         <v>6.5249119739875197E-2</v>
       </c>
-      <c r="AF11" s="32">
+      <c r="AF11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG11" s="32">
         <f t="shared" si="3"/>
         <v>3.1490312501219808E-2</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AH11" s="8">
         <f t="shared" si="2"/>
         <v>1.8139304354599116E-2</v>
       </c>
-      <c r="AH11" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI11" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
@@ -1861,7 +1935,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8">
         <v>7.8333333333333304</v>
@@ -1916,7 +1990,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD12" s="32">
         <v>1.03332732691285</v>
@@ -1924,16 +1998,19 @@
       <c r="AE12" s="8">
         <v>7.7024051805658106E-2</v>
       </c>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="AF12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="8"/>
       <c r="AI12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +2024,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8">
         <v>7.8333333333333304</v>
@@ -2017,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD13" s="32">
         <v>1.0300575969296799</v>
@@ -2025,22 +2102,25 @@
       <c r="AE13" s="8">
         <v>0.170865763856973</v>
       </c>
-      <c r="AF13" s="32">
+      <c r="AF13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG13" s="32">
         <f>AD13-AD$12</f>
         <v>-3.2697299831700999E-3</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AH13" s="8">
         <f t="shared" si="2"/>
         <v>-3.174317623515686E-3</v>
       </c>
-      <c r="AH13" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI13" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>69</v>
       </c>
@@ -2054,7 +2134,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="8">
         <v>8.1</v>
@@ -2117,7 +2197,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD14" s="32">
         <v>1.19600474062809</v>
@@ -2125,22 +2205,25 @@
       <c r="AE14" s="8">
         <v>6.3411903480633497E-2</v>
       </c>
-      <c r="AF14" s="32">
-        <f t="shared" ref="AF14:AF16" si="4">AD14-AD$12</f>
+      <c r="AF14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG14" s="32">
+        <f t="shared" ref="AG14:AG16" si="4">AD14-AD$12</f>
         <v>0.16267741371524003</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AH14" s="8">
         <f t="shared" si="2"/>
         <v>0.13601736530727201</v>
       </c>
-      <c r="AH14" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI14" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>69</v>
       </c>
@@ -2154,7 +2237,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="8">
         <v>7.8</v>
@@ -2213,7 +2296,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD15" s="32">
         <v>1.08410322559223</v>
@@ -2221,22 +2304,25 @@
       <c r="AE15" s="8">
         <v>0.10159654153978601</v>
       </c>
-      <c r="AF15" s="32">
+      <c r="AF15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG15" s="32">
         <f t="shared" si="4"/>
         <v>5.0775898679380038E-2</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AH15" s="8">
         <f t="shared" si="2"/>
         <v>4.6836774839076688E-2</v>
       </c>
-      <c r="AH15" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI15" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2250,7 +2336,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16" s="3">
         <v>7.7666666666666702</v>
@@ -2299,7 +2385,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD16" s="25">
         <v>1.1441920652447</v>
@@ -2307,24 +2393,27 @@
       <c r="AE16" s="3">
         <v>0.103203528750408</v>
       </c>
-      <c r="AF16" s="25">
+      <c r="AF16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG16" s="25">
         <f t="shared" si="4"/>
         <v>0.11086473833184995</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AH16" s="3">
         <f t="shared" si="2"/>
         <v>9.6893468937088043E-2</v>
       </c>
-      <c r="AH16" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="AI16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8">
         <v>2010</v>
@@ -2336,7 +2425,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="8">
         <v>9.6</v>
@@ -2388,27 +2477,32 @@
         <v>6.6669999999999998</v>
       </c>
       <c r="AB17" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC17" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD17" s="15">
         <v>1.4279999999999999</v>
       </c>
       <c r="AE17" s="15">
-        <v>103.217</v>
-      </c>
-      <c r="AF17" s="8"/>
+        <v>12.5</v>
+      </c>
+      <c r="AF17" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="AG17" s="8"/>
-      <c r="AH17" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="AH17" s="8"/>
       <c r="AI17" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8">
         <v>2010</v>
@@ -2420,7 +2514,7 @@
         <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="8">
         <v>9.6</v>
@@ -2483,33 +2577,38 @@
         <v>2.6669999999999998</v>
       </c>
       <c r="AB18" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC18" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD18" s="15">
         <v>1.4650000000000001</v>
       </c>
       <c r="AE18" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF18" s="32">
+      <c r="AF18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG18" s="32">
         <f>AD18-AD$17</f>
         <v>3.7000000000000144E-2</v>
       </c>
-      <c r="AG18" s="8">
-        <f>AF18/AD18</f>
+      <c r="AH18" s="8">
+        <f>AG18/AD18</f>
         <v>2.525597269624583E-2</v>
       </c>
-      <c r="AH18" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI18" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="8">
         <v>2010</v>
@@ -2521,7 +2620,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8">
         <v>9.6</v>
@@ -2578,33 +2677,38 @@
         <v>6</v>
       </c>
       <c r="AB19" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC19" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD19" s="15">
         <v>1.379</v>
       </c>
       <c r="AE19" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF19" s="32">
-        <f t="shared" ref="AF19:AF21" si="5">AD19-AD$17</f>
+      <c r="AF19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG19" s="32">
+        <f t="shared" ref="AG19:AG21" si="5">AD19-AD$17</f>
         <v>-4.8999999999999932E-2</v>
       </c>
-      <c r="AG19" s="8">
-        <f t="shared" ref="AG19:AG21" si="6">AF19/AD19</f>
+      <c r="AH19" s="8">
+        <f t="shared" ref="AH19:AH21" si="6">AG19/AD19</f>
         <v>-3.5532994923857822E-2</v>
       </c>
-      <c r="AH19" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI19" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="8">
         <v>2010</v>
@@ -2616,7 +2720,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F20" s="8">
         <v>9.6</v>
@@ -2673,33 +2777,38 @@
         <v>4.33</v>
       </c>
       <c r="AB20" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC20" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD20" s="15">
         <v>1.536</v>
       </c>
       <c r="AE20" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF20" s="32">
+      <c r="AF20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG20" s="32">
         <f t="shared" si="5"/>
         <v>0.1080000000000001</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AH20" s="8">
         <f t="shared" si="6"/>
         <v>7.0312500000000056E-2</v>
       </c>
-      <c r="AH20" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI20" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="8">
         <v>2010</v>
@@ -2711,7 +2820,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F21" s="8">
         <v>9.6</v>
@@ -2766,33 +2875,38 @@
         <v>3</v>
       </c>
       <c r="AB21" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC21" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD21" s="15">
         <v>1.542</v>
       </c>
       <c r="AE21" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF21" s="32">
+      <c r="AF21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG21" s="32">
         <f t="shared" si="5"/>
         <v>0.1140000000000001</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AH21" s="8">
         <f t="shared" si="6"/>
         <v>7.3929961089494234E-2</v>
       </c>
-      <c r="AH21" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI21" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" s="8">
         <v>2010</v>
@@ -2804,7 +2918,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F22" s="8">
         <v>9.6</v>
@@ -2856,27 +2970,32 @@
         <v>4</v>
       </c>
       <c r="AB22" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC22" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD22" s="15">
         <v>1.381</v>
       </c>
       <c r="AE22" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="AF22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="8"/>
       <c r="AI22" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ22" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="8">
         <v>2010</v>
@@ -2888,7 +3007,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" s="8">
         <v>9.6</v>
@@ -2951,33 +3070,38 @@
         <v>1</v>
       </c>
       <c r="AB23" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC23" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD23" s="15">
         <v>1.2490000000000001</v>
       </c>
       <c r="AE23" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF23" s="32">
+      <c r="AF23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG23" s="32">
         <f>AD23-AD$22</f>
         <v>-0.1319999999999999</v>
       </c>
-      <c r="AG23" s="8">
-        <f t="shared" ref="AG23:AG26" si="7">AF23/AD23</f>
+      <c r="AH23" s="8">
+        <f t="shared" ref="AH23:AH26" si="7">AG23/AD23</f>
         <v>-0.1056845476381104</v>
       </c>
-      <c r="AH23" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI23" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="8">
         <v>2010</v>
@@ -2989,7 +3113,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F24" s="8">
         <v>9.6</v>
@@ -3046,33 +3170,38 @@
         <v>3.3330000000000002</v>
       </c>
       <c r="AB24" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC24" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD24" s="15">
         <v>1.395</v>
       </c>
       <c r="AE24" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF24" s="32">
-        <f t="shared" ref="AF24:AF26" si="8">AD24-AD$22</f>
+      <c r="AF24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG24" s="32">
+        <f t="shared" ref="AG24:AG26" si="8">AD24-AD$22</f>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="AG24" s="8">
+      <c r="AH24" s="8">
         <f t="shared" si="7"/>
         <v>1.0035842293906819E-2</v>
       </c>
-      <c r="AH24" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI24" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8">
         <v>2010</v>
@@ -3084,7 +3213,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="8">
         <v>9.6</v>
@@ -3141,33 +3270,38 @@
         <v>3.3330000000000002</v>
       </c>
       <c r="AB25" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC25" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD25" s="15">
         <v>1.3740000000000001</v>
       </c>
       <c r="AE25" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF25" s="32">
+      <c r="AF25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG25" s="32">
         <f t="shared" si="8"/>
         <v>-6.9999999999998952E-3</v>
       </c>
-      <c r="AG25" s="8">
+      <c r="AH25" s="8">
         <f t="shared" si="7"/>
         <v>-5.0946142649198655E-3</v>
       </c>
-      <c r="AH25" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI25" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="8">
         <v>2010</v>
@@ -3179,7 +3313,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F26" s="8">
         <v>9.6</v>
@@ -3234,33 +3368,38 @@
         <v>2</v>
       </c>
       <c r="AB26" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC26" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD26" s="15">
         <v>1.3779999999999999</v>
       </c>
       <c r="AE26" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF26" s="32">
+      <c r="AF26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG26" s="32">
         <f t="shared" si="8"/>
         <v>-3.0000000000001137E-3</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AH26" s="8">
         <f t="shared" si="7"/>
         <v>-2.1770682148041466E-3</v>
       </c>
-      <c r="AH26" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI26" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ26" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8">
         <v>2010</v>
@@ -3272,7 +3411,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" s="8">
         <v>9.6</v>
@@ -3324,27 +3463,32 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="AB27" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC27" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD27" s="15">
         <v>1.373</v>
       </c>
       <c r="AE27" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="AF27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="8"/>
       <c r="AI27" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="8">
         <v>2010</v>
@@ -3356,7 +3500,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8">
         <v>9.6</v>
@@ -3419,33 +3563,38 @@
         <v>2</v>
       </c>
       <c r="AB28" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC28" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD28" s="15">
         <v>1.286</v>
       </c>
       <c r="AE28" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF28" s="32">
+      <c r="AF28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG28" s="32">
         <f>AD28-AD$27</f>
         <v>-8.6999999999999966E-2</v>
       </c>
-      <c r="AG28" s="8">
-        <f t="shared" ref="AG28:AG31" si="9">AF28/AD28</f>
+      <c r="AH28" s="8">
+        <f t="shared" ref="AH28:AH31" si="9">AG28/AD28</f>
         <v>-6.7651632970450987E-2</v>
       </c>
-      <c r="AH28" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI28" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="8">
         <v>2010</v>
@@ -3457,7 +3606,7 @@
         <v>71</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F29" s="8">
         <v>9.6</v>
@@ -3514,33 +3663,38 @@
         <v>3.3330000000000002</v>
       </c>
       <c r="AB29" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC29" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD29" s="15">
         <v>1.177</v>
       </c>
       <c r="AE29" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF29" s="32">
-        <f t="shared" ref="AF29:AF31" si="10">AD29-AD$27</f>
+      <c r="AF29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG29" s="32">
+        <f t="shared" ref="AG29:AG31" si="10">AD29-AD$27</f>
         <v>-0.19599999999999995</v>
       </c>
-      <c r="AG29" s="8">
+      <c r="AH29" s="8">
         <f t="shared" si="9"/>
         <v>-0.16652506372132536</v>
       </c>
-      <c r="AH29" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI29" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8">
         <v>2010</v>
@@ -3552,7 +3706,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F30" s="8">
         <v>9.6</v>
@@ -3609,33 +3763,38 @@
         <v>3.3330000000000002</v>
       </c>
       <c r="AB30" s="8">
-        <v>8.3110999999999997</v>
-      </c>
-      <c r="AC30" s="8"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AD30" s="15">
         <v>1.306</v>
       </c>
       <c r="AE30" s="15">
         <v>103.217</v>
       </c>
-      <c r="AF30" s="32">
+      <c r="AF30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG30" s="32">
         <f t="shared" si="10"/>
         <v>-6.6999999999999948E-2</v>
       </c>
-      <c r="AG30" s="8">
+      <c r="AH30" s="8">
         <f t="shared" si="9"/>
         <v>-5.130168453292492E-2</v>
       </c>
-      <c r="AH30" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AI30" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
         <v>2010</v>
@@ -3647,7 +3806,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F31" s="3">
         <v>9.6</v>
@@ -3694,7 +3853,10 @@
         <v>1.667</v>
       </c>
       <c r="AB31" s="3">
-        <v>8.3110999999999997</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="AD31" s="14">
         <v>1.264</v>
@@ -3702,22 +3864,25 @@
       <c r="AE31" s="14">
         <v>103.217</v>
       </c>
-      <c r="AF31" s="25">
+      <c r="AF31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG31" s="25">
         <f t="shared" si="10"/>
         <v>-0.10899999999999999</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AH31" s="3">
         <f t="shared" si="9"/>
         <v>-8.6234177215189861E-2</v>
       </c>
-      <c r="AH31" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="AI31" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
@@ -3770,15 +3935,15 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="8">
-        <f t="shared" ref="X32:X38" si="12">COUNT(Q32:S32)</f>
+        <f t="shared" ref="X32" si="12">COUNT(Q32:S32)</f>
         <v>0</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" ref="Y32:Y38" si="13">Z32+14</f>
+        <f t="shared" ref="Y32" si="13">Z32+14</f>
         <v>40658</v>
       </c>
       <c r="Z32" s="9">
-        <f t="shared" ref="Z32:Z38" si="14">J32+(11*7)</f>
+        <f t="shared" ref="Z32" si="14">J32+(11*7)</f>
         <v>40644</v>
       </c>
       <c r="AA32" s="8">
@@ -3788,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD32" s="15">
         <v>1.6293989999999998</v>
@@ -3796,12 +3961,15 @@
       <c r="AE32" s="15">
         <v>2.38785376738191E-2</v>
       </c>
-      <c r="AF32" s="32"/>
-      <c r="AH32" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF32" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG32" s="32"/>
+      <c r="AI32" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -3872,7 +4040,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD33" s="15">
         <v>1.6943117999999999</v>
@@ -3880,12 +4048,15 @@
       <c r="AE33" s="15">
         <v>0.17516126758025002</v>
       </c>
-      <c r="AF33" s="32"/>
-      <c r="AH33" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG33" s="32"/>
+      <c r="AI33" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
@@ -3962,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD34" s="15">
         <v>1.7693124</v>
@@ -3970,19 +4141,22 @@
       <c r="AE34" s="15">
         <v>0.19441956128527801</v>
       </c>
-      <c r="AF34" s="32">
+      <c r="AF34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG34" s="32">
         <f>AD34-AVERAGE(AD$32:AD$33)</f>
         <v>0.10745700000000014</v>
       </c>
-      <c r="AG34" s="15">
-        <f t="shared" ref="AG34:AG38" si="18">(AF34/AD34)</f>
+      <c r="AH34" s="15">
+        <f t="shared" ref="AH34:AH38" si="18">(AG34/AD34)</f>
         <v>6.0733763014377863E-2</v>
       </c>
-      <c r="AH34" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI34" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>63</v>
       </c>
@@ -4058,7 +4232,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD35" s="15">
         <v>1.8083477999999999</v>
@@ -4066,19 +4240,22 @@
       <c r="AE35" s="15">
         <v>0.11190748141210199</v>
       </c>
-      <c r="AF35" s="32">
-        <f t="shared" ref="AF35:AF38" si="19">AD35-AVERAGE(AD$32:AD$33)</f>
+      <c r="AF35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG35" s="32">
+        <f t="shared" ref="AG35:AG38" si="19">AD35-AVERAGE(AD$32:AD$33)</f>
         <v>0.14649240000000008</v>
       </c>
-      <c r="AG35" s="15">
+      <c r="AH35" s="15">
         <f t="shared" si="18"/>
         <v>8.1008974048023333E-2</v>
       </c>
-      <c r="AH35" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI35" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>63</v>
       </c>
@@ -4160,7 +4337,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD36" s="15">
         <v>1.7504526</v>
@@ -4168,19 +4345,22 @@
       <c r="AE36" s="15">
         <v>8.7323266340878405E-2</v>
       </c>
-      <c r="AF36" s="32">
+      <c r="AF36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG36" s="32">
         <f t="shared" si="19"/>
         <v>8.8597200000000154E-2</v>
       </c>
-      <c r="AG36" s="15">
+      <c r="AH36" s="15">
         <f t="shared" si="18"/>
         <v>5.0613881232773827E-2</v>
       </c>
-      <c r="AH36" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI36" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>63</v>
       </c>
@@ -4257,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD37" s="15">
         <v>1.6087848</v>
@@ -4265,19 +4445,22 @@
       <c r="AE37" s="15">
         <v>0.362087345026749</v>
       </c>
-      <c r="AF37" s="32">
+      <c r="AF37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG37" s="32">
         <f t="shared" si="19"/>
         <v>-5.3070599999999857E-2</v>
       </c>
-      <c r="AG37" s="15">
+      <c r="AH37" s="15">
         <f t="shared" si="18"/>
         <v>-3.2988004362050072E-2</v>
       </c>
-      <c r="AH37" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI37" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>63</v>
       </c>
@@ -4360,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD38" s="15">
         <v>1.6636097999999999</v>
@@ -4368,19 +4551,22 @@
       <c r="AE38" s="15">
         <v>0.10372588631985699</v>
       </c>
-      <c r="AF38" s="32">
+      <c r="AF38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG38" s="32">
         <f t="shared" si="19"/>
         <v>1.7544000000000448E-3</v>
       </c>
-      <c r="AG38" s="15">
+      <c r="AH38" s="15">
         <f t="shared" si="18"/>
         <v>1.0545742156604541E-3</v>
       </c>
-      <c r="AH38" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI38" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>63</v>
       </c>
@@ -4452,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD39" s="15">
         <v>1.3989559</v>
@@ -4460,16 +4646,19 @@
       <c r="AE39" s="15">
         <v>9.2850088858330796E-3</v>
       </c>
-      <c r="AF39" s="15"/>
+      <c r="AF39" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG39" s="15"/>
-      <c r="AH39" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="AH39" s="15"/>
       <c r="AI39" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -4541,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD40" s="15">
         <v>1.3762281000000001</v>
@@ -4549,16 +4738,19 @@
       <c r="AE40" s="15">
         <v>0.19558967400404897</v>
       </c>
-      <c r="AF40" s="15"/>
+      <c r="AF40" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG40" s="15"/>
-      <c r="AH40" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="AH40" s="15"/>
       <c r="AI40" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>63</v>
       </c>
@@ -4636,7 +4828,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD41" s="15">
         <v>1.54389546666667</v>
@@ -4644,22 +4836,25 @@
       <c r="AE41" s="15">
         <v>0.128326021928303</v>
       </c>
-      <c r="AF41" s="32">
+      <c r="AF41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG41" s="32">
         <f>AD41-AVERAGE(AD$39:AD$40)</f>
         <v>0.15630346666666983</v>
       </c>
-      <c r="AG41" s="15">
-        <f>(AF41/AD41)</f>
+      <c r="AH41" s="15">
+        <f>(AG41/AD41)</f>
         <v>0.10123966942148943</v>
       </c>
-      <c r="AH41" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI41" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ41" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
@@ -4736,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD42" s="15">
         <v>1.4065318333333301</v>
@@ -4744,22 +4939,25 @@
       <c r="AE42" s="15">
         <v>0.112487860563366</v>
       </c>
-      <c r="AF42" s="32">
-        <f t="shared" ref="AF42:AF45" si="23">AD42-AVERAGE(AD$39:AD$40)</f>
+      <c r="AF42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG42" s="32">
+        <f t="shared" ref="AG42:AG45" si="23">AD42-AVERAGE(AD$39:AD$40)</f>
         <v>1.8939833333329936E-2</v>
       </c>
-      <c r="AG42" s="15">
-        <f t="shared" ref="AG42:AG83" si="24">(AF42/AD42)</f>
+      <c r="AH42" s="15">
+        <f t="shared" ref="AH42:AH83" si="24">(AG42/AD42)</f>
         <v>1.3465627214738934E-2</v>
       </c>
-      <c r="AH42" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI42" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ42" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>63</v>
       </c>
@@ -4842,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD43" s="15">
         <v>1.6389933666666701</v>
@@ -4850,22 +5048,25 @@
       <c r="AE43" s="15">
         <v>5.0624610450287197E-2</v>
       </c>
-      <c r="AF43" s="32">
+      <c r="AF43" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG43" s="32">
         <f t="shared" si="23"/>
         <v>0.2514013666666699</v>
       </c>
-      <c r="AG43" s="15">
+      <c r="AH43" s="15">
         <f t="shared" si="24"/>
         <v>0.15338766573409726</v>
       </c>
-      <c r="AH43" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI43" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ43" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>63</v>
       </c>
@@ -4943,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD44" s="15">
         <v>1.519174</v>
@@ -4951,22 +5152,25 @@
       <c r="AE44" s="15">
         <v>6.4239392626020311E-2</v>
       </c>
-      <c r="AF44" s="32">
+      <c r="AF44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG44" s="32">
         <f t="shared" si="23"/>
         <v>0.13158199999999987</v>
       </c>
-      <c r="AG44" s="15">
+      <c r="AH44" s="15">
         <f t="shared" si="24"/>
         <v>8.6614173228346372E-2</v>
       </c>
-      <c r="AH44" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AI44" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ44" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
@@ -5050,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD45" s="14">
         <v>1.4270666000000001</v>
@@ -5058,22 +5262,25 @@
       <c r="AE45" s="14">
         <v>0.30219324335866599</v>
       </c>
-      <c r="AF45" s="25">
+      <c r="AF45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG45" s="25">
         <f t="shared" si="23"/>
         <v>3.9474599999999915E-2</v>
       </c>
-      <c r="AG45" s="14">
+      <c r="AH45" s="14">
         <f t="shared" si="24"/>
         <v>2.766135792120698E-2</v>
       </c>
-      <c r="AH45" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="AI45" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>27</v>
       </c>
@@ -5141,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD46" s="8">
         <v>798.46</v>
@@ -5149,19 +5356,22 @@
       <c r="AE46" s="8">
         <v>151.042955148527</v>
       </c>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15">
-        <f t="shared" ref="AG46:AG55" si="27">(AF46/AD46)</f>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI46" s="8" t="s">
+      <c r="AF46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15">
+        <f t="shared" ref="AH46:AH55" si="27">(AG46/AD46)</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ46" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>27</v>
       </c>
@@ -5235,7 +5445,7 @@
         <v>1.1547005383792499</v>
       </c>
       <c r="AC47" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD47" s="8">
         <v>1058.57</v>
@@ -5243,22 +5453,25 @@
       <c r="AE47" s="8">
         <v>82.443813139616495</v>
       </c>
-      <c r="AF47" s="15">
+      <c r="AF47" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG47" s="15">
         <f>AD47-AD$46</f>
         <v>260.1099999999999</v>
       </c>
-      <c r="AG47" s="15">
+      <c r="AH47" s="15">
         <f t="shared" si="27"/>
         <v>0.24571828032156581</v>
       </c>
-      <c r="AH47" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI47" s="8" t="s">
+      <c r="AI47" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ47" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>27</v>
       </c>
@@ -5335,7 +5548,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC48" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD48" s="8">
         <v>986.23500000000001</v>
@@ -5343,22 +5556,25 @@
       <c r="AE48" s="8">
         <v>146.49582186874801</v>
       </c>
-      <c r="AF48" s="15">
-        <f t="shared" ref="AF48:AF55" si="28">AD48-AD$46</f>
+      <c r="AF48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG48" s="15">
+        <f t="shared" ref="AG48:AG55" si="28">AD48-AD$46</f>
         <v>187.77499999999998</v>
       </c>
-      <c r="AG48" s="15">
+      <c r="AH48" s="15">
         <f t="shared" si="27"/>
         <v>0.19039579816169572</v>
       </c>
-      <c r="AH48" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI48" s="8" t="s">
+      <c r="AI48" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ48" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>27</v>
       </c>
@@ -5438,7 +5654,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD49" s="8">
         <v>863.58</v>
@@ -5446,22 +5662,25 @@
       <c r="AE49" s="8">
         <v>90.367908020491399</v>
       </c>
-      <c r="AF49" s="15">
+      <c r="AF49" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG49" s="15">
         <f t="shared" si="28"/>
         <v>65.12</v>
       </c>
-      <c r="AG49" s="15">
+      <c r="AH49" s="15">
         <f t="shared" si="27"/>
         <v>7.5407026563838908E-2</v>
       </c>
-      <c r="AH49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI49" s="8" t="s">
+      <c r="AI49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>27</v>
       </c>
@@ -5534,7 +5753,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC50" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD50" s="8">
         <v>796.24</v>
@@ -5542,22 +5761,25 @@
       <c r="AE50" s="8">
         <v>209.443450542145</v>
       </c>
-      <c r="AF50" s="15">
+      <c r="AF50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG50" s="15">
         <f t="shared" si="28"/>
         <v>-2.2200000000000273</v>
       </c>
-      <c r="AG50" s="15">
+      <c r="AH50" s="15">
         <f t="shared" si="27"/>
         <v>-2.788104089219365E-3</v>
       </c>
-      <c r="AH50" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI50" s="8" t="s">
+      <c r="AI50" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ50" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>27</v>
       </c>
@@ -5633,7 +5855,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC51" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD51" s="8">
         <v>868.94500000000005</v>
@@ -5641,22 +5863,25 @@
       <c r="AE51" s="8">
         <v>110.523527359563</v>
       </c>
-      <c r="AF51" s="15">
+      <c r="AF51" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG51" s="15">
         <f t="shared" si="28"/>
         <v>70.485000000000014</v>
       </c>
-      <c r="AG51" s="15">
+      <c r="AH51" s="15">
         <f t="shared" si="27"/>
         <v>8.1115605705769644E-2</v>
       </c>
-      <c r="AH51" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI51" s="8" t="s">
+      <c r="AI51" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ51" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>27</v>
       </c>
@@ -5735,7 +5960,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC52" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD52" s="8">
         <v>883.56</v>
@@ -5743,22 +5968,25 @@
       <c r="AE52" s="8">
         <v>133.37447947414799</v>
       </c>
-      <c r="AF52" s="15">
+      <c r="AF52" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG52" s="15">
         <f t="shared" si="28"/>
         <v>85.099999999999909</v>
       </c>
-      <c r="AG52" s="15">
+      <c r="AH52" s="15">
         <f t="shared" si="27"/>
         <v>9.6314907872696726E-2</v>
       </c>
-      <c r="AH52" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI52" s="8" t="s">
+      <c r="AI52" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ52" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>27</v>
       </c>
@@ -5832,7 +6060,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC53" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD53" s="8">
         <v>862.1</v>
@@ -5840,22 +6068,25 @@
       <c r="AE53" s="8">
         <v>117.303859591234</v>
       </c>
-      <c r="AF53" s="15">
+      <c r="AF53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG53" s="15">
         <f t="shared" si="28"/>
         <v>63.639999999999986</v>
       </c>
-      <c r="AG53" s="15">
+      <c r="AH53" s="15">
         <f t="shared" si="27"/>
         <v>7.3819742489270368E-2</v>
       </c>
-      <c r="AH53" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI53" s="8" t="s">
+      <c r="AI53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ53" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>27</v>
       </c>
@@ -5932,7 +6163,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC54" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD54" s="8">
         <v>865.8</v>
@@ -5940,22 +6171,25 @@
       <c r="AE54" s="8">
         <v>191.04983230822299</v>
       </c>
-      <c r="AF54" s="15">
+      <c r="AF54" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG54" s="15">
         <f t="shared" si="28"/>
         <v>67.339999999999918</v>
       </c>
-      <c r="AG54" s="15">
+      <c r="AH54" s="15">
         <f t="shared" si="27"/>
         <v>7.7777777777777682E-2</v>
       </c>
-      <c r="AH54" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI54" s="8" t="s">
+      <c r="AI54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ54" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>27</v>
       </c>
@@ -6035,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD55" s="8">
         <v>900.39499999999998</v>
@@ -6043,22 +6277,25 @@
       <c r="AE55" s="8">
         <v>122.504647666935</v>
       </c>
-      <c r="AF55" s="15">
+      <c r="AF55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG55" s="15">
         <f t="shared" si="28"/>
         <v>101.93499999999995</v>
       </c>
-      <c r="AG55" s="15">
+      <c r="AH55" s="15">
         <f t="shared" si="27"/>
         <v>0.11321142387507699</v>
       </c>
-      <c r="AH55" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI55" s="8" t="s">
+      <c r="AI55" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ55" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>27</v>
       </c>
@@ -6126,7 +6363,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC56" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD56" s="8">
         <v>798.46</v>
@@ -6134,19 +6371,22 @@
       <c r="AE56" s="8">
         <v>165.196505940652</v>
       </c>
-      <c r="AF56" s="15"/>
-      <c r="AG56" s="15">
+      <c r="AF56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AH56" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI56" s="8" t="s">
+      <c r="AI56" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ56" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>27</v>
       </c>
@@ -6220,7 +6460,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC57" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD57" s="8">
         <v>730.19500000000005</v>
@@ -6228,22 +6468,25 @@
       <c r="AE57" s="8">
         <v>186.86804120822799</v>
       </c>
-      <c r="AF57" s="15">
+      <c r="AF57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG57" s="15">
         <f>AD57-AD$56</f>
         <v>-68.264999999999986</v>
       </c>
-      <c r="AG57" s="15">
+      <c r="AH57" s="15">
         <f t="shared" si="24"/>
         <v>-9.3488725614390658E-2</v>
       </c>
-      <c r="AH57" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI57" s="8" t="s">
+      <c r="AI57" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ57" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>27</v>
       </c>
@@ -6320,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD58" s="8">
         <v>875.42</v>
@@ -6328,22 +6571,25 @@
       <c r="AE58" s="8">
         <v>285.15894239002898</v>
       </c>
-      <c r="AF58" s="15">
-        <f t="shared" ref="AF58:AF65" si="30">AD58-AD$56</f>
+      <c r="AF58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG58" s="15">
+        <f t="shared" ref="AG58:AG65" si="30">AD58-AD$56</f>
         <v>76.959999999999923</v>
       </c>
-      <c r="AG58" s="15">
+      <c r="AH58" s="15">
         <f t="shared" si="24"/>
         <v>8.7912087912087822E-2</v>
       </c>
-      <c r="AH58" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI58" s="8" t="s">
+      <c r="AI58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ58" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>27</v>
       </c>
@@ -6423,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD59" s="8">
         <v>640.84</v>
@@ -6431,22 +6677,25 @@
       <c r="AE59" s="8">
         <v>160.85651595443699</v>
       </c>
-      <c r="AF59" s="15">
+      <c r="AF59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG59" s="15">
         <f t="shared" si="30"/>
         <v>-157.62</v>
       </c>
-      <c r="AG59" s="15">
+      <c r="AH59" s="15">
         <f t="shared" si="24"/>
         <v>-0.24595842956120093</v>
       </c>
-      <c r="AH59" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI59" s="8" t="s">
+      <c r="AI59" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ59" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>27</v>
       </c>
@@ -6519,7 +6768,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC60" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD60" s="8">
         <v>665.44500000000005</v>
@@ -6527,22 +6776,25 @@
       <c r="AE60" s="8">
         <v>50.660283260163503</v>
       </c>
-      <c r="AF60" s="15">
+      <c r="AF60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG60" s="15">
         <f t="shared" si="30"/>
         <v>-133.01499999999999</v>
       </c>
-      <c r="AG60" s="15">
+      <c r="AH60" s="15">
         <f t="shared" si="24"/>
         <v>-0.19988879621907141</v>
       </c>
-      <c r="AH60" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI60" s="8" t="s">
+      <c r="AI60" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ60" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>27</v>
       </c>
@@ -6618,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD61" s="8">
         <v>713.36</v>
@@ -6626,22 +6878,25 @@
       <c r="AE61" s="8">
         <v>203.007387858176</v>
       </c>
-      <c r="AF61" s="15">
+      <c r="AF61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG61" s="15">
         <f t="shared" si="30"/>
         <v>-85.100000000000023</v>
       </c>
-      <c r="AG61" s="15">
+      <c r="AH61" s="15">
         <f t="shared" si="24"/>
         <v>-0.11929460580912866</v>
       </c>
-      <c r="AH61" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI61" s="8" t="s">
+      <c r="AI61" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ61" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>27</v>
       </c>
@@ -6720,7 +6975,7 @@
         <v>0.57735026918962595</v>
       </c>
       <c r="AC62" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD62" s="8">
         <v>647.13</v>
@@ -6728,22 +6983,25 @@
       <c r="AE62" s="8">
         <v>188.23665908903101</v>
       </c>
-      <c r="AF62" s="15">
+      <c r="AF62" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG62" s="15">
         <f t="shared" si="30"/>
         <v>-151.33000000000004</v>
       </c>
-      <c r="AG62" s="15">
+      <c r="AH62" s="15">
         <f t="shared" si="24"/>
         <v>-0.23384791309319616</v>
       </c>
-      <c r="AH62" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI62" s="8" t="s">
+      <c r="AI62" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ62" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>27</v>
       </c>
@@ -6817,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD63" s="8">
         <v>771.82</v>
@@ -6825,22 +7083,25 @@
       <c r="AE63" s="8">
         <v>135.10270204551799</v>
       </c>
-      <c r="AF63" s="15">
+      <c r="AF63" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG63" s="15">
         <f t="shared" si="30"/>
         <v>-26.639999999999986</v>
       </c>
-      <c r="AG63" s="15">
+      <c r="AH63" s="15">
         <f t="shared" si="24"/>
         <v>-3.4515819750719059E-2</v>
       </c>
-      <c r="AH63" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI63" s="8" t="s">
+      <c r="AI63" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ63" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>27</v>
       </c>
@@ -6917,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD64" s="8">
         <v>691.34500000000003</v>
@@ -6925,22 +7186,25 @@
       <c r="AE64" s="8">
         <v>20.356726161148799</v>
       </c>
-      <c r="AF64" s="15">
+      <c r="AF64" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG64" s="15">
         <f t="shared" si="30"/>
         <v>-107.11500000000001</v>
       </c>
-      <c r="AG64" s="15">
+      <c r="AH64" s="15">
         <f t="shared" si="24"/>
         <v>-0.15493711533315493</v>
       </c>
-      <c r="AH64" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI64" s="8" t="s">
+      <c r="AI64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ64" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -7020,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD65" s="3">
         <v>828.89250000000004</v>
@@ -7028,22 +7292,25 @@
       <c r="AE65" s="3">
         <v>151.87592999715301</v>
       </c>
-      <c r="AF65" s="14">
+      <c r="AF65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG65" s="14">
         <f t="shared" si="30"/>
         <v>30.432500000000005</v>
       </c>
-      <c r="AG65" s="14">
+      <c r="AH65" s="14">
         <f t="shared" si="24"/>
         <v>3.6714652382546592E-2</v>
       </c>
-      <c r="AH65" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI65" s="3" t="s">
+      <c r="AI65" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>36</v>
       </c>
@@ -7105,25 +7372,36 @@
       <c r="AA66" s="10">
         <v>7.5</v>
       </c>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
+      <c r="AB66" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC66" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD66" s="15">
         <v>0.73799999999999999</v>
       </c>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="15">
-        <v>0</v>
+      <c r="AE66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF66" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="AG66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AH66" s="15"/>
-      <c r="AI66" s="6" t="s">
+      <c r="AI66" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ66" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>36</v>
       </c>
@@ -7192,25 +7470,36 @@
       <c r="AA67" s="10">
         <v>4.3</v>
       </c>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
+      <c r="AB67" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC67" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD67" s="15">
         <v>0.81</v>
       </c>
-      <c r="AE67" s="15"/>
-      <c r="AF67" s="15">
+      <c r="AE67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG67" s="15">
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="AG67" s="15">
+      <c r="AH67" s="15">
         <f t="shared" si="24"/>
         <v>8.8888888888888962E-2</v>
       </c>
-      <c r="AH67" s="15"/>
-      <c r="AI67" s="6" t="s">
+      <c r="AI67" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ67" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>36</v>
       </c>
@@ -7282,25 +7571,36 @@
       <c r="AA68" s="10">
         <v>3.3</v>
       </c>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
+      <c r="AB68" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC68" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD68" s="15">
         <v>0.94799999999999995</v>
       </c>
-      <c r="AE68" s="15"/>
-      <c r="AF68" s="15">
+      <c r="AE68" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG68" s="15">
         <v>0.20999999999999996</v>
       </c>
-      <c r="AG68" s="15">
+      <c r="AH68" s="15">
         <f t="shared" si="24"/>
         <v>0.22151898734177214</v>
       </c>
-      <c r="AH68" s="15"/>
-      <c r="AI68" s="6" t="s">
+      <c r="AI68" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ68" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>36</v>
       </c>
@@ -7369,25 +7669,36 @@
       <c r="AA69" s="10">
         <v>6.7</v>
       </c>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
+      <c r="AB69" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC69" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD69" s="15">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AE69" s="15"/>
-      <c r="AF69" s="15">
+      <c r="AE69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF69" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG69" s="15">
         <v>4.7000000000000042E-2</v>
       </c>
-      <c r="AG69" s="15">
+      <c r="AH69" s="15">
         <f t="shared" si="24"/>
         <v>5.9872611464968202E-2</v>
       </c>
-      <c r="AH69" s="15"/>
-      <c r="AI69" s="6" t="s">
+      <c r="AI69" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ69" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>36</v>
       </c>
@@ -7459,25 +7770,36 @@
       <c r="AA70" s="10">
         <v>4.3</v>
       </c>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
+      <c r="AB70" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC70" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD70" s="15">
         <v>0.96899999999999997</v>
       </c>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="15">
+      <c r="AE70" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF70" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG70" s="15">
         <v>0.23099999999999998</v>
       </c>
-      <c r="AG70" s="15">
+      <c r="AH70" s="15">
         <f t="shared" si="24"/>
         <v>0.23839009287925694</v>
       </c>
-      <c r="AH70" s="15"/>
-      <c r="AI70" s="6" t="s">
+      <c r="AI70" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ70" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>36</v>
       </c>
@@ -7547,25 +7869,36 @@
       <c r="AA71" s="10">
         <v>4</v>
       </c>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
+      <c r="AB71" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC71" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD71" s="15">
         <v>0.92300000000000004</v>
       </c>
-      <c r="AE71" s="15"/>
-      <c r="AF71" s="15">
+      <c r="AE71" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF71" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG71" s="15">
         <v>0.18500000000000005</v>
       </c>
-      <c r="AG71" s="15">
+      <c r="AH71" s="15">
         <f t="shared" si="24"/>
         <v>0.20043336944745399</v>
       </c>
-      <c r="AH71" s="15"/>
-      <c r="AI71" s="6" t="s">
+      <c r="AI71" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ71" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>36</v>
       </c>
@@ -7638,25 +7971,36 @@
       <c r="AA72" s="10">
         <v>2</v>
       </c>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
+      <c r="AB72" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC72" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD72" s="15">
         <v>0.96499999999999997</v>
       </c>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15">
+      <c r="AE72" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF72" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG72" s="15">
         <v>0.22699999999999998</v>
       </c>
-      <c r="AG72" s="15">
+      <c r="AH72" s="15">
         <f t="shared" si="24"/>
         <v>0.23523316062176164</v>
       </c>
-      <c r="AH72" s="15"/>
-      <c r="AI72" s="6" t="s">
+      <c r="AI72" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ72" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>36</v>
       </c>
@@ -7726,25 +8070,36 @@
       <c r="AA73" s="10">
         <v>3</v>
       </c>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
+      <c r="AB73" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC73" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD73" s="15">
         <v>0.74199999999999999</v>
       </c>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="15">
+      <c r="AE73" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF73" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG73" s="15">
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="AG73" s="15">
+      <c r="AH73" s="15">
         <f t="shared" si="24"/>
         <v>5.3908355795148294E-3</v>
       </c>
-      <c r="AH73" s="15"/>
-      <c r="AI73" s="6" t="s">
+      <c r="AI73" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ73" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>36</v>
       </c>
@@ -7817,25 +8172,36 @@
       <c r="AA74" s="10">
         <v>2</v>
       </c>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
+      <c r="AB74" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC74" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD74" s="15">
         <v>0.71499999999999997</v>
       </c>
-      <c r="AE74" s="15"/>
-      <c r="AF74" s="15">
+      <c r="AE74" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG74" s="15">
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="AG74" s="15">
+      <c r="AH74" s="15">
         <f t="shared" si="24"/>
         <v>-3.21678321678322E-2</v>
       </c>
-      <c r="AH74" s="15"/>
-      <c r="AI74" s="6" t="s">
+      <c r="AI74" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ74" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>36</v>
       </c>
@@ -7905,25 +8271,36 @@
       <c r="AA75" s="10">
         <v>3</v>
       </c>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
+      <c r="AB75" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC75" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD75" s="15">
         <v>0.77300000000000002</v>
       </c>
-      <c r="AE75" s="15"/>
-      <c r="AF75" s="15">
+      <c r="AE75" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF75" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG75" s="15">
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="AG75" s="15">
+      <c r="AH75" s="15">
         <f t="shared" si="24"/>
         <v>4.5278137128072486E-2</v>
       </c>
-      <c r="AH75" s="15"/>
-      <c r="AI75" s="6" t="s">
+      <c r="AI75" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ75" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>36</v>
       </c>
@@ -7996,25 +8373,36 @@
       <c r="AA76" s="10">
         <v>2</v>
       </c>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
+      <c r="AB76" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC76" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD76" s="15">
         <v>0.70699999999999996</v>
       </c>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15">
+      <c r="AE76" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF76" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG76" s="15">
         <v>-3.1000000000000028E-2</v>
       </c>
-      <c r="AG76" s="15">
+      <c r="AH76" s="15">
         <f t="shared" si="24"/>
         <v>-4.384724186704389E-2</v>
       </c>
-      <c r="AH76" s="15"/>
-      <c r="AI76" s="6" t="s">
+      <c r="AI76" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ76" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>36</v>
       </c>
@@ -8084,25 +8472,36 @@
       <c r="AA77" s="10">
         <v>6.3</v>
       </c>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
+      <c r="AB77" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC77" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD77" s="15">
         <v>0.91</v>
       </c>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15">
+      <c r="AE77" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF77" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG77" s="15">
         <v>0.17200000000000004</v>
       </c>
-      <c r="AG77" s="15">
+      <c r="AH77" s="15">
         <f t="shared" si="24"/>
         <v>0.18901098901098906</v>
       </c>
-      <c r="AH77" s="15"/>
-      <c r="AI77" s="6" t="s">
+      <c r="AI77" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ77" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>36</v>
       </c>
@@ -8175,25 +8574,36 @@
       <c r="AA78" s="10">
         <v>3.3</v>
       </c>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
+      <c r="AB78" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC78" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD78" s="15">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15">
+      <c r="AE78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF78" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG78" s="15">
         <v>0.18700000000000006</v>
       </c>
-      <c r="AG78" s="15">
+      <c r="AH78" s="15">
         <f t="shared" si="24"/>
         <v>0.20216216216216221</v>
       </c>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="6" t="s">
+      <c r="AI78" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ78" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>36</v>
       </c>
@@ -8263,25 +8673,36 @@
       <c r="AA79" s="10">
         <v>5.3</v>
       </c>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
+      <c r="AB79" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="AC79" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD79" s="15">
         <v>0.86</v>
       </c>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15">
+      <c r="AE79" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF79" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG79" s="15">
         <v>0.122</v>
       </c>
-      <c r="AG79" s="15">
+      <c r="AH79" s="15">
         <f t="shared" si="24"/>
         <v>0.14186046511627906</v>
       </c>
-      <c r="AH79" s="15"/>
-      <c r="AI79" s="6" t="s">
+      <c r="AI79" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ79" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>36</v>
       </c>
@@ -8354,25 +8775,36 @@
       <c r="AA80" s="5">
         <v>2</v>
       </c>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
+      <c r="AB80" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="AC80" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD80" s="14">
         <v>0.94399999999999995</v>
       </c>
-      <c r="AE80" s="14"/>
-      <c r="AF80" s="14">
+      <c r="AE80" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF80" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG80" s="14">
         <v>0.20599999999999996</v>
       </c>
-      <c r="AG80" s="14">
+      <c r="AH80" s="14">
         <f t="shared" si="24"/>
         <v>0.21822033898305082</v>
       </c>
-      <c r="AH80" s="14"/>
-      <c r="AI80" s="7" t="s">
+      <c r="AI80" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ80" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>38</v>
       </c>
@@ -8434,25 +8866,36 @@
       <c r="AA81" s="10">
         <v>8</v>
       </c>
-      <c r="AB81" s="10"/>
-      <c r="AC81" s="10"/>
+      <c r="AB81" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC81" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD81" s="15">
         <v>0.751</v>
       </c>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15">
-        <v>0</v>
+      <c r="AE81" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF81" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AG81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="6" t="s">
+      <c r="AI81" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ81" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>38</v>
       </c>
@@ -8521,25 +8964,36 @@
       <c r="AA82" s="10">
         <v>8</v>
       </c>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
+      <c r="AB82" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC82" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD82" s="15">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15">
+      <c r="AE82" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF82" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG82" s="15">
         <v>0.33900000000000008</v>
       </c>
-      <c r="AG82" s="15">
+      <c r="AH82" s="15">
         <f t="shared" si="24"/>
         <v>0.31100917431192665</v>
       </c>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="6" t="s">
+      <c r="AI82" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ82" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>38</v>
       </c>
@@ -8611,25 +9065,36 @@
       <c r="AA83" s="10">
         <v>4.3</v>
       </c>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
+      <c r="AB83" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC83" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD83" s="15">
         <v>1.0980000000000001</v>
       </c>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15">
+      <c r="AE83" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF83" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG83" s="15">
         <v>0.34700000000000009</v>
       </c>
-      <c r="AG83" s="15">
+      <c r="AH83" s="15">
         <f t="shared" si="24"/>
         <v>0.31602914389799641</v>
       </c>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="6" t="s">
+      <c r="AI83" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ83" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>38</v>
       </c>
@@ -8698,25 +9163,36 @@
       <c r="AA84" s="10">
         <v>8</v>
       </c>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
+      <c r="AB84" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC84" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD84" s="15">
         <v>0.87</v>
       </c>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15">
+      <c r="AE84" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF84" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG84" s="15">
         <v>0.11899999999999999</v>
       </c>
-      <c r="AG84" s="15">
-        <f t="shared" ref="AG84:AG108" si="35">(AF84/AD84)</f>
+      <c r="AH84" s="15">
+        <f t="shared" ref="AH84:AH108" si="35">(AG84/AD84)</f>
         <v>0.1367816091954023</v>
       </c>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="6" t="s">
+      <c r="AI84" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ84" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>38</v>
       </c>
@@ -8788,25 +9264,36 @@
       <c r="AA85" s="10">
         <v>4.3</v>
       </c>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
+      <c r="AB85" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC85" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD85" s="15">
         <v>1.2509999999999999</v>
       </c>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15">
+      <c r="AE85" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF85" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG85" s="15">
         <v>0.49999999999999989</v>
       </c>
-      <c r="AG85" s="15">
+      <c r="AH85" s="15">
         <f t="shared" si="35"/>
         <v>0.39968025579536365</v>
       </c>
-      <c r="AH85" s="15"/>
-      <c r="AI85" s="6" t="s">
+      <c r="AI85" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ85" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>38</v>
       </c>
@@ -8876,25 +9363,36 @@
       <c r="AA86" s="10">
         <v>5.7</v>
       </c>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
+      <c r="AB86" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC86" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD86" s="15">
         <v>1.1120000000000001</v>
       </c>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15">
+      <c r="AE86" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF86" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG86" s="15">
         <v>0.3610000000000001</v>
       </c>
-      <c r="AG86" s="15">
+      <c r="AH86" s="15">
         <f t="shared" si="35"/>
         <v>0.32464028776978421</v>
       </c>
-      <c r="AH86" s="15"/>
-      <c r="AI86" s="6" t="s">
+      <c r="AI86" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ86" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>38</v>
       </c>
@@ -8967,25 +9465,36 @@
       <c r="AA87" s="8">
         <v>1</v>
       </c>
-      <c r="AB87" s="8"/>
-      <c r="AC87" s="8"/>
+      <c r="AB87" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AC87" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="AD87" s="15">
         <v>1.175</v>
       </c>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15">
+      <c r="AE87" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF87" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG87" s="15">
         <v>0.42400000000000004</v>
       </c>
-      <c r="AG87" s="15">
+      <c r="AH87" s="15">
         <f t="shared" si="35"/>
         <v>0.36085106382978727</v>
       </c>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="6" t="s">
+      <c r="AI87" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ87" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>38</v>
       </c>
@@ -9055,25 +9564,36 @@
       <c r="AA88" s="10">
         <v>5</v>
       </c>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="10"/>
+      <c r="AB88" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC88" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD88" s="15">
         <v>1.2649999999999999</v>
       </c>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15">
+      <c r="AE88" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF88" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG88" s="15">
         <v>0.5139999999999999</v>
       </c>
-      <c r="AG88" s="15">
+      <c r="AH88" s="15">
         <f t="shared" si="35"/>
         <v>0.40632411067193669</v>
       </c>
-      <c r="AH88" s="15"/>
-      <c r="AI88" s="6" t="s">
+      <c r="AI88" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ88" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>38</v>
       </c>
@@ -9146,25 +9666,36 @@
       <c r="AA89" s="10">
         <v>1</v>
       </c>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
+      <c r="AB89" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC89" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD89" s="15">
         <v>1.1659999999999999</v>
       </c>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15">
+      <c r="AE89" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF89" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG89" s="15">
         <v>0.41499999999999992</v>
       </c>
-      <c r="AG89" s="15">
+      <c r="AH89" s="15">
         <f t="shared" si="35"/>
         <v>0.35591766723842189</v>
       </c>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="6" t="s">
+      <c r="AI89" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ89" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>38</v>
       </c>
@@ -9234,25 +9765,36 @@
       <c r="AA90" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
+      <c r="AB90" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC90" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD90" s="15">
         <v>1.052</v>
       </c>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15">
+      <c r="AE90" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF90" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG90" s="15">
         <v>0.30100000000000005</v>
       </c>
-      <c r="AG90" s="15">
+      <c r="AH90" s="15">
         <f t="shared" si="35"/>
         <v>0.28612167300380231</v>
       </c>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="6" t="s">
+      <c r="AI90" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ90" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>38</v>
       </c>
@@ -9325,25 +9867,36 @@
       <c r="AA91" s="10">
         <v>1</v>
       </c>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
+      <c r="AB91" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC91" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD91" s="15">
         <v>1.1779999999999999</v>
       </c>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15">
+      <c r="AE91" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF91" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG91" s="15">
         <v>0.42699999999999994</v>
       </c>
-      <c r="AG91" s="15">
+      <c r="AH91" s="15">
         <f t="shared" si="35"/>
         <v>0.3624787775891341</v>
       </c>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="6" t="s">
+      <c r="AI91" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ91" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>38</v>
       </c>
@@ -9413,25 +9966,36 @@
       <c r="AA92" s="10">
         <v>7.7</v>
       </c>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
+      <c r="AB92" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC92" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD92" s="15">
         <v>1.036</v>
       </c>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15">
+      <c r="AE92" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG92" s="15">
         <v>0.28500000000000003</v>
       </c>
-      <c r="AG92" s="15">
+      <c r="AH92" s="15">
         <f t="shared" si="35"/>
         <v>0.2750965250965251</v>
       </c>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="6" t="s">
+      <c r="AI92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ92" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>38</v>
       </c>
@@ -9504,25 +10068,36 @@
       <c r="AA93" s="10">
         <v>4.7</v>
       </c>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="10"/>
+      <c r="AB93" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC93" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD93" s="15">
         <v>1.2010000000000001</v>
       </c>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15">
+      <c r="AE93" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF93" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG93" s="15">
         <v>0.45000000000000007</v>
       </c>
-      <c r="AG93" s="15">
+      <c r="AH93" s="15">
         <f t="shared" si="35"/>
         <v>0.37468776019983352</v>
       </c>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="6" t="s">
+      <c r="AI93" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ93" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>38</v>
       </c>
@@ -9592,25 +10167,36 @@
       <c r="AA94" s="10">
         <v>7.3</v>
       </c>
-      <c r="AB94" s="10"/>
-      <c r="AC94" s="10"/>
+      <c r="AB94" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AC94" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AD94" s="15">
         <v>1.0569999999999999</v>
       </c>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15">
+      <c r="AE94" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF94" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG94" s="15">
         <v>0.30599999999999994</v>
       </c>
-      <c r="AG94" s="15">
+      <c r="AH94" s="15">
         <f t="shared" si="35"/>
         <v>0.2894985808893093</v>
       </c>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="6" t="s">
+      <c r="AI94" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ94" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>38</v>
       </c>
@@ -9683,25 +10269,36 @@
       <c r="AA95" s="5">
         <v>1.7</v>
       </c>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="5"/>
+      <c r="AB95" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AC95" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AD95" s="14">
         <v>1.323</v>
       </c>
-      <c r="AE95" s="14"/>
-      <c r="AF95" s="14">
+      <c r="AE95" s="15">
+        <v>0.246</v>
+      </c>
+      <c r="AF95" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG95" s="14">
         <v>0.57199999999999995</v>
       </c>
-      <c r="AG95" s="14">
+      <c r="AH95" s="14">
         <f t="shared" si="35"/>
         <v>0.43235071806500375</v>
       </c>
-      <c r="AH95" s="14"/>
-      <c r="AI95" s="7" t="s">
+      <c r="AI95" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ95" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>33</v>
       </c>
@@ -9774,17 +10371,18 @@
         <v>2.11</v>
       </c>
       <c r="AE96" s="15"/>
-      <c r="AF96" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF96" s="15"/>
       <c r="AG96" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="8"/>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="8"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>33</v>
       </c>
@@ -9865,17 +10463,18 @@
         <v>2.31</v>
       </c>
       <c r="AE97" s="15"/>
-      <c r="AF97" s="15">
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15">
         <v>0.20000000000000018</v>
       </c>
-      <c r="AG97" s="15">
+      <c r="AH97" s="15">
         <f t="shared" si="35"/>
         <v>8.658008658008666E-2</v>
       </c>
-      <c r="AH97" s="15"/>
-      <c r="AI97" s="8"/>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="8"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>33</v>
       </c>
@@ -9952,17 +10551,18 @@
         <v>2.04</v>
       </c>
       <c r="AE98" s="15"/>
-      <c r="AF98" s="15">
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15">
         <v>-6.999999999999984E-2</v>
       </c>
-      <c r="AG98" s="15">
+      <c r="AH98" s="15">
         <f t="shared" si="35"/>
         <v>-3.4313725490195998E-2</v>
       </c>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="8"/>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="8"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>33</v>
       </c>
@@ -10041,17 +10641,18 @@
         <v>2.25</v>
       </c>
       <c r="AE99" s="15"/>
-      <c r="AF99" s="15">
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15">
         <v>0.14000000000000012</v>
       </c>
-      <c r="AG99" s="15">
+      <c r="AH99" s="15">
         <f t="shared" si="35"/>
         <v>6.2222222222222276E-2</v>
       </c>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="8"/>
-    </row>
-    <row r="100" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="8"/>
+    </row>
+    <row r="100" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>33</v>
       </c>
@@ -10128,16 +10729,17 @@
         <v>2.13</v>
       </c>
       <c r="AE100" s="15"/>
-      <c r="AF100" s="15">
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15">
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AG100" s="15">
+      <c r="AH100" s="15">
         <f t="shared" si="35"/>
         <v>9.3896713615023563E-3</v>
       </c>
-      <c r="AH100" s="15"/>
-    </row>
-    <row r="101" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI100" s="15"/>
+    </row>
+    <row r="101" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -10216,16 +10818,17 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="AE101" s="14"/>
-      <c r="AF101" s="14">
+      <c r="AF101" s="14"/>
+      <c r="AG101" s="14">
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="AG101" s="14">
+      <c r="AH101" s="14">
         <f t="shared" si="35"/>
         <v>3.2110091743119393E-2</v>
       </c>
-      <c r="AH101" s="14"/>
-    </row>
-    <row r="102" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI101" s="14"/>
+    </row>
+    <row r="102" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>39</v>
       </c>
@@ -10296,19 +10899,20 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="AE102" s="15"/>
-      <c r="AF102" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF102" s="15"/>
       <c r="AG102" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="8" t="s">
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>39</v>
       </c>
@@ -10386,19 +10990,20 @@
         <v>0.87</v>
       </c>
       <c r="AE103" s="15"/>
-      <c r="AF103" s="15">
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15">
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="AG103" s="15">
+      <c r="AH103" s="15">
         <f t="shared" si="35"/>
         <v>7.4712643678160856E-2</v>
       </c>
-      <c r="AH103" s="15"/>
-      <c r="AI103" s="8" t="s">
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>39</v>
       </c>
@@ -10479,19 +11084,20 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="AE104" s="15"/>
-      <c r="AF104" s="15">
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15">
         <v>8.1999999999999962E-2</v>
       </c>
-      <c r="AG104" s="15">
+      <c r="AH104" s="15">
         <f t="shared" si="35"/>
         <v>9.8439375750300082E-2</v>
       </c>
-      <c r="AH104" s="15"/>
-      <c r="AI104" s="8" t="s">
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>39</v>
       </c>
@@ -10573,19 +11179,20 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="AE105" s="15"/>
-      <c r="AF105" s="15">
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15">
         <v>9.6999999999999975E-2</v>
       </c>
-      <c r="AG105" s="15">
+      <c r="AH105" s="15">
         <f t="shared" si="35"/>
         <v>0.11438679245283016</v>
       </c>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="8" t="s">
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>39</v>
       </c>
@@ -10663,19 +11270,20 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="AE106" s="15"/>
-      <c r="AF106" s="15">
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15">
         <v>0.17500000000000004</v>
       </c>
-      <c r="AG106" s="15">
+      <c r="AH106" s="15">
         <f t="shared" si="35"/>
         <v>0.18898488120950327</v>
       </c>
-      <c r="AH106" s="15"/>
-      <c r="AI106" s="8" t="s">
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>39</v>
       </c>
@@ -10756,19 +11364,20 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="AE107" s="15"/>
-      <c r="AF107" s="15">
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15">
         <v>5.4000000000000048E-2</v>
       </c>
-      <c r="AG107" s="15">
+      <c r="AH107" s="15">
         <f t="shared" si="35"/>
         <v>6.7080745341614956E-2</v>
       </c>
-      <c r="AH107" s="15"/>
-      <c r="AI107" s="8" t="s">
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>39</v>
       </c>
@@ -10848,19 +11457,20 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="AE108" s="14"/>
-      <c r="AF108" s="14">
+      <c r="AF108" s="14"/>
+      <c r="AG108" s="14">
         <v>3.3000000000000029E-2</v>
       </c>
-      <c r="AG108" s="14">
+      <c r="AH108" s="14">
         <f t="shared" si="35"/>
         <v>4.209183673469391E-2</v>
       </c>
-      <c r="AH108" s="14"/>
-      <c r="AI108" s="3" t="s">
+      <c r="AI108" s="14"/>
+      <c r="AJ108" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>14</v>
       </c>
@@ -10933,14 +11543,15 @@
         <v>1.58</v>
       </c>
       <c r="AE109" s="15"/>
-      <c r="AF109" s="8"/>
+      <c r="AF109" s="15"/>
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
-      <c r="AI109" s="8" t="s">
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>14</v>
       </c>
@@ -11018,19 +11629,20 @@
         <v>1.93</v>
       </c>
       <c r="AE110" s="15"/>
-      <c r="AF110" s="15">
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15">
         <v>0.34999999999999987</v>
       </c>
-      <c r="AG110" s="15">
-        <f t="shared" ref="AG110:AG141" si="38">(AF110/AD110)</f>
+      <c r="AH110" s="15">
+        <f t="shared" ref="AH110:AH141" si="38">(AG110/AD110)</f>
         <v>0.18134715025906731</v>
       </c>
-      <c r="AH110" s="15"/>
-      <c r="AI110" s="8" t="s">
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
@@ -11110,19 +11722,20 @@
         <v>2.06</v>
       </c>
       <c r="AE111" s="15"/>
-      <c r="AF111" s="15">
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15">
         <v>0.48</v>
       </c>
-      <c r="AG111" s="15">
+      <c r="AH111" s="15">
         <f t="shared" si="38"/>
         <v>0.23300970873786406</v>
       </c>
-      <c r="AH111" s="15"/>
-      <c r="AI111" s="8" t="s">
+      <c r="AI111" s="15"/>
+      <c r="AJ111" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>14</v>
       </c>
@@ -11204,19 +11817,20 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="AE112" s="15"/>
-      <c r="AF112" s="15">
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15">
         <v>0.42999999999999972</v>
       </c>
-      <c r="AG112" s="15">
+      <c r="AH112" s="15">
         <f t="shared" si="38"/>
         <v>0.21393034825870635</v>
       </c>
-      <c r="AH112" s="15"/>
-      <c r="AI112" s="8" t="s">
+      <c r="AI112" s="15"/>
+      <c r="AJ112" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>14</v>
       </c>
@@ -11294,19 +11908,20 @@
         <v>1.86</v>
       </c>
       <c r="AE113" s="15"/>
-      <c r="AF113" s="15">
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG113" s="15">
+      <c r="AH113" s="15">
         <f t="shared" si="38"/>
         <v>0.15053763440860216</v>
       </c>
-      <c r="AH113" s="15"/>
-      <c r="AI113" s="8" t="s">
+      <c r="AI113" s="15"/>
+      <c r="AJ113" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>14</v>
       </c>
@@ -11386,19 +12001,20 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="AE114" s="15"/>
-      <c r="AF114" s="15">
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15">
         <v>0.44999999999999973</v>
       </c>
-      <c r="AG114" s="15">
+      <c r="AH114" s="15">
         <f t="shared" si="38"/>
         <v>0.22167487684729054</v>
       </c>
-      <c r="AH114" s="15"/>
-      <c r="AI114" s="8" t="s">
+      <c r="AI114" s="15"/>
+      <c r="AJ114" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>14</v>
       </c>
@@ -11478,19 +12094,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AE115" s="15"/>
-      <c r="AF115" s="15">
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="15">
         <v>0.71999999999999975</v>
       </c>
-      <c r="AG115" s="15">
+      <c r="AH115" s="15">
         <f t="shared" si="38"/>
         <v>0.31304347826086948</v>
       </c>
-      <c r="AH115" s="15"/>
-      <c r="AI115" s="8" t="s">
+      <c r="AI115" s="15"/>
+      <c r="AJ115" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>41</v>
       </c>
@@ -11561,19 +12178,20 @@
         <v>0.58540000000000003</v>
       </c>
       <c r="AE116" s="43"/>
-      <c r="AF116" s="44">
-        <v>0</v>
-      </c>
+      <c r="AF116" s="43"/>
       <c r="AG116" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="44">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH116" s="44"/>
-      <c r="AI116" s="41" t="s">
+      <c r="AI116" s="44"/>
+      <c r="AJ116" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>41</v>
       </c>
@@ -11651,19 +12269,20 @@
         <v>0.76439999999999997</v>
       </c>
       <c r="AE117" s="32"/>
-      <c r="AF117" s="15">
+      <c r="AF117" s="32"/>
+      <c r="AG117" s="15">
         <v>0.17899999999999994</v>
       </c>
-      <c r="AG117" s="15">
+      <c r="AH117" s="15">
         <f t="shared" si="38"/>
         <v>0.23417059131344839</v>
       </c>
-      <c r="AH117" s="15"/>
-      <c r="AI117" s="8" t="s">
+      <c r="AI117" s="15"/>
+      <c r="AJ117" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>41</v>
       </c>
@@ -11743,19 +12362,20 @@
         <v>0.77669999999999995</v>
       </c>
       <c r="AE118" s="32"/>
-      <c r="AF118" s="15">
+      <c r="AF118" s="32"/>
+      <c r="AG118" s="15">
         <v>0.19129999999999991</v>
       </c>
-      <c r="AG118" s="15">
+      <c r="AH118" s="15">
         <f t="shared" si="38"/>
         <v>0.24629844212694724</v>
       </c>
-      <c r="AH118" s="15"/>
-      <c r="AI118" s="8" t="s">
+      <c r="AI118" s="15"/>
+      <c r="AJ118" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>41</v>
       </c>
@@ -11837,19 +12457,20 @@
         <v>0.64229999999999998</v>
       </c>
       <c r="AE119" s="32"/>
-      <c r="AF119" s="15">
+      <c r="AF119" s="32"/>
+      <c r="AG119" s="15">
         <v>5.6899999999999951E-2</v>
       </c>
-      <c r="AG119" s="15">
+      <c r="AH119" s="15">
         <f t="shared" si="38"/>
         <v>8.858788728008711E-2</v>
       </c>
-      <c r="AH119" s="15"/>
-      <c r="AI119" s="8" t="s">
+      <c r="AI119" s="15"/>
+      <c r="AJ119" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>41</v>
       </c>
@@ -11927,19 +12548,20 @@
         <v>0.67020000000000002</v>
       </c>
       <c r="AE120" s="32"/>
-      <c r="AF120" s="15">
+      <c r="AF120" s="32"/>
+      <c r="AG120" s="15">
         <v>8.4799999999999986E-2</v>
       </c>
-      <c r="AG120" s="15">
+      <c r="AH120" s="15">
         <f t="shared" si="38"/>
         <v>0.12652939421068335</v>
       </c>
-      <c r="AH120" s="15"/>
-      <c r="AI120" s="8" t="s">
+      <c r="AI120" s="15"/>
+      <c r="AJ120" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>41</v>
       </c>
@@ -12019,19 +12641,20 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="AE121" s="32"/>
-      <c r="AF121" s="15">
+      <c r="AF121" s="32"/>
+      <c r="AG121" s="15">
         <v>0.10659999999999992</v>
       </c>
-      <c r="AG121" s="15">
+      <c r="AH121" s="15">
         <f t="shared" si="38"/>
         <v>0.15404624277456636</v>
       </c>
-      <c r="AH121" s="15"/>
-      <c r="AI121" s="8" t="s">
+      <c r="AI121" s="15"/>
+      <c r="AJ121" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>41</v>
       </c>
@@ -12111,19 +12734,20 @@
         <v>0.69769999999999999</v>
       </c>
       <c r="AE122" s="25"/>
-      <c r="AF122" s="14">
+      <c r="AF122" s="25"/>
+      <c r="AG122" s="14">
         <v>0.11229999999999996</v>
       </c>
-      <c r="AG122" s="14">
+      <c r="AH122" s="14">
         <f t="shared" si="38"/>
         <v>0.16095743156084272</v>
       </c>
-      <c r="AH122" s="14"/>
-      <c r="AI122" s="3" t="s">
+      <c r="AI122" s="14"/>
+      <c r="AJ122" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>65</v>
       </c>
@@ -12190,17 +12814,18 @@
         <v>1.82489561071677</v>
       </c>
       <c r="AE123" s="8"/>
-      <c r="AF123" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF123" s="8"/>
       <c r="AG123" s="15">
-        <f>(AF123/AD123)</f>
-        <v>0</v>
-      </c>
-      <c r="AH123" s="15"/>
-      <c r="AI123" s="8"/>
-    </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="15">
+        <f>(AG123/AD123)</f>
+        <v>0</v>
+      </c>
+      <c r="AI123" s="15"/>
+      <c r="AJ123" s="8"/>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>65</v>
       </c>
@@ -12269,17 +12894,18 @@
         <v>1.60854019106295</v>
       </c>
       <c r="AE124" s="8"/>
-      <c r="AF124" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF124" s="8"/>
       <c r="AG124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH124" s="15"/>
-      <c r="AI124" s="8"/>
-    </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI124" s="15"/>
+      <c r="AJ124" s="8"/>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>65</v>
       </c>
@@ -12346,17 +12972,18 @@
         <v>1.22788870327402</v>
       </c>
       <c r="AE125" s="8"/>
-      <c r="AF125" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF125" s="8"/>
       <c r="AG125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH125" s="15"/>
-      <c r="AI125" s="8"/>
-    </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI125" s="15"/>
+      <c r="AJ125" s="8"/>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>65</v>
       </c>
@@ -12423,17 +13050,18 @@
         <v>2.0839414430769398</v>
       </c>
       <c r="AE126" s="8"/>
-      <c r="AF126" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF126" s="8"/>
       <c r="AG126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH126" s="15"/>
-      <c r="AI126" s="8"/>
-    </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI126" s="15"/>
+      <c r="AJ126" s="8"/>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>65</v>
       </c>
@@ -12500,17 +13128,18 @@
         <v>1.482819981829</v>
       </c>
       <c r="AE127" s="8"/>
-      <c r="AF127" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF127" s="8"/>
       <c r="AG127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH127" s="15"/>
-      <c r="AI127" s="8"/>
-    </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI127" s="15"/>
+      <c r="AJ127" s="8"/>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>65</v>
       </c>
@@ -12577,17 +13206,18 @@
         <v>1.2265200429540399</v>
       </c>
       <c r="AE128" s="8"/>
-      <c r="AF128" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF128" s="8"/>
       <c r="AG128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH128" s="15"/>
-      <c r="AI128" s="8"/>
-    </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI128" s="15"/>
+      <c r="AJ128" s="8"/>
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>65</v>
       </c>
@@ -12654,17 +13284,18 @@
         <v>1.64185917947517</v>
       </c>
       <c r="AE129" s="8"/>
-      <c r="AF129" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF129" s="8"/>
       <c r="AG129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH129" s="15"/>
-      <c r="AI129" s="8"/>
-    </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI129" s="15"/>
+      <c r="AJ129" s="8"/>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>65</v>
       </c>
@@ -12731,17 +13362,18 @@
         <v>1.5045725993666701</v>
       </c>
       <c r="AE130" s="8"/>
-      <c r="AF130" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF130" s="8"/>
       <c r="AG130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH130" s="15"/>
-      <c r="AI130" s="8"/>
-    </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI130" s="15"/>
+      <c r="AJ130" s="8"/>
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>65</v>
       </c>
@@ -12808,17 +13440,18 @@
         <v>1.4483717562427001</v>
       </c>
       <c r="AE131" s="8"/>
-      <c r="AF131" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF131" s="8"/>
       <c r="AG131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AH131" s="15"/>
-      <c r="AI131" s="8"/>
-    </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI131" s="15"/>
+      <c r="AJ131" s="8"/>
+    </row>
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>65</v>
       </c>
@@ -12890,17 +13523,18 @@
         <v>1.7242822303249401</v>
       </c>
       <c r="AE132" s="8"/>
-      <c r="AF132" s="15">
+      <c r="AF132" s="8"/>
+      <c r="AG132" s="15">
         <v>-0.12594984743135318</v>
       </c>
-      <c r="AG132" s="15">
+      <c r="AH132" s="15">
         <f t="shared" si="38"/>
         <v>-7.304479812891071E-2</v>
       </c>
-      <c r="AH132" s="15"/>
-      <c r="AI132" s="8"/>
-    </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI132" s="15"/>
+      <c r="AJ132" s="8"/>
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>65</v>
       </c>
@@ -12974,17 +13608,18 @@
         <v>1.7172796026391399</v>
       </c>
       <c r="AE133" s="8"/>
-      <c r="AF133" s="15">
+      <c r="AF133" s="8"/>
+      <c r="AG133" s="15">
         <v>0.18530201188626649</v>
       </c>
-      <c r="AG133" s="15">
+      <c r="AH133" s="15">
         <f t="shared" si="38"/>
         <v>0.10790439227339084</v>
       </c>
-      <c r="AH133" s="15"/>
-      <c r="AI133" s="8"/>
-    </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI133" s="15"/>
+      <c r="AJ133" s="8"/>
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>65</v>
       </c>
@@ -13056,17 +13691,18 @@
         <v>1.4435202787883199</v>
       </c>
       <c r="AE134" s="8"/>
-      <c r="AF134" s="15">
+      <c r="AF134" s="8"/>
+      <c r="AG134" s="15">
         <v>0.14259344463139989</v>
       </c>
-      <c r="AG134" s="15">
+      <c r="AH134" s="15">
         <f t="shared" si="38"/>
         <v>9.8781739838869301E-2</v>
       </c>
-      <c r="AH134" s="15"/>
-      <c r="AI134" s="8"/>
-    </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI134" s="15"/>
+      <c r="AJ134" s="8"/>
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>65</v>
       </c>
@@ -13138,17 +13774,18 @@
         <v>1.7914059128494699</v>
       </c>
       <c r="AE135" s="8"/>
-      <c r="AF135" s="15">
+      <c r="AF135" s="8"/>
+      <c r="AG135" s="15">
         <v>-5.8826164906823353E-2</v>
       </c>
-      <c r="AG135" s="15">
+      <c r="AH135" s="15">
         <f t="shared" si="38"/>
         <v>-3.2837987462736737E-2</v>
       </c>
-      <c r="AH135" s="15"/>
-      <c r="AI135" s="8"/>
-    </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI135" s="15"/>
+      <c r="AJ135" s="8"/>
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>65</v>
       </c>
@@ -13220,17 +13857,18 @@
         <v>1.7330036719553601</v>
       </c>
       <c r="AE136" s="8"/>
-      <c r="AF136" s="15">
+      <c r="AF136" s="8"/>
+      <c r="AG136" s="15">
         <v>0.20102608120248666</v>
       </c>
-      <c r="AG136" s="15">
+      <c r="AH136" s="15">
         <f t="shared" si="38"/>
         <v>0.11599864700555858</v>
       </c>
-      <c r="AH136" s="15"/>
-      <c r="AI136" s="8"/>
-    </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI136" s="15"/>
+      <c r="AJ136" s="8"/>
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>65</v>
       </c>
@@ -13302,17 +13940,18 @@
         <v>1.1301771093544799</v>
       </c>
       <c r="AE137" s="8"/>
-      <c r="AF137" s="15">
+      <c r="AF137" s="8"/>
+      <c r="AG137" s="15">
         <v>-0.17074972480244011</v>
       </c>
-      <c r="AG137" s="15">
+      <c r="AH137" s="15">
         <f t="shared" si="38"/>
         <v>-0.15108227143263125</v>
       </c>
-      <c r="AH137" s="15"/>
-      <c r="AI137" s="8"/>
-    </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI137" s="15"/>
+      <c r="AJ137" s="8"/>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>65</v>
       </c>
@@ -13384,17 +14023,18 @@
         <v>2.05107860367968</v>
       </c>
       <c r="AE138" s="8"/>
-      <c r="AF138" s="15">
+      <c r="AF138" s="8"/>
+      <c r="AG138" s="15">
         <v>0.2008465259233867</v>
       </c>
-      <c r="AG138" s="15">
+      <c r="AH138" s="15">
         <f t="shared" si="38"/>
         <v>9.7922393399776889E-2</v>
       </c>
-      <c r="AH138" s="15"/>
-      <c r="AI138" s="8"/>
-    </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI138" s="15"/>
+      <c r="AJ138" s="8"/>
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>65</v>
       </c>
@@ -13466,17 +14106,18 @@
         <v>1.76328355915084</v>
       </c>
       <c r="AE139" s="8"/>
-      <c r="AF139" s="15">
+      <c r="AF139" s="8"/>
+      <c r="AG139" s="15">
         <v>0.23130596839796658</v>
       </c>
-      <c r="AG139" s="15">
+      <c r="AH139" s="15">
         <f t="shared" si="38"/>
         <v>0.13117911024438897</v>
       </c>
-      <c r="AH139" s="15"/>
-      <c r="AI139" s="8"/>
-    </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI139" s="15"/>
+      <c r="AJ139" s="8"/>
+    </row>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>65</v>
       </c>
@@ -13548,17 +14189,18 @@
         <v>1.4199149205541599</v>
       </c>
       <c r="AE140" s="8"/>
-      <c r="AF140" s="15">
+      <c r="AF140" s="8"/>
+      <c r="AG140" s="15">
         <v>0.1189880863972399</v>
       </c>
-      <c r="AG140" s="15">
+      <c r="AH140" s="15">
         <f t="shared" si="38"/>
         <v>8.3799447892836845E-2</v>
       </c>
-      <c r="AH140" s="15"/>
-      <c r="AI140" s="8"/>
-    </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI140" s="15"/>
+      <c r="AJ140" s="8"/>
+    </row>
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>65</v>
       </c>
@@ -13630,17 +14272,18 @@
         <v>1.9218522394687101</v>
       </c>
       <c r="AE141" s="8"/>
-      <c r="AF141" s="15">
+      <c r="AF141" s="8"/>
+      <c r="AG141" s="15">
         <v>7.1620161712416808E-2</v>
       </c>
-      <c r="AG141" s="15">
+      <c r="AH141" s="15">
         <f t="shared" si="38"/>
         <v>3.7266216539215302E-2</v>
       </c>
-      <c r="AH141" s="15"/>
-      <c r="AI141" s="8"/>
-    </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI141" s="15"/>
+      <c r="AJ141" s="8"/>
+    </row>
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>65</v>
       </c>
@@ -13712,15 +14355,16 @@
       <c r="AC142" s="8"/>
       <c r="AD142" s="8"/>
       <c r="AE142" s="8"/>
-      <c r="AF142" s="15"/>
-      <c r="AG142" s="15" t="e">
-        <f t="shared" ref="AG142:AG173" si="40">(AF142/AD142)</f>
+      <c r="AF142" s="8"/>
+      <c r="AG142" s="15"/>
+      <c r="AH142" s="15" t="e">
+        <f t="shared" ref="AH142:AH173" si="40">(AG142/AD142)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH142" s="15"/>
-      <c r="AI142" s="8"/>
-    </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI142" s="15"/>
+      <c r="AJ142" s="8"/>
+    </row>
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>65</v>
       </c>
@@ -13792,17 +14436,18 @@
         <v>1.38905793764705</v>
       </c>
       <c r="AE143" s="8"/>
-      <c r="AF143" s="15">
+      <c r="AF143" s="8"/>
+      <c r="AG143" s="15">
         <v>8.8131103490129981E-2</v>
       </c>
-      <c r="AG143" s="15">
+      <c r="AH143" s="15">
         <f t="shared" si="40"/>
         <v>6.3446672094482126E-2</v>
       </c>
-      <c r="AH143" s="15"/>
-      <c r="AI143" s="8"/>
-    </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI143" s="15"/>
+      <c r="AJ143" s="8"/>
+    </row>
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>65</v>
       </c>
@@ -13874,17 +14519,18 @@
         <v>2.1005559646482301</v>
       </c>
       <c r="AE144" s="8"/>
-      <c r="AF144" s="15">
+      <c r="AF144" s="8"/>
+      <c r="AG144" s="15">
         <v>0.25032388689193685</v>
       </c>
-      <c r="AG144" s="15">
+      <c r="AH144" s="15">
         <f t="shared" si="40"/>
         <v>0.11917030115113232</v>
       </c>
-      <c r="AH144" s="15"/>
-      <c r="AI144" s="8"/>
-    </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI144" s="15"/>
+      <c r="AJ144" s="8"/>
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>65</v>
       </c>
@@ -13956,17 +14602,18 @@
         <v>1.85921909000592</v>
       </c>
       <c r="AE145" s="8"/>
-      <c r="AF145" s="15">
+      <c r="AF145" s="8"/>
+      <c r="AG145" s="15">
         <v>0.32724149925304657</v>
       </c>
-      <c r="AG145" s="15">
+      <c r="AH145" s="15">
         <f t="shared" si="40"/>
         <v>0.1760101867564218</v>
       </c>
-      <c r="AH145" s="15"/>
-      <c r="AI145" s="8"/>
-    </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI145" s="15"/>
+      <c r="AJ145" s="8"/>
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>65</v>
       </c>
@@ -14038,17 +14685,18 @@
         <v>1.49809569835384</v>
       </c>
       <c r="AE146" s="8"/>
-      <c r="AF146" s="15">
+      <c r="AF146" s="8"/>
+      <c r="AG146" s="15">
         <v>0.19716886419692004</v>
       </c>
-      <c r="AG146" s="15">
+      <c r="AH146" s="15">
         <f t="shared" si="40"/>
         <v>0.13161299669545548</v>
       </c>
-      <c r="AH146" s="15"/>
-      <c r="AI146" s="8"/>
-    </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI146" s="15"/>
+      <c r="AJ146" s="8"/>
+    </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>65</v>
       </c>
@@ -14120,17 +14768,18 @@
         <v>2.0485359280449602</v>
       </c>
       <c r="AE147" s="8"/>
-      <c r="AF147" s="15">
+      <c r="AF147" s="8"/>
+      <c r="AG147" s="15">
         <v>0.19830385028866693</v>
       </c>
-      <c r="AG147" s="15">
+      <c r="AH147" s="15">
         <f t="shared" si="40"/>
         <v>9.680272021292792E-2</v>
       </c>
-      <c r="AH147" s="15"/>
-      <c r="AI147" s="8"/>
-    </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI147" s="15"/>
+      <c r="AJ147" s="8"/>
+    </row>
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>65</v>
       </c>
@@ -14202,17 +14851,18 @@
         <v>1.9739362660609501</v>
       </c>
       <c r="AE148" s="8"/>
-      <c r="AF148" s="15">
+      <c r="AF148" s="8"/>
+      <c r="AG148" s="15">
         <v>0.44195867530807664</v>
       </c>
-      <c r="AG148" s="15">
+      <c r="AH148" s="15">
         <f t="shared" si="40"/>
         <v>0.22389713533660266</v>
       </c>
-      <c r="AH148" s="15"/>
-      <c r="AI148" s="8"/>
-    </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI148" s="15"/>
+      <c r="AJ148" s="8"/>
+    </row>
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>65</v>
       </c>
@@ -14284,17 +14934,18 @@
         <v>1.4885523151578499</v>
       </c>
       <c r="AE149" s="8"/>
-      <c r="AF149" s="15">
+      <c r="AF149" s="8"/>
+      <c r="AG149" s="15">
         <v>0.18762548100092991</v>
       </c>
-      <c r="AG149" s="15">
+      <c r="AH149" s="15">
         <f t="shared" si="40"/>
         <v>0.12604560759494277</v>
       </c>
-      <c r="AH149" s="15"/>
-      <c r="AI149" s="8"/>
-    </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI149" s="15"/>
+      <c r="AJ149" s="8"/>
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>65</v>
       </c>
@@ -14366,17 +15017,18 @@
         <v>2.5262528427418798</v>
       </c>
       <c r="AE150" s="8"/>
-      <c r="AF150" s="15">
+      <c r="AF150" s="8"/>
+      <c r="AG150" s="15">
         <v>0.6760207649855865</v>
       </c>
-      <c r="AG150" s="15">
+      <c r="AH150" s="15">
         <f t="shared" si="40"/>
         <v>0.26759822039501968</v>
       </c>
-      <c r="AH150" s="15"/>
-      <c r="AI150" s="8"/>
-    </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI150" s="15"/>
+      <c r="AJ150" s="8"/>
+    </row>
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>65</v>
       </c>
@@ -14450,17 +15102,18 @@
         <v>2.0006007883177799</v>
       </c>
       <c r="AE151" s="8"/>
-      <c r="AF151" s="15">
+      <c r="AF151" s="8"/>
+      <c r="AG151" s="15">
         <v>0.46862319756490645</v>
       </c>
-      <c r="AG151" s="15">
+      <c r="AH151" s="15">
         <f t="shared" si="40"/>
         <v>0.23424123408396322</v>
       </c>
-      <c r="AH151" s="15"/>
-      <c r="AI151" s="8"/>
-    </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI151" s="15"/>
+      <c r="AJ151" s="8"/>
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>65</v>
       </c>
@@ -14532,17 +15185,18 @@
         <v>1.79883941613374</v>
       </c>
       <c r="AE152" s="8"/>
-      <c r="AF152" s="15">
+      <c r="AF152" s="8"/>
+      <c r="AG152" s="15">
         <v>0.49791258197681998</v>
       </c>
-      <c r="AG152" s="15">
+      <c r="AH152" s="15">
         <f t="shared" si="40"/>
         <v>0.27679657089513166</v>
       </c>
-      <c r="AH152" s="15"/>
-      <c r="AI152" s="8"/>
-    </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI152" s="15"/>
+      <c r="AJ152" s="8"/>
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>65</v>
       </c>
@@ -14614,17 +15268,18 @@
         <v>2.1016994313724702</v>
       </c>
       <c r="AE153" s="8"/>
-      <c r="AF153" s="15">
+      <c r="AF153" s="8"/>
+      <c r="AG153" s="15">
         <v>0.25146735361617689</v>
       </c>
-      <c r="AG153" s="15">
+      <c r="AH153" s="15">
         <f t="shared" si="40"/>
         <v>0.11964953211790207</v>
       </c>
-      <c r="AH153" s="15"/>
-      <c r="AI153" s="8"/>
-    </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI153" s="15"/>
+      <c r="AJ153" s="8"/>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>65</v>
       </c>
@@ -14696,17 +15351,18 @@
         <v>2.1794810906747202</v>
       </c>
       <c r="AE154" s="8"/>
-      <c r="AF154" s="15">
+      <c r="AF154" s="8"/>
+      <c r="AG154" s="15">
         <v>0.64750349992184675</v>
       </c>
-      <c r="AG154" s="15">
+      <c r="AH154" s="15">
         <f t="shared" si="40"/>
         <v>0.29709067111997456</v>
       </c>
-      <c r="AH154" s="15"/>
-      <c r="AI154" s="8"/>
-    </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI154" s="15"/>
+      <c r="AJ154" s="8"/>
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>65</v>
       </c>
@@ -14778,17 +15434,18 @@
         <v>1.9737390242258599</v>
       </c>
       <c r="AE155" s="8"/>
-      <c r="AF155" s="15">
+      <c r="AF155" s="8"/>
+      <c r="AG155" s="15">
         <v>0.67281219006893989</v>
       </c>
-      <c r="AG155" s="15">
+      <c r="AH155" s="15">
         <f t="shared" si="40"/>
         <v>0.3408820425652932</v>
       </c>
-      <c r="AH155" s="15"/>
-      <c r="AI155" s="8"/>
-    </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI155" s="15"/>
+      <c r="AJ155" s="8"/>
+    </row>
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>65</v>
       </c>
@@ -14860,17 +15517,18 @@
         <v>2.2661069846945998</v>
       </c>
       <c r="AE156" s="8"/>
-      <c r="AF156" s="15">
+      <c r="AF156" s="8"/>
+      <c r="AG156" s="15">
         <v>0.41587490693830653</v>
       </c>
-      <c r="AG156" s="15">
+      <c r="AH156" s="15">
         <f t="shared" si="40"/>
         <v>0.18351953802143786</v>
       </c>
-      <c r="AH156" s="15"/>
-      <c r="AI156" s="8"/>
-    </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI156" s="15"/>
+      <c r="AJ156" s="8"/>
+    </row>
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>65</v>
       </c>
@@ -14942,17 +15600,18 @@
         <v>2.0922098083312499</v>
       </c>
       <c r="AE157" s="8"/>
-      <c r="AF157" s="15">
+      <c r="AF157" s="8"/>
+      <c r="AG157" s="15">
         <v>0.56023221757837649</v>
       </c>
-      <c r="AG157" s="15">
+      <c r="AH157" s="15">
         <f t="shared" si="40"/>
         <v>0.26777057221867184</v>
       </c>
-      <c r="AH157" s="15"/>
-      <c r="AI157" s="8"/>
-    </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI157" s="15"/>
+      <c r="AJ157" s="8"/>
+    </row>
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>65</v>
       </c>
@@ -15024,17 +15683,18 @@
         <v>1.3137540699347301</v>
       </c>
       <c r="AE158" s="8"/>
-      <c r="AF158" s="15">
+      <c r="AF158" s="8"/>
+      <c r="AG158" s="15">
         <v>1.2827235777810087E-2</v>
       </c>
-      <c r="AG158" s="15">
+      <c r="AH158" s="15">
         <f t="shared" si="40"/>
         <v>9.7638028846961968E-3</v>
       </c>
-      <c r="AH158" s="15"/>
-      <c r="AI158" s="8"/>
-    </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI158" s="15"/>
+      <c r="AJ158" s="8"/>
+    </row>
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>65</v>
       </c>
@@ -15106,17 +15766,18 @@
         <v>1.8777801163653201</v>
       </c>
       <c r="AE159" s="8"/>
-      <c r="AF159" s="15">
+      <c r="AF159" s="8"/>
+      <c r="AG159" s="15">
         <v>2.754803860902677E-2</v>
       </c>
-      <c r="AG159" s="15">
+      <c r="AH159" s="15">
         <f t="shared" si="40"/>
         <v>1.4670534834690586E-2</v>
       </c>
-      <c r="AH159" s="15"/>
-      <c r="AI159" s="8"/>
-    </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI159" s="15"/>
+      <c r="AJ159" s="8"/>
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>65</v>
       </c>
@@ -15190,17 +15851,18 @@
         <v>1.78061480009739</v>
       </c>
       <c r="AE160" s="8"/>
-      <c r="AF160" s="15">
+      <c r="AF160" s="8"/>
+      <c r="AG160" s="15">
         <v>0.24863720934451661</v>
       </c>
-      <c r="AG160" s="15">
+      <c r="AH160" s="15">
         <f t="shared" si="40"/>
         <v>0.13963559627321839</v>
       </c>
-      <c r="AH160" s="15"/>
-      <c r="AI160" s="8"/>
-    </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI160" s="15"/>
+      <c r="AJ160" s="8"/>
+    </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>65</v>
       </c>
@@ -15272,17 +15934,18 @@
         <v>1.5336703831809599</v>
       </c>
       <c r="AE161" s="8"/>
-      <c r="AF161" s="15">
+      <c r="AF161" s="8"/>
+      <c r="AG161" s="15">
         <v>0.23274354902403993</v>
       </c>
-      <c r="AG161" s="15">
+      <c r="AH161" s="15">
         <f t="shared" si="40"/>
         <v>0.15175591285873985</v>
       </c>
-      <c r="AH161" s="15"/>
-      <c r="AI161" s="8"/>
-    </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI161" s="15"/>
+      <c r="AJ161" s="8"/>
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>65</v>
       </c>
@@ -15354,17 +16017,18 @@
         <v>2.1433538333161501</v>
       </c>
       <c r="AE162" s="8"/>
-      <c r="AF162" s="15">
+      <c r="AF162" s="8"/>
+      <c r="AG162" s="15">
         <v>0.29312175555985687</v>
       </c>
-      <c r="AG162" s="15">
+      <c r="AH162" s="15">
         <f t="shared" si="40"/>
         <v>0.13675845350571225</v>
       </c>
-      <c r="AH162" s="15"/>
-      <c r="AI162" s="8"/>
-    </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI162" s="15"/>
+      <c r="AJ162" s="8"/>
+    </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>65</v>
       </c>
@@ -15436,17 +16100,18 @@
         <v>1.82789865751201</v>
       </c>
       <c r="AE163" s="8"/>
-      <c r="AF163" s="15">
+      <c r="AF163" s="8"/>
+      <c r="AG163" s="15">
         <v>0.29592106675913654</v>
       </c>
-      <c r="AG163" s="15">
+      <c r="AH163" s="15">
         <f t="shared" si="40"/>
         <v>0.16189139673745409</v>
       </c>
-      <c r="AH163" s="15"/>
-      <c r="AI163" s="8"/>
-    </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI163" s="15"/>
+      <c r="AJ163" s="8"/>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>65</v>
       </c>
@@ -15518,17 +16183,18 @@
         <v>1.7563899648635299</v>
       </c>
       <c r="AE164" s="8"/>
-      <c r="AF164" s="15">
+      <c r="AF164" s="8"/>
+      <c r="AG164" s="15">
         <v>0.45546313070660993</v>
       </c>
-      <c r="AG164" s="15">
+      <c r="AH164" s="15">
         <f t="shared" si="40"/>
         <v>0.25931777100650827</v>
       </c>
-      <c r="AH164" s="15"/>
-      <c r="AI164" s="8"/>
-    </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI164" s="15"/>
+      <c r="AJ164" s="8"/>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>65</v>
       </c>
@@ -15600,17 +16266,18 @@
         <v>2.6421837564693398</v>
       </c>
       <c r="AE165" s="8"/>
-      <c r="AF165" s="15">
+      <c r="AF165" s="8"/>
+      <c r="AG165" s="15">
         <v>0.7919516787130465</v>
       </c>
-      <c r="AG165" s="15">
+      <c r="AH165" s="15">
         <f t="shared" si="40"/>
         <v>0.29973376256438145</v>
       </c>
-      <c r="AH165" s="15"/>
-      <c r="AI165" s="8"/>
-    </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI165" s="15"/>
+      <c r="AJ165" s="8"/>
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>65</v>
       </c>
@@ -15682,17 +16349,18 @@
         <v>2.1369819883489698</v>
       </c>
       <c r="AE166" s="8"/>
-      <c r="AF166" s="15">
+      <c r="AF166" s="8"/>
+      <c r="AG166" s="15">
         <v>0.60500439759609637</v>
       </c>
-      <c r="AG166" s="15">
+      <c r="AH166" s="15">
         <f t="shared" si="40"/>
         <v>0.28311160360482129</v>
       </c>
-      <c r="AH166" s="15"/>
-      <c r="AI166" s="8"/>
-    </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI166" s="15"/>
+      <c r="AJ166" s="8"/>
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>65</v>
       </c>
@@ -15764,17 +16432,18 @@
         <v>1.84339985025659</v>
       </c>
       <c r="AE167" s="8"/>
-      <c r="AF167" s="15">
+      <c r="AF167" s="8"/>
+      <c r="AG167" s="15">
         <v>0.54247301609967002</v>
       </c>
-      <c r="AG167" s="15">
+      <c r="AH167" s="15">
         <f t="shared" si="40"/>
         <v>0.2942785397450049</v>
       </c>
-      <c r="AH167" s="15"/>
-      <c r="AI167" s="8"/>
-    </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI167" s="15"/>
+      <c r="AJ167" s="8"/>
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>65</v>
       </c>
@@ -15846,17 +16515,18 @@
         <v>2.27791368868079</v>
       </c>
       <c r="AE168" s="8"/>
-      <c r="AF168" s="15">
+      <c r="AF168" s="8"/>
+      <c r="AG168" s="15">
         <v>0.42768161092449675</v>
       </c>
-      <c r="AG168" s="15">
+      <c r="AH168" s="15">
         <f t="shared" si="40"/>
         <v>0.18775145566300203</v>
       </c>
-      <c r="AH168" s="15"/>
-      <c r="AI168" s="8"/>
-    </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI168" s="15"/>
+      <c r="AJ168" s="8"/>
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>65</v>
       </c>
@@ -15930,17 +16600,18 @@
         <v>1.35690258922655</v>
       </c>
       <c r="AE169" s="8"/>
-      <c r="AF169" s="15">
+      <c r="AF169" s="8"/>
+      <c r="AG169" s="15">
         <v>-0.17507500152632338</v>
       </c>
-      <c r="AG169" s="15">
+      <c r="AH169" s="15">
         <f t="shared" si="40"/>
         <v>-0.12902547531147252</v>
       </c>
-      <c r="AH169" s="15"/>
-      <c r="AI169" s="8"/>
-    </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI169" s="15"/>
+      <c r="AJ169" s="8"/>
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>65</v>
       </c>
@@ -16012,17 +16683,18 @@
         <v>1.7424353553490299</v>
       </c>
       <c r="AE170" s="8"/>
-      <c r="AF170" s="15">
+      <c r="AF170" s="8"/>
+      <c r="AG170" s="15">
         <v>0.44150852119210993</v>
       </c>
-      <c r="AG170" s="15">
+      <c r="AH170" s="15">
         <f t="shared" si="40"/>
         <v>0.25338588306116566</v>
       </c>
-      <c r="AH170" s="15"/>
-      <c r="AI170" s="8"/>
-    </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI170" s="15"/>
+      <c r="AJ170" s="8"/>
+    </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>65</v>
       </c>
@@ -16094,17 +16766,18 @@
         <v>2.3121443631354301</v>
       </c>
       <c r="AE171" s="8"/>
-      <c r="AF171" s="15">
+      <c r="AF171" s="8"/>
+      <c r="AG171" s="15">
         <v>0.46191228537913687</v>
       </c>
-      <c r="AG171" s="15">
+      <c r="AH171" s="15">
         <f t="shared" si="40"/>
         <v>0.19977657655975745</v>
       </c>
-      <c r="AH171" s="15"/>
-      <c r="AI171" s="8"/>
-    </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI171" s="15"/>
+      <c r="AJ171" s="8"/>
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>65</v>
       </c>
@@ -16176,17 +16849,18 @@
         <v>2.1125934089755098</v>
       </c>
       <c r="AE172" s="8"/>
-      <c r="AF172" s="15">
+      <c r="AF172" s="8"/>
+      <c r="AG172" s="15">
         <v>0.58061581822263642</v>
       </c>
-      <c r="AG172" s="15">
+      <c r="AH172" s="15">
         <f t="shared" si="40"/>
         <v>0.2748355721246914</v>
       </c>
-      <c r="AH172" s="15"/>
-      <c r="AI172" s="8"/>
-    </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI172" s="15"/>
+      <c r="AJ172" s="8"/>
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>65</v>
       </c>
@@ -16258,17 +16932,18 @@
         <v>1.79216546387105</v>
       </c>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="15">
+      <c r="AF173" s="8"/>
+      <c r="AG173" s="15">
         <v>0.49123862971413002</v>
       </c>
-      <c r="AG173" s="15">
+      <c r="AH173" s="15">
         <f t="shared" si="40"/>
         <v>0.2741033903493833</v>
       </c>
-      <c r="AH173" s="15"/>
-      <c r="AI173" s="8"/>
-    </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI173" s="15"/>
+      <c r="AJ173" s="8"/>
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>65</v>
       </c>
@@ -16340,17 +17015,18 @@
         <v>2.2719427873169802</v>
       </c>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="15">
+      <c r="AF174" s="8"/>
+      <c r="AG174" s="15">
         <v>0.4217107095606869</v>
       </c>
-      <c r="AG174" s="15">
-        <f t="shared" ref="AG174:AG205" si="42">(AF174/AD174)</f>
+      <c r="AH174" s="15">
+        <f t="shared" ref="AH174:AH205" si="42">(AG174/AD174)</f>
         <v>0.18561678221602596</v>
       </c>
-      <c r="AH174" s="15"/>
-      <c r="AI174" s="8"/>
-    </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI174" s="15"/>
+      <c r="AJ174" s="8"/>
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>65</v>
       </c>
@@ -16422,17 +17098,18 @@
         <v>1.97413836034495</v>
       </c>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="15">
+      <c r="AF175" s="8"/>
+      <c r="AG175" s="15">
         <v>0.44216076959207662</v>
       </c>
-      <c r="AG175" s="15">
+      <c r="AH175" s="15">
         <f t="shared" si="42"/>
         <v>0.22397658567093337</v>
       </c>
-      <c r="AH175" s="15"/>
-      <c r="AI175" s="8"/>
-    </row>
-    <row r="176" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI175" s="15"/>
+      <c r="AJ175" s="8"/>
+    </row>
+    <row r="176" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>65</v>
       </c>
@@ -16501,16 +17178,16 @@
       <c r="AD176" s="8">
         <v>1.71399910210255</v>
       </c>
-      <c r="AF176" s="15">
+      <c r="AG176" s="15">
         <v>0.41307226794563001</v>
       </c>
-      <c r="AG176" s="15">
+      <c r="AH176" s="15">
         <f t="shared" si="42"/>
         <v>0.2409991157165236</v>
       </c>
-      <c r="AH176" s="15"/>
-    </row>
-    <row r="177" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI176" s="15"/>
+    </row>
+    <row r="177" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
         <v>64</v>
       </c>
@@ -16572,20 +17249,20 @@
       <c r="AD177" s="41">
         <v>0.96143333333333303</v>
       </c>
-      <c r="AF177" s="44">
-        <v>0</v>
-      </c>
       <c r="AG177" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH177" s="44">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH177" s="44"/>
-      <c r="AI177" s="44">
+      <c r="AI177" s="44"/>
+      <c r="AJ177" s="44">
         <f>AVERAGE(AD177,AD180,AD183)</f>
         <v>0.8378000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>64</v>
       </c>
@@ -16649,20 +17326,20 @@
       <c r="AD178" s="8">
         <v>0.77649999999999997</v>
       </c>
-      <c r="AF178" s="15">
-        <v>0</v>
-      </c>
       <c r="AG178" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH178" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH178" s="15"/>
-      <c r="AI178" s="15">
+      <c r="AI178" s="15"/>
+      <c r="AJ178" s="15">
         <f>AVERAGE(AD178,AD181,AD184)</f>
         <v>0.8746222222222233</v>
       </c>
     </row>
-    <row r="179" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>64</v>
       </c>
@@ -16724,20 +17401,20 @@
       <c r="AD179" s="8">
         <v>0.74860000000000004</v>
       </c>
-      <c r="AF179" s="15">
-        <v>0</v>
-      </c>
       <c r="AG179" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH179" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH179" s="15"/>
-      <c r="AI179" s="15">
+      <c r="AI179" s="15"/>
+      <c r="AJ179" s="15">
         <f>AVERAGE(AD179,AD182,AD185)</f>
         <v>0.77196666666666669</v>
       </c>
     </row>
-    <row r="180" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>64</v>
       </c>
@@ -16799,16 +17476,16 @@
       <c r="AD180" s="8">
         <v>0.68826666666666703</v>
       </c>
-      <c r="AF180" s="15">
-        <v>0</v>
-      </c>
       <c r="AG180" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH180" s="15"/>
-    </row>
-    <row r="181" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI180" s="15"/>
+    </row>
+    <row r="181" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>64</v>
       </c>
@@ -16870,16 +17547,16 @@
       <c r="AD181" s="8">
         <v>1.00016666666667</v>
       </c>
-      <c r="AF181" s="15">
-        <v>0</v>
-      </c>
       <c r="AG181" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH181" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH181" s="15"/>
-    </row>
-    <row r="182" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI181" s="15"/>
+    </row>
+    <row r="182" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>64</v>
       </c>
@@ -16941,16 +17618,16 @@
       <c r="AD182" s="8">
         <v>0.73619999999999997</v>
       </c>
-      <c r="AF182" s="15">
-        <v>0</v>
-      </c>
       <c r="AG182" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH182" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH182" s="15"/>
-    </row>
-    <row r="183" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI182" s="15"/>
+    </row>
+    <row r="183" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>64</v>
       </c>
@@ -17012,16 +17689,16 @@
       <c r="AD183" s="8">
         <v>0.86370000000000002</v>
       </c>
-      <c r="AF183" s="15">
-        <v>0</v>
-      </c>
       <c r="AG183" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH183" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH183" s="15"/>
-    </row>
-    <row r="184" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI183" s="15"/>
+    </row>
+    <row r="184" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>64</v>
       </c>
@@ -17083,16 +17760,16 @@
       <c r="AD184" s="8">
         <v>0.84719999999999995</v>
       </c>
-      <c r="AF184" s="15">
-        <v>0</v>
-      </c>
       <c r="AG184" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH184" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH184" s="15"/>
-    </row>
-    <row r="185" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI184" s="15"/>
+    </row>
+    <row r="185" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>64</v>
       </c>
@@ -17154,16 +17831,16 @@
       <c r="AD185" s="8">
         <v>0.83109999999999995</v>
       </c>
-      <c r="AF185" s="15">
-        <v>0</v>
-      </c>
       <c r="AG185" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH185" s="15">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AH185" s="15"/>
-    </row>
-    <row r="186" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI185" s="15"/>
+    </row>
+    <row r="186" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>64</v>
       </c>
@@ -17230,16 +17907,16 @@
       <c r="AD186" s="8">
         <v>0.83203333333333296</v>
       </c>
-      <c r="AF186" s="15">
+      <c r="AG186" s="15">
         <v>-5.7666666666671418E-3</v>
       </c>
-      <c r="AG186" s="15">
+      <c r="AH186" s="15">
         <f t="shared" si="42"/>
         <v>-6.9308120668248197E-3</v>
       </c>
-      <c r="AH186" s="15"/>
-    </row>
-    <row r="187" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI186" s="15"/>
+    </row>
+    <row r="187" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>64</v>
       </c>
@@ -17308,16 +17985,16 @@
       <c r="AD187" s="8">
         <v>0.78263333333333296</v>
       </c>
-      <c r="AF187" s="15">
+      <c r="AG187" s="15">
         <v>-9.1988888888890341E-2</v>
       </c>
-      <c r="AG187" s="15">
+      <c r="AH187" s="15">
         <f t="shared" si="42"/>
         <v>-0.11753765776509696</v>
       </c>
-      <c r="AH187" s="15"/>
-    </row>
-    <row r="188" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI187" s="15"/>
+    </row>
+    <row r="188" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>64</v>
       </c>
@@ -17384,16 +18061,16 @@
       <c r="AD188" s="8">
         <v>0.74446666666666705</v>
       </c>
-      <c r="AF188" s="15">
+      <c r="AG188" s="15">
         <v>-2.7499999999999636E-2</v>
       </c>
-      <c r="AG188" s="15">
+      <c r="AH188" s="15">
         <f t="shared" si="42"/>
         <v>-3.6939195844899644E-2</v>
       </c>
-      <c r="AH188" s="15"/>
-    </row>
-    <row r="189" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI188" s="15"/>
+    </row>
+    <row r="189" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>64</v>
       </c>
@@ -17460,16 +18137,16 @@
       <c r="AD189" s="8">
         <v>0.79549999999999998</v>
       </c>
-      <c r="AF189" s="15">
+      <c r="AG189" s="15">
         <v>-4.2300000000000115E-2</v>
       </c>
-      <c r="AG189" s="15">
+      <c r="AH189" s="15">
         <f t="shared" si="42"/>
         <v>-5.3174104336895178E-2</v>
       </c>
-      <c r="AH189" s="15"/>
-    </row>
-    <row r="190" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI189" s="15"/>
+    </row>
+    <row r="190" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>64</v>
       </c>
@@ -17536,16 +18213,16 @@
       <c r="AD190" s="8">
         <v>0.92096666666666704</v>
       </c>
-      <c r="AF190" s="15">
+      <c r="AG190" s="15">
         <v>4.6344444444443744E-2</v>
       </c>
-      <c r="AG190" s="15">
+      <c r="AH190" s="15">
         <f t="shared" si="42"/>
         <v>5.0321522072218024E-2</v>
       </c>
-      <c r="AH190" s="15"/>
-    </row>
-    <row r="191" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI190" s="15"/>
+    </row>
+    <row r="191" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>64</v>
       </c>
@@ -17612,16 +18289,16 @@
       <c r="AD191" s="8">
         <v>0.92266666666666697</v>
       </c>
-      <c r="AF191" s="15">
+      <c r="AG191" s="15">
         <v>0.15070000000000028</v>
       </c>
-      <c r="AG191" s="15">
+      <c r="AH191" s="15">
         <f t="shared" si="42"/>
         <v>0.16333092485549158</v>
       </c>
-      <c r="AH191" s="15"/>
-    </row>
-    <row r="192" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI191" s="15"/>
+    </row>
+    <row r="192" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>64</v>
       </c>
@@ -17688,16 +18365,16 @@
       <c r="AD192" s="8">
         <v>0.92930000000000001</v>
       </c>
-      <c r="AF192" s="15">
+      <c r="AG192" s="15">
         <v>9.1499999999999915E-2</v>
       </c>
-      <c r="AG192" s="15">
+      <c r="AH192" s="15">
         <f t="shared" si="42"/>
         <v>9.846120736037868E-2</v>
       </c>
-      <c r="AH192" s="15"/>
-    </row>
-    <row r="193" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI192" s="15"/>
+    </row>
+    <row r="193" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>64</v>
       </c>
@@ -17764,16 +18441,16 @@
       <c r="AD193" s="8">
         <v>0.77676666666666705</v>
       </c>
-      <c r="AF193" s="15">
+      <c r="AG193" s="15">
         <v>-9.7855555555556251E-2</v>
       </c>
-      <c r="AG193" s="15">
+      <c r="AH193" s="15">
         <f t="shared" si="42"/>
         <v>-0.12597805718863175</v>
       </c>
-      <c r="AH193" s="15"/>
-    </row>
-    <row r="194" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI193" s="15"/>
+    </row>
+    <row r="194" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>64</v>
       </c>
@@ -17840,16 +18517,16 @@
       <c r="AD194" s="8">
         <v>0.69159999999999999</v>
       </c>
-      <c r="AF194" s="15">
+      <c r="AG194" s="15">
         <v>-8.0366666666666697E-2</v>
       </c>
-      <c r="AG194" s="15">
+      <c r="AH194" s="15">
         <f t="shared" si="42"/>
         <v>-0.11620397146712941</v>
       </c>
-      <c r="AH194" s="15"/>
-    </row>
-    <row r="195" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI194" s="15"/>
+    </row>
+    <row r="195" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>64</v>
       </c>
@@ -17916,16 +18593,16 @@
       <c r="AD195" s="8">
         <v>0.95923333333333305</v>
       </c>
-      <c r="AF195" s="15">
+      <c r="AG195" s="15">
         <v>0.12143333333333295</v>
       </c>
-      <c r="AG195" s="15">
+      <c r="AH195" s="15">
         <f t="shared" si="42"/>
         <v>0.12659415505438334</v>
       </c>
-      <c r="AH195" s="15"/>
-    </row>
-    <row r="196" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI195" s="15"/>
+    </row>
+    <row r="196" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>64</v>
       </c>
@@ -17994,16 +18671,16 @@
       <c r="AD196" s="8">
         <v>0.80606666666666704</v>
       </c>
-      <c r="AF196" s="15">
+      <c r="AG196" s="15">
         <v>-2.0722222222221864E-2</v>
       </c>
-      <c r="AG196" s="15">
+      <c r="AH196" s="15">
         <f t="shared" si="42"/>
         <v>-2.5707826758194344E-2</v>
       </c>
-      <c r="AH196" s="15"/>
-    </row>
-    <row r="197" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI196" s="15"/>
+    </row>
+    <row r="197" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>64</v>
       </c>
@@ -18070,16 +18747,16 @@
       <c r="AD197" s="8">
         <v>0.73329999999999995</v>
       </c>
-      <c r="AF197" s="15">
+      <c r="AG197" s="15">
         <v>-5.2944444444444794E-2</v>
       </c>
-      <c r="AG197" s="15">
+      <c r="AH197" s="15">
         <f t="shared" si="42"/>
         <v>-7.2200251526585019E-2</v>
       </c>
-      <c r="AH197" s="15"/>
-    </row>
-    <row r="198" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI197" s="15"/>
+    </row>
+    <row r="198" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>64</v>
       </c>
@@ -18146,16 +18823,16 @@
       <c r="AD198" s="8">
         <v>0.75346666666666695</v>
       </c>
-      <c r="AF198" s="15">
+      <c r="AG198" s="15">
         <v>-8.4333333333333149E-2</v>
       </c>
-      <c r="AG198" s="15">
+      <c r="AH198" s="15">
         <f t="shared" si="42"/>
         <v>-0.11192709254999086</v>
       </c>
-      <c r="AH198" s="15"/>
-    </row>
-    <row r="199" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI198" s="15"/>
+    </row>
+    <row r="199" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>64</v>
       </c>
@@ -18222,16 +18899,16 @@
       <c r="AD199" s="8">
         <v>0.58126666666666704</v>
       </c>
-      <c r="AF199" s="15">
+      <c r="AG199" s="15">
         <v>-0.24552222222222186</v>
       </c>
-      <c r="AG199" s="15">
+      <c r="AH199" s="15">
         <f t="shared" si="42"/>
         <v>-0.42239171158771943</v>
       </c>
-      <c r="AH199" s="15"/>
-    </row>
-    <row r="200" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI199" s="15"/>
+    </row>
+    <row r="200" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>64</v>
       </c>
@@ -18298,16 +18975,16 @@
       <c r="AD200" s="8">
         <v>1.0233000000000001</v>
       </c>
-      <c r="AF200" s="15">
+      <c r="AG200" s="15">
         <v>0.23705555555555535</v>
       </c>
-      <c r="AG200" s="15">
+      <c r="AH200" s="15">
         <f t="shared" si="42"/>
         <v>0.23165792588249323</v>
       </c>
-      <c r="AH200" s="15"/>
-    </row>
-    <row r="201" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI200" s="15"/>
+    </row>
+    <row r="201" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>64</v>
       </c>
@@ -18374,16 +19051,16 @@
       <c r="AD201" s="8">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AF201" s="15">
+      <c r="AG201" s="15">
         <v>-3.6800000000000055E-2</v>
       </c>
-      <c r="AG201" s="15">
+      <c r="AH201" s="15">
         <f t="shared" si="42"/>
         <v>-4.5942571785268484E-2</v>
       </c>
-      <c r="AH201" s="15"/>
-    </row>
-    <row r="202" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI201" s="15"/>
+    </row>
+    <row r="202" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>64</v>
       </c>
@@ -18450,16 +19127,16 @@
       <c r="AD202" s="8">
         <v>0.83313333333333295</v>
       </c>
-      <c r="AF202" s="15">
+      <c r="AG202" s="15">
         <v>6.3444444444440418E-3</v>
       </c>
-      <c r="AG202" s="15">
+      <c r="AH202" s="15">
         <f t="shared" si="42"/>
         <v>7.6151609719661258E-3</v>
       </c>
-      <c r="AH202" s="15"/>
-    </row>
-    <row r="203" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI202" s="15"/>
+    </row>
+    <row r="203" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>64</v>
       </c>
@@ -18526,16 +19203,16 @@
       <c r="AD203" s="8">
         <v>0.66076666666666695</v>
       </c>
-      <c r="AF203" s="15">
+      <c r="AG203" s="15">
         <v>-0.1254777777777778</v>
       </c>
-      <c r="AG203" s="15">
+      <c r="AH203" s="15">
         <f t="shared" si="42"/>
         <v>-0.18989725739460891</v>
       </c>
-      <c r="AH203" s="15"/>
-    </row>
-    <row r="204" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI203" s="15"/>
+    </row>
+    <row r="204" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>64</v>
       </c>
@@ -18602,16 +19279,16 @@
       <c r="AD204" s="8">
         <v>1.0246999999999999</v>
       </c>
-      <c r="AF204" s="15">
+      <c r="AG204" s="15">
         <v>0.18689999999999984</v>
       </c>
-      <c r="AG204" s="15">
+      <c r="AH204" s="15">
         <f t="shared" si="42"/>
         <v>0.18239484727237226</v>
       </c>
-      <c r="AH204" s="15"/>
-    </row>
-    <row r="205" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI204" s="15"/>
+    </row>
+    <row r="205" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>64</v>
       </c>
@@ -18680,16 +19357,16 @@
       <c r="AD205" s="8">
         <v>0.70376666666666698</v>
       </c>
-      <c r="AF205" s="15">
+      <c r="AG205" s="15">
         <v>-3.6388888888888804E-2</v>
       </c>
-      <c r="AG205" s="15">
+      <c r="AH205" s="15">
         <f t="shared" si="42"/>
         <v>-5.1705899998421047E-2</v>
       </c>
-      <c r="AH205" s="15"/>
-    </row>
-    <row r="206" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI205" s="15"/>
+    </row>
+    <row r="206" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>64</v>
       </c>
@@ -18756,16 +19433,16 @@
       <c r="AD206" s="8">
         <v>0.81163333333333298</v>
       </c>
-      <c r="AF206" s="15">
+      <c r="AG206" s="15">
         <v>5.8444444444439858E-3</v>
       </c>
-      <c r="AG206" s="15">
-        <f t="shared" ref="AG206:AG237" si="43">(AF206/AD206)</f>
+      <c r="AH206" s="15">
+        <f t="shared" ref="AH206:AH237" si="43">(AG206/AD206)</f>
         <v>7.2008432926740171E-3</v>
       </c>
-      <c r="AH206" s="15"/>
-    </row>
-    <row r="207" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI206" s="15"/>
+    </row>
+    <row r="207" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>64</v>
       </c>
@@ -18832,16 +19509,16 @@
       <c r="AD207" s="8">
         <v>1.0044</v>
       </c>
-      <c r="AF207" s="15">
+      <c r="AG207" s="15">
         <v>0.16659999999999986</v>
       </c>
-      <c r="AG207" s="15">
+      <c r="AH207" s="15">
         <f t="shared" si="43"/>
         <v>0.16587017124651521</v>
       </c>
-      <c r="AH207" s="15"/>
-    </row>
-    <row r="208" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI207" s="15"/>
+    </row>
+    <row r="208" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>64</v>
       </c>
@@ -18908,16 +19585,16 @@
       <c r="AD208" s="8">
         <v>0.93213333333333304</v>
       </c>
-      <c r="AF208" s="15">
+      <c r="AG208" s="15">
         <v>0.19197777777777725</v>
       </c>
-      <c r="AG208" s="15">
+      <c r="AH208" s="15">
         <f t="shared" si="43"/>
         <v>0.20595527583082962</v>
       </c>
-      <c r="AH208" s="15"/>
-    </row>
-    <row r="209" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI208" s="15"/>
+    </row>
+    <row r="209" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>64</v>
       </c>
@@ -18984,16 +19661,16 @@
       <c r="AD209" s="8">
         <v>0.85140000000000005</v>
       </c>
-      <c r="AF209" s="15">
+      <c r="AG209" s="15">
         <v>4.5611111111111047E-2</v>
       </c>
-      <c r="AG209" s="15">
+      <c r="AH209" s="15">
         <f t="shared" si="43"/>
         <v>5.35718946571659E-2</v>
       </c>
-      <c r="AH209" s="15"/>
-    </row>
-    <row r="210" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI209" s="15"/>
+    </row>
+    <row r="210" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>64</v>
       </c>
@@ -19060,16 +19737,16 @@
       <c r="AD210" s="8">
         <v>0.74239999999999995</v>
       </c>
-      <c r="AF210" s="15">
+      <c r="AG210" s="15">
         <v>-9.5400000000000151E-2</v>
       </c>
-      <c r="AG210" s="15">
+      <c r="AH210" s="15">
         <f t="shared" si="43"/>
         <v>-0.12850215517241401</v>
       </c>
-      <c r="AH210" s="15"/>
-    </row>
-    <row r="211" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI210" s="15"/>
+    </row>
+    <row r="211" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>64</v>
       </c>
@@ -19136,16 +19813,16 @@
       <c r="AD211" s="8">
         <v>0.78073333333333295</v>
       </c>
-      <c r="AF211" s="15">
+      <c r="AG211" s="15">
         <v>4.0577777777777158E-2</v>
       </c>
-      <c r="AG211" s="15">
+      <c r="AH211" s="15">
         <f t="shared" si="43"/>
         <v>5.1973927646371591E-2</v>
       </c>
-      <c r="AH211" s="15"/>
-    </row>
-    <row r="212" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI211" s="15"/>
+    </row>
+    <row r="212" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>64</v>
       </c>
@@ -19212,16 +19889,16 @@
       <c r="AD212" s="8">
         <v>0.903266666666667</v>
       </c>
-      <c r="AF212" s="15">
+      <c r="AG212" s="15">
         <v>9.7477777777777996E-2</v>
       </c>
-      <c r="AG212" s="15">
+      <c r="AH212" s="15">
         <f t="shared" si="43"/>
         <v>0.10791694343986047</v>
       </c>
-      <c r="AH212" s="15"/>
-    </row>
-    <row r="213" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI212" s="15"/>
+    </row>
+    <row r="213" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>64</v>
       </c>
@@ -19288,16 +19965,16 @@
       <c r="AD213" s="8">
         <v>0.79216666666666702</v>
       </c>
-      <c r="AF213" s="15">
+      <c r="AG213" s="15">
         <v>-4.5633333333333082E-2</v>
       </c>
-      <c r="AG213" s="15">
+      <c r="AH213" s="15">
         <f t="shared" si="43"/>
         <v>-5.7605722701451374E-2</v>
       </c>
-      <c r="AH213" s="15"/>
-    </row>
-    <row r="214" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI213" s="15"/>
+    </row>
+    <row r="214" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>64</v>
       </c>
@@ -19366,16 +20043,16 @@
       <c r="AD214" s="8">
         <v>0.87860000000000005</v>
       </c>
-      <c r="AF214" s="15">
+      <c r="AG214" s="15">
         <v>7.3055555555555762E-2</v>
       </c>
-      <c r="AG214" s="15">
+      <c r="AH214" s="15">
         <f t="shared" si="43"/>
         <v>8.3149960796216435E-2</v>
       </c>
-      <c r="AH214" s="15"/>
-    </row>
-    <row r="215" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI214" s="15"/>
+    </row>
+    <row r="215" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>64</v>
       </c>
@@ -19442,16 +20119,16 @@
       <c r="AD215" s="8">
         <v>0.99133333333333296</v>
       </c>
-      <c r="AF215" s="15">
+      <c r="AG215" s="15">
         <v>0.13589999999999958</v>
       </c>
-      <c r="AG215" s="15">
+      <c r="AH215" s="15">
         <f t="shared" si="43"/>
         <v>0.13708809683927334</v>
       </c>
-      <c r="AH215" s="15"/>
-    </row>
-    <row r="216" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI215" s="15"/>
+    </row>
+    <row r="216" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>64</v>
       </c>
@@ -19518,16 +20195,16 @@
       <c r="AD216" s="8">
         <v>1.0433333333333299</v>
       </c>
-      <c r="AF216" s="15">
+      <c r="AG216" s="15">
         <v>0.20553333333332979</v>
       </c>
-      <c r="AG216" s="15">
+      <c r="AH216" s="15">
         <f t="shared" si="43"/>
         <v>0.19699680511181833</v>
       </c>
-      <c r="AH216" s="15"/>
-    </row>
-    <row r="217" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI216" s="15"/>
+    </row>
+    <row r="217" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>64</v>
       </c>
@@ -19594,16 +20271,16 @@
       <c r="AD217" s="8">
         <v>0.83246666666666702</v>
       </c>
-      <c r="AF217" s="15">
+      <c r="AG217" s="15">
         <v>2.6922222222222736E-2</v>
       </c>
-      <c r="AG217" s="15">
+      <c r="AH217" s="15">
         <f t="shared" si="43"/>
         <v>3.2340300579269711E-2</v>
       </c>
-      <c r="AH217" s="15"/>
-    </row>
-    <row r="218" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI217" s="15"/>
+    </row>
+    <row r="218" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>64</v>
       </c>
@@ -19670,16 +20347,16 @@
       <c r="AD218" s="8">
         <v>0.64743333333333297</v>
       </c>
-      <c r="AF218" s="15">
+      <c r="AG218" s="15">
         <v>-0.20800000000000041</v>
       </c>
-      <c r="AG218" s="15">
+      <c r="AH218" s="15">
         <f t="shared" si="43"/>
         <v>-0.32126859908356153</v>
       </c>
-      <c r="AH218" s="15"/>
-    </row>
-    <row r="219" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI218" s="15"/>
+    </row>
+    <row r="219" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>64</v>
       </c>
@@ -19746,16 +20423,16 @@
       <c r="AD219" s="8">
         <v>0.7157</v>
       </c>
-      <c r="AF219" s="15">
+      <c r="AG219" s="15">
         <v>-0.1221000000000001</v>
       </c>
-      <c r="AG219" s="15">
+      <c r="AH219" s="15">
         <f t="shared" si="43"/>
         <v>-0.17060220762889491</v>
       </c>
-      <c r="AH219" s="15"/>
-    </row>
-    <row r="220" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI219" s="15"/>
+    </row>
+    <row r="220" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>64</v>
       </c>
@@ -19822,16 +20499,16 @@
       <c r="AD220" s="8">
         <v>1.1087</v>
       </c>
-      <c r="AF220" s="15">
+      <c r="AG220" s="15">
         <v>0.30315555555555573</v>
       </c>
-      <c r="AG220" s="15">
+      <c r="AH220" s="15">
         <f t="shared" si="43"/>
         <v>0.2734333503703037</v>
       </c>
-      <c r="AH220" s="15"/>
-    </row>
-    <row r="221" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI220" s="15"/>
+    </row>
+    <row r="221" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>64</v>
       </c>
@@ -19898,16 +20575,16 @@
       <c r="AD221" s="8">
         <v>0.89893333333333303</v>
       </c>
-      <c r="AF221" s="15">
+      <c r="AG221" s="15">
         <v>4.349999999999965E-2</v>
       </c>
-      <c r="AG221" s="15">
+      <c r="AH221" s="15">
         <f t="shared" si="43"/>
         <v>4.8390685256600043E-2</v>
       </c>
-      <c r="AH221" s="15"/>
-    </row>
-    <row r="222" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI221" s="15"/>
+    </row>
+    <row r="222" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>64</v>
       </c>
@@ -19974,16 +20651,16 @@
       <c r="AD222" s="8">
         <v>0.82726666666666704</v>
       </c>
-      <c r="AF222" s="15">
+      <c r="AG222" s="15">
         <v>-1.0533333333333061E-2</v>
       </c>
-      <c r="AG222" s="15">
+      <c r="AH222" s="15">
         <f t="shared" si="43"/>
         <v>-1.2732694012410013E-2</v>
       </c>
-      <c r="AH222" s="15"/>
-    </row>
-    <row r="223" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI222" s="15"/>
+    </row>
+    <row r="223" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>64</v>
       </c>
@@ -20052,16 +20729,16 @@
       <c r="AD223" s="8">
         <v>0.762133333333333</v>
       </c>
-      <c r="AF223" s="15">
+      <c r="AG223" s="15">
         <v>-0.17778888888888944</v>
       </c>
-      <c r="AG223" s="15">
+      <c r="AH223" s="15">
         <f t="shared" si="43"/>
         <v>-0.23327793328668148</v>
       </c>
-      <c r="AH223" s="15"/>
-    </row>
-    <row r="224" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI223" s="15"/>
+    </row>
+    <row r="224" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>64</v>
       </c>
@@ -20128,16 +20805,16 @@
       <c r="AD224" s="8">
         <v>1.0802</v>
       </c>
-      <c r="AF224" s="15">
+      <c r="AG224" s="15">
         <v>0.23430000000000051</v>
       </c>
-      <c r="AG224" s="15">
+      <c r="AH224" s="15">
         <f t="shared" si="43"/>
         <v>0.21690427698574385</v>
       </c>
-      <c r="AH224" s="15"/>
-    </row>
-    <row r="225" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI224" s="15"/>
+    </row>
+    <row r="225" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>64</v>
       </c>
@@ -20204,16 +20881,16 @@
       <c r="AD225" s="8">
         <v>0.78083333333333305</v>
       </c>
-      <c r="AF225" s="15">
+      <c r="AG225" s="15">
         <v>-5.6966666666667054E-2</v>
       </c>
-      <c r="AG225" s="15">
+      <c r="AH225" s="15">
         <f t="shared" si="43"/>
         <v>-7.2956243329776405E-2</v>
       </c>
-      <c r="AH225" s="15"/>
-    </row>
-    <row r="226" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI225" s="15"/>
+    </row>
+    <row r="226" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>64</v>
       </c>
@@ -20280,16 +20957,16 @@
       <c r="AD226" s="8">
         <v>0.73066666666666702</v>
       </c>
-      <c r="AF226" s="15">
+      <c r="AG226" s="15">
         <v>-0.20925555555555542</v>
       </c>
-      <c r="AG226" s="15">
+      <c r="AH226" s="15">
         <f t="shared" si="43"/>
         <v>-0.28638990267639869</v>
       </c>
-      <c r="AH226" s="15"/>
-    </row>
-    <row r="227" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI226" s="15"/>
+    </row>
+    <row r="227" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>64</v>
       </c>
@@ -20356,16 +21033,16 @@
       <c r="AD227" s="8">
         <v>0.861866666666667</v>
       </c>
-      <c r="AF227" s="15">
+      <c r="AG227" s="15">
         <v>1.5966666666667462E-2</v>
       </c>
-      <c r="AG227" s="15">
+      <c r="AH227" s="15">
         <f t="shared" si="43"/>
         <v>1.8525680693070222E-2</v>
       </c>
-      <c r="AH227" s="15"/>
-    </row>
-    <row r="228" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI227" s="15"/>
+    </row>
+    <row r="228" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>64</v>
       </c>
@@ -20432,16 +21109,16 @@
       <c r="AD228" s="8">
         <v>0.94299999999999995</v>
       </c>
-      <c r="AF228" s="15">
+      <c r="AG228" s="15">
         <v>0.10519999999999985</v>
       </c>
-      <c r="AG228" s="15">
+      <c r="AH228" s="15">
         <f t="shared" si="43"/>
         <v>0.11155885471898182</v>
       </c>
-      <c r="AH228" s="15"/>
-    </row>
-    <row r="229" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI228" s="15"/>
+    </row>
+    <row r="229" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>64</v>
       </c>
@@ -20508,16 +21185,16 @@
       <c r="AD229" s="8">
         <v>0.85073333333333301</v>
       </c>
-      <c r="AF229" s="15">
+      <c r="AG229" s="15">
         <v>-8.9188888888889428E-2</v>
       </c>
-      <c r="AG229" s="15">
+      <c r="AH229" s="15">
         <f t="shared" si="43"/>
         <v>-0.10483765640101418</v>
       </c>
-      <c r="AH229" s="15"/>
-    </row>
-    <row r="230" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI229" s="15"/>
+    </row>
+    <row r="230" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>64</v>
       </c>
@@ -20584,16 +21261,16 @@
       <c r="AD230" s="3">
         <v>0.94096666666666695</v>
       </c>
-      <c r="AF230" s="14">
+      <c r="AG230" s="14">
         <v>9.506666666666741E-2</v>
       </c>
-      <c r="AG230" s="14">
+      <c r="AH230" s="14">
         <f t="shared" si="43"/>
         <v>0.10103085479471541</v>
       </c>
-      <c r="AH230" s="14"/>
-    </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI230" s="14"/>
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>66</v>
       </c>
@@ -20654,17 +21331,18 @@
         <v>1.2369166323141001</v>
       </c>
       <c r="AE231" s="8"/>
-      <c r="AF231" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF231" s="8"/>
       <c r="AG231" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH231" s="15">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AH231" s="15"/>
-      <c r="AI231" s="8"/>
-    </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI231" s="15"/>
+      <c r="AJ231" s="8"/>
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>66</v>
       </c>
@@ -20725,17 +21403,18 @@
         <v>1.27018713186918</v>
       </c>
       <c r="AE232" s="8"/>
-      <c r="AF232" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF232" s="8"/>
       <c r="AG232" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH232" s="15">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AH232" s="15"/>
-      <c r="AI232" s="8"/>
-    </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI232" s="15"/>
+      <c r="AJ232" s="8"/>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>66</v>
       </c>
@@ -20796,17 +21475,18 @@
         <v>1.0744504698869599</v>
       </c>
       <c r="AE233" s="8"/>
-      <c r="AF233" s="15">
-        <v>0</v>
-      </c>
+      <c r="AF233" s="8"/>
       <c r="AG233" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH233" s="15">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AH233" s="15"/>
-      <c r="AI233" s="8"/>
-    </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI233" s="15"/>
+      <c r="AJ233" s="8"/>
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>66</v>
       </c>
@@ -20872,18 +21552,19 @@
         <v>1.49557809580193</v>
       </c>
       <c r="AE234" s="8"/>
-      <c r="AF234" s="8">
+      <c r="AF234" s="8"/>
+      <c r="AG234" s="8">
         <f>AD234-AD$231</f>
         <v>0.25866146348782992</v>
       </c>
-      <c r="AG234" s="15">
+      <c r="AH234" s="15">
         <f t="shared" si="43"/>
         <v>0.17295082364063072</v>
       </c>
-      <c r="AH234" s="15"/>
-      <c r="AI234" s="8"/>
-    </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI234" s="15"/>
+      <c r="AJ234" s="8"/>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>66</v>
       </c>
@@ -20949,18 +21630,19 @@
         <v>1.5651208674249899</v>
       </c>
       <c r="AE235" s="8"/>
-      <c r="AF235" s="8">
+      <c r="AF235" s="8"/>
+      <c r="AG235" s="8">
         <f>AD235-AD$232</f>
         <v>0.29493373555580993</v>
       </c>
-      <c r="AG235" s="15">
+      <c r="AH235" s="15">
         <f t="shared" si="43"/>
         <v>0.18844150742239396</v>
       </c>
-      <c r="AH235" s="15"/>
-      <c r="AI235" s="8"/>
-    </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI235" s="15"/>
+      <c r="AJ235" s="8"/>
+    </row>
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>66</v>
       </c>
@@ -21026,18 +21708,19 @@
         <v>1.0474946708717301</v>
       </c>
       <c r="AE236" s="8"/>
-      <c r="AF236" s="8">
+      <c r="AF236" s="8"/>
+      <c r="AG236" s="8">
         <f>AD236-AD$233</f>
         <v>-2.695579901522982E-2</v>
       </c>
-      <c r="AG236" s="15">
+      <c r="AH236" s="15">
         <f t="shared" si="43"/>
         <v>-2.5733590599365124E-2</v>
       </c>
-      <c r="AH236" s="15"/>
-      <c r="AI236" s="8"/>
-    </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI236" s="15"/>
+      <c r="AJ236" s="8"/>
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>66</v>
       </c>
@@ -21103,18 +21786,19 @@
         <v>1.56567230256205</v>
       </c>
       <c r="AE237" s="8"/>
-      <c r="AF237" s="8">
+      <c r="AF237" s="8"/>
+      <c r="AG237" s="8">
         <f>AD237-AD$231</f>
         <v>0.32875567024794994</v>
       </c>
-      <c r="AG237" s="15">
+      <c r="AH237" s="15">
         <f t="shared" si="43"/>
         <v>0.20997731754593701</v>
       </c>
-      <c r="AH237" s="15"/>
-      <c r="AI237" s="8"/>
-    </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI237" s="15"/>
+      <c r="AJ237" s="8"/>
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>66</v>
       </c>
@@ -21180,18 +21864,19 @@
         <v>1.3447369647448</v>
       </c>
       <c r="AE238" s="8"/>
-      <c r="AF238" s="8">
+      <c r="AF238" s="8"/>
+      <c r="AG238" s="8">
         <f>AD238-AD$232</f>
         <v>7.4549832875620003E-2</v>
       </c>
-      <c r="AG238" s="15">
-        <f t="shared" ref="AG238:AG242" si="45">(AF238/AD238)</f>
+      <c r="AH238" s="15">
+        <f t="shared" ref="AH238:AH242" si="45">(AG238/AD238)</f>
         <v>5.5438226828075511E-2</v>
       </c>
-      <c r="AH238" s="15"/>
-      <c r="AI238" s="8"/>
-    </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI238" s="15"/>
+      <c r="AJ238" s="8"/>
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>66</v>
       </c>
@@ -21257,18 +21942,19 @@
         <v>1.15944034721598</v>
       </c>
       <c r="AE239" s="8"/>
-      <c r="AF239" s="8">
+      <c r="AF239" s="8"/>
+      <c r="AG239" s="8">
         <f>AD239-AD$233</f>
         <v>8.498987732902008E-2</v>
       </c>
-      <c r="AG239" s="15">
+      <c r="AH239" s="15">
         <f t="shared" si="45"/>
         <v>7.3302501101583803E-2</v>
       </c>
-      <c r="AH239" s="15"/>
-      <c r="AI239" s="8"/>
-    </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI239" s="15"/>
+      <c r="AJ239" s="8"/>
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>66</v>
       </c>
@@ -21334,18 +22020,19 @@
         <v>1.61706705873273</v>
       </c>
       <c r="AE240" s="8"/>
-      <c r="AF240" s="8">
+      <c r="AF240" s="8"/>
+      <c r="AG240" s="8">
         <f>AD240-AD$231</f>
         <v>0.38015042641862995</v>
       </c>
-      <c r="AG240" s="15">
+      <c r="AH240" s="15">
         <f t="shared" si="45"/>
         <v>0.23508637094898702</v>
       </c>
-      <c r="AH240" s="15"/>
-      <c r="AI240" s="8"/>
-    </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI240" s="15"/>
+      <c r="AJ240" s="8"/>
+    </row>
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>66</v>
       </c>
@@ -21411,18 +22098,19 @@
         <v>1.64119381859991</v>
       </c>
       <c r="AE241" s="8"/>
-      <c r="AF241" s="8">
+      <c r="AF241" s="8"/>
+      <c r="AG241" s="8">
         <f>AD241-AD$232</f>
         <v>0.37100668673073001</v>
       </c>
-      <c r="AG241" s="15">
+      <c r="AH241" s="15">
         <f t="shared" si="45"/>
         <v>0.22605903247139511</v>
       </c>
-      <c r="AH241" s="15"/>
-      <c r="AI241" s="8"/>
-    </row>
-    <row r="242" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI241" s="15"/>
+      <c r="AJ241" s="8"/>
+    </row>
+    <row r="242" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>66</v>
       </c>
@@ -21482,15 +22170,15 @@
       <c r="AD242" s="3">
         <v>1.16367223355557</v>
       </c>
-      <c r="AF242" s="3">
+      <c r="AG242" s="3">
         <f>AD242-AD$233</f>
         <v>8.9221763668610121E-2</v>
       </c>
-      <c r="AG242" s="14">
+      <c r="AH242" s="14">
         <f t="shared" si="45"/>
         <v>7.6672589665558455E-2</v>
       </c>
-      <c r="AH242" s="14"/>
+      <c r="AI242" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:AE210">
@@ -21499,7 +22187,7 @@
     <sortCondition ref="D2:D210"/>
     <sortCondition ref="P2:P210"/>
   </sortState>
-  <conditionalFormatting sqref="AF66:AH1048576 AF1:AH2 AF3:AG16 AG56:AG65 AF39:AG40 AG41:AG45">
+  <conditionalFormatting sqref="AG66:AI1048576 AG1:AI2 AG3:AH16 AH56:AH65 AG39:AH40 AH41:AH45">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -21509,7 +22197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH17">
+  <conditionalFormatting sqref="AG17:AI17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -21519,7 +22207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH18:AH31">
+  <conditionalFormatting sqref="AI18:AI31">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -21529,7 +22217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH16">
+  <conditionalFormatting sqref="AI3:AI16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -21539,7 +22227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AG33 AF34:AF38">
+  <conditionalFormatting sqref="AG18:AH33 AG34:AG38">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -21549,7 +22237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF46:AH46 AF47:AG55">
+  <conditionalFormatting sqref="AG46:AI46 AG47:AH55">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -21559,7 +22247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF56">
+  <conditionalFormatting sqref="AG56">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -21569,7 +22257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF57:AF65">
+  <conditionalFormatting sqref="AG57:AG65">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -21579,7 +22267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH47:AH65">
+  <conditionalFormatting sqref="AI47:AI65">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -21589,7 +22277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AH45">
+  <conditionalFormatting sqref="AI32:AI45">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -21599,7 +22287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF41">
+  <conditionalFormatting sqref="AG41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -21609,7 +22297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF42:AF45">
+  <conditionalFormatting sqref="AG42:AG45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -21619,7 +22307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AG38">
+  <conditionalFormatting sqref="AH34:AH38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/data/1902 powdery mildew-Mungbean - Collated means.xlsx
+++ b/data/1902 powdery mildew-Mungbean - Collated means.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14850" yWindow="0" windowWidth="10305" windowHeight="8205"/>
+    <workbookView xWindow="16005" yWindow="0" windowWidth="10305" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="97">
   <si>
     <t>Trial_ref</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>disease progress over season was recorded in `Mugbean powdery mildew 2014-15 inc results v2.xlsx`</t>
+  </si>
+  <si>
+    <t>Dalby</t>
+  </si>
+  <si>
+    <t>mung1415/02</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -781,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ242"/>
+  <dimension ref="A1:AJ243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z96" sqref="Z96"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9152,7 +9164,7 @@
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="8">
-        <f t="shared" ref="X84:X147" si="34">COUNT(Q84:S84)</f>
+        <f t="shared" ref="X84:X148" si="34">COUNT(Q84:S84)</f>
         <v>1</v>
       </c>
       <c r="Y84" s="31"/>
@@ -9182,7 +9194,7 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="AH84" s="15">
-        <f t="shared" ref="AH84:AH108" si="35">(AG84/AD84)</f>
+        <f t="shared" ref="AH84:AH109" si="35">(AG84/AD84)</f>
         <v>0.1367816091954023</v>
       </c>
       <c r="AI84" s="15" t="s">
@@ -10365,13 +10377,21 @@
       <c r="AA96" s="10">
         <v>7.8</v>
       </c>
-      <c r="AB96" s="10"/>
-      <c r="AC96" s="10"/>
+      <c r="AB96">
+        <v>0.44721359549995798</v>
+      </c>
+      <c r="AC96" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="AD96" s="15">
-        <v>2.11</v>
-      </c>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
+        <v>2.0449479691271102</v>
+      </c>
+      <c r="AE96" s="15">
+        <v>0.17847145529623901</v>
+      </c>
+      <c r="AF96" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG96" s="15">
         <v>0</v>
       </c>
@@ -10379,8 +10399,12 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="8"/>
+      <c r="AI96" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ96" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
@@ -10457,22 +10481,34 @@
       <c r="AA97" s="10">
         <v>3.2</v>
       </c>
-      <c r="AB97" s="10"/>
-      <c r="AC97" s="10"/>
+      <c r="AB97">
+        <v>0.44721359549995798</v>
+      </c>
+      <c r="AC97" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="AD97" s="15">
-        <v>2.31</v>
-      </c>
-      <c r="AE97" s="15"/>
-      <c r="AF97" s="15"/>
+        <v>2.2624075481571899</v>
+      </c>
+      <c r="AE97" s="15">
+        <v>0.140366342813558</v>
+      </c>
+      <c r="AF97" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG97" s="15">
         <v>0.20000000000000018</v>
       </c>
       <c r="AH97" s="15">
         <f t="shared" si="35"/>
-        <v>8.658008658008666E-2</v>
-      </c>
-      <c r="AI97" s="15"/>
-      <c r="AJ97" s="8"/>
+        <v>8.8401402374610694E-2</v>
+      </c>
+      <c r="AI97" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ97" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
@@ -10545,22 +10581,34 @@
       <c r="AA98" s="10">
         <v>6.6</v>
       </c>
-      <c r="AB98" s="10"/>
-      <c r="AC98" s="10"/>
+      <c r="AB98">
+        <v>0.54772255750516596</v>
+      </c>
+      <c r="AC98" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="AD98" s="15">
-        <v>2.04</v>
-      </c>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
+        <v>2.0183208163704198</v>
+      </c>
+      <c r="AE98" s="15">
+        <v>0.16656487437697401</v>
+      </c>
+      <c r="AF98" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG98" s="15">
         <v>-6.999999999999984E-2</v>
       </c>
       <c r="AH98" s="15">
         <f t="shared" si="35"/>
-        <v>-3.4313725490195998E-2</v>
-      </c>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="8"/>
+        <v>-3.4682296011732172E-2</v>
+      </c>
+      <c r="AI98" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ98" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
@@ -10635,22 +10683,34 @@
       <c r="AA99" s="10">
         <v>5.4</v>
       </c>
-      <c r="AB99" s="10"/>
-      <c r="AC99" s="10"/>
+      <c r="AB99">
+        <v>1.14017542509914</v>
+      </c>
+      <c r="AC99" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="AD99" s="15">
-        <v>2.25</v>
-      </c>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
+        <v>2.1524433590343799</v>
+      </c>
+      <c r="AE99" s="15">
+        <v>0.248045374613036</v>
+      </c>
+      <c r="AF99" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG99" s="15">
         <v>0.14000000000000012</v>
       </c>
       <c r="AH99" s="15">
         <f t="shared" si="35"/>
-        <v>6.2222222222222276E-2</v>
-      </c>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="8"/>
+        <v>6.5042361933652149E-2</v>
+      </c>
+      <c r="AI99" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ99" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="100" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
@@ -10723,21 +10783,34 @@
       <c r="AA100" s="10">
         <v>6.6</v>
       </c>
-      <c r="AB100" s="10"/>
-      <c r="AC100" s="10"/>
+      <c r="AB100">
+        <v>0.54772255750516596</v>
+      </c>
+      <c r="AC100" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="AD100" s="15">
-        <v>2.13</v>
-      </c>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
+        <v>2.1239541921096698</v>
+      </c>
+      <c r="AE100" s="15">
+        <v>6.1444702167988502E-2</v>
+      </c>
+      <c r="AF100" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AG100" s="15">
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH100" s="15">
         <f t="shared" si="35"/>
-        <v>9.3896713615023563E-3</v>
-      </c>
-      <c r="AI100" s="15"/>
+        <v>9.4163989384980686E-3</v>
+      </c>
+      <c r="AI100" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ100" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="101" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -10812,105 +10885,112 @@
       <c r="AA101" s="5">
         <v>6.4</v>
       </c>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
+      <c r="AB101">
+        <v>0.54772255750516596</v>
+      </c>
+      <c r="AC101" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="AD101" s="14">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AE101" s="14"/>
-      <c r="AF101" s="14"/>
+        <v>2.17552229592307</v>
+      </c>
+      <c r="AE101" s="14">
+        <v>0.116393644700969</v>
+      </c>
+      <c r="AF101" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="AG101" s="14">
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="AH101" s="14">
         <f t="shared" si="35"/>
-        <v>3.2110091743119393E-2</v>
-      </c>
-      <c r="AI101" s="14"/>
-    </row>
-    <row r="102" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B102" s="6">
-        <v>2016</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="6" t="s">
+        <v>3.2176181384663501E-2</v>
+      </c>
+      <c r="AI101" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ101" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="3">
         <v>12</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="3">
         <v>4</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="3">
         <v>0.75</v>
       </c>
-      <c r="I102" s="6">
-        <v>4</v>
-      </c>
-      <c r="J102" s="9">
-        <v>42412</v>
-      </c>
-      <c r="K102" s="9">
-        <v>42418</v>
-      </c>
-      <c r="L102" s="9">
-        <v>42446</v>
-      </c>
-      <c r="M102" s="9"/>
-      <c r="N102" s="6" t="s">
+      <c r="I102" s="3">
+        <v>5</v>
+      </c>
+      <c r="J102" s="4">
+        <v>42010</v>
+      </c>
+      <c r="L102" s="4">
+        <v>42065</v>
+      </c>
+      <c r="M102" s="4"/>
+      <c r="N102" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O102" s="22"/>
-      <c r="P102" s="16">
+      <c r="O102" s="17">
+        <v>0</v>
+      </c>
+      <c r="P102" s="13">
         <v>1</v>
       </c>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Y102" s="21">
-        <v>42493</v>
-      </c>
-      <c r="Z102" s="36">
-        <v>42483</v>
-      </c>
-      <c r="AA102" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="AB102" s="10"/>
-      <c r="AC102" s="10"/>
-      <c r="AD102" s="15">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH102" s="15">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI102" s="15"/>
-      <c r="AJ102" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>42094</v>
+      </c>
+      <c r="Z102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA102" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC102" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD102" s="14">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="AE102" s="14"/>
+      <c r="AF102" s="14"/>
+      <c r="AG102" s="14"/>
+      <c r="AH102" s="14"/>
+      <c r="AI102" s="14"/>
     </row>
     <row r="103" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
@@ -10949,22 +11029,15 @@
       <c r="L103" s="9">
         <v>42446</v>
       </c>
-      <c r="M103" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="M103" s="9"/>
       <c r="N103" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O103" s="22">
-        <f t="shared" ref="O103:O108" si="36">430*0.145</f>
-        <v>62.349999999999994</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O103" s="22"/>
       <c r="P103" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q103" s="9">
-        <v>42446</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
@@ -10973,7 +11046,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="8">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y103" s="21">
         <v>42493</v>
@@ -10982,21 +11055,21 @@
         <v>42483</v>
       </c>
       <c r="AA103" s="10">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
       <c r="AD103" s="15">
-        <v>0.87</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="AE103" s="15"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="15">
-        <v>6.4999999999999947E-2</v>
+        <v>0</v>
       </c>
       <c r="AH103" s="15">
         <f t="shared" si="35"/>
-        <v>7.4712643678160856E-2</v>
+        <v>0</v>
       </c>
       <c r="AI103" s="15"/>
       <c r="AJ103" s="8" t="s">
@@ -11047,19 +11120,16 @@
         <v>46</v>
       </c>
       <c r="O104" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="O104:O109" si="36">430*0.145</f>
         <v>62.349999999999994</v>
       </c>
       <c r="P104" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q104" s="9">
         <v>42446</v>
       </c>
-      <c r="R104" s="9">
-        <f>Q104+14</f>
-        <v>42460</v>
-      </c>
+      <c r="R104" s="9"/>
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
@@ -11067,7 +11137,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="8">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y104" s="21">
         <v>42493</v>
@@ -11076,21 +11146,21 @@
         <v>42483</v>
       </c>
       <c r="AA104" s="10">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
       <c r="AD104" s="15">
-        <v>0.83299999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="AE104" s="15"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="15">
-        <v>8.1999999999999962E-2</v>
+        <v>6.4999999999999947E-2</v>
       </c>
       <c r="AH104" s="15">
         <f t="shared" si="35"/>
-        <v>9.8439375750300082E-2</v>
+        <v>7.4712643678160856E-2</v>
       </c>
       <c r="AI104" s="15"/>
       <c r="AJ104" s="8" t="s">
@@ -11145,10 +11215,9 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P105" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q105" s="9">
-        <f>(4*7)+K105</f>
         <v>42446</v>
       </c>
       <c r="R105" s="9">
@@ -11171,21 +11240,21 @@
         <v>42483</v>
       </c>
       <c r="AA105" s="10">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
       <c r="AD105" s="15">
-        <v>0.84799999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
       <c r="AG105" s="15">
-        <v>9.6999999999999975E-2</v>
+        <v>8.1999999999999962E-2</v>
       </c>
       <c r="AH105" s="15">
         <f t="shared" si="35"/>
-        <v>0.11438679245283016</v>
+        <v>9.8439375750300082E-2</v>
       </c>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="8" t="s">
@@ -11240,12 +11309,16 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P106" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q106" s="9">
+        <f>(4*7)+K106</f>
         <v>42446</v>
       </c>
-      <c r="R106" s="9"/>
+      <c r="R106" s="9">
+        <f>Q106+14</f>
+        <v>42460</v>
+      </c>
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
@@ -11253,7 +11326,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="8">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y106" s="21">
         <v>42493</v>
@@ -11262,21 +11335,21 @@
         <v>42483</v>
       </c>
       <c r="AA106" s="10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
       <c r="AD106" s="15">
-        <v>0.92600000000000005</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="AE106" s="15"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="15">
-        <v>0.17500000000000004</v>
+        <v>9.6999999999999975E-2</v>
       </c>
       <c r="AH106" s="15">
         <f t="shared" si="35"/>
-        <v>0.18898488120950327</v>
+        <v>0.11438679245283016</v>
       </c>
       <c r="AI106" s="15"/>
       <c r="AJ106" s="8" t="s">
@@ -11331,15 +11404,12 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P107" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q107" s="9">
         <v>42446</v>
       </c>
-      <c r="R107" s="9">
-        <f>Q107+14</f>
-        <v>42460</v>
-      </c>
+      <c r="R107" s="9"/>
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
@@ -11347,7 +11417,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="8">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y107" s="21">
         <v>42493</v>
@@ -11356,198 +11426,211 @@
         <v>42483</v>
       </c>
       <c r="AA107" s="10">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
       <c r="AD107" s="15">
-        <v>0.80500000000000005</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="AE107" s="15"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="15">
-        <v>5.4000000000000048E-2</v>
+        <v>0.17500000000000004</v>
       </c>
       <c r="AH107" s="15">
         <f t="shared" si="35"/>
-        <v>6.7080745341614956E-2</v>
+        <v>0.18898488120950327</v>
       </c>
       <c r="AI107" s="15"/>
       <c r="AJ107" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+    <row r="108" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>2016</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <v>12</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="6">
         <v>4</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="6">
         <v>0.75</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="6">
         <v>4</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="9">
         <v>42412</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K108" s="9">
         <v>42418</v>
       </c>
-      <c r="L108" s="4">
+      <c r="L108" s="9">
         <v>42446</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="M108" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N108" s="7" t="s">
+      <c r="N108" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O108" s="24">
+      <c r="O108" s="22">
         <f t="shared" si="36"/>
         <v>62.349999999999994</v>
       </c>
-      <c r="P108" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q108" s="19">
-        <v>42465</v>
-      </c>
-      <c r="R108" s="4">
-        <v>42480</v>
-      </c>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="3">
+      <c r="P108" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q108" s="9">
+        <v>42446</v>
+      </c>
+      <c r="R108" s="9">
+        <f>Q108+14</f>
+        <v>42460</v>
+      </c>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="8">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="Y108" s="19">
+      <c r="Y108" s="21">
         <v>42493</v>
       </c>
-      <c r="Z108" s="23">
+      <c r="Z108" s="36">
         <v>42483</v>
       </c>
-      <c r="AA108" s="5">
+      <c r="AA108" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AB108" s="10"/>
+      <c r="AC108" s="10"/>
+      <c r="AD108" s="15">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15">
+        <v>5.4000000000000048E-2</v>
+      </c>
+      <c r="AH108" s="15">
+        <f t="shared" si="35"/>
+        <v>6.7080745341614956E-2</v>
+      </c>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="7">
+        <v>12</v>
+      </c>
+      <c r="G109" s="7">
+        <v>4</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I109" s="7">
+        <v>4</v>
+      </c>
+      <c r="J109" s="4">
+        <v>42412</v>
+      </c>
+      <c r="K109" s="4">
+        <v>42418</v>
+      </c>
+      <c r="L109" s="4">
+        <v>42446</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O109" s="24">
+        <f t="shared" si="36"/>
+        <v>62.349999999999994</v>
+      </c>
+      <c r="P109" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q109" s="19">
+        <v>42465</v>
+      </c>
+      <c r="R109" s="4">
+        <v>42480</v>
+      </c>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="3">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="Y109" s="19">
+        <v>42493</v>
+      </c>
+      <c r="Z109" s="23">
+        <v>42483</v>
+      </c>
+      <c r="AA109" s="5">
         <v>4.5</v>
       </c>
-      <c r="AB108" s="5"/>
-      <c r="AC108" s="5"/>
-      <c r="AD108" s="14">
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="14">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AE108" s="14"/>
-      <c r="AF108" s="14"/>
-      <c r="AG108" s="14">
+      <c r="AE109" s="14"/>
+      <c r="AF109" s="14"/>
+      <c r="AG109" s="14">
         <v>3.3000000000000029E-2</v>
       </c>
-      <c r="AH108" s="14">
+      <c r="AH109" s="14">
         <f t="shared" si="35"/>
         <v>4.209183673469391E-2</v>
       </c>
-      <c r="AI108" s="14"/>
-      <c r="AJ108" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="8">
-        <v>2016</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="8">
-        <v>12</v>
-      </c>
-      <c r="G109" s="8">
-        <v>4</v>
-      </c>
-      <c r="H109" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="I109" s="8">
-        <v>4</v>
-      </c>
-      <c r="J109" s="9">
-        <v>42403</v>
-      </c>
-      <c r="K109" s="9">
-        <v>42412</v>
-      </c>
-      <c r="L109" s="9">
-        <v>42437</v>
-      </c>
-      <c r="M109" s="9"/>
-      <c r="N109" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O109" s="18">
-        <v>0</v>
-      </c>
-      <c r="P109" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Y109" s="9">
-        <v>42496</v>
-      </c>
-      <c r="Z109" s="9">
-        <v>42475</v>
-      </c>
-      <c r="AA109" s="10">
-        <v>8</v>
-      </c>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="15">
-        <v>1.58</v>
-      </c>
-      <c r="AE109" s="15"/>
-      <c r="AF109" s="15"/>
-      <c r="AG109" s="8"/>
-      <c r="AH109" s="8"/>
-      <c r="AI109" s="8"/>
-      <c r="AJ109" s="8" t="s">
+      <c r="AI109" s="14"/>
+      <c r="AJ109" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11588,22 +11671,17 @@
       <c r="L110" s="9">
         <v>42437</v>
       </c>
-      <c r="M110" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>46</v>
+      <c r="M110" s="9"/>
+      <c r="N110" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="O110" s="18">
-        <f t="shared" ref="O110:O115" si="37">430*0.145</f>
-        <v>62.349999999999994</v>
+        <v>0</v>
       </c>
       <c r="P110" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="9">
-        <v>42446</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
@@ -11612,7 +11690,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="8">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="9">
         <v>42496</v>
@@ -11621,23 +11699,18 @@
         <v>42475</v>
       </c>
       <c r="AA110" s="10">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
       <c r="AD110" s="15">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AE110" s="15"/>
       <c r="AF110" s="15"/>
-      <c r="AG110" s="15">
-        <v>0.34999999999999987</v>
-      </c>
-      <c r="AH110" s="15">
-        <f t="shared" ref="AH110:AH141" si="38">(AG110/AD110)</f>
-        <v>0.18134715025906731</v>
-      </c>
-      <c r="AI110" s="15"/>
+      <c r="AG110" s="8"/>
+      <c r="AH110" s="8"/>
+      <c r="AI110" s="8"/>
       <c r="AJ110" s="8" t="s">
         <v>42</v>
       </c>
@@ -11686,18 +11759,16 @@
         <v>46</v>
       </c>
       <c r="O111" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="O111:O116" si="37">430*0.145</f>
         <v>62.349999999999994</v>
       </c>
       <c r="P111" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q111" s="9">
         <v>42446</v>
       </c>
-      <c r="R111" s="9">
-        <v>42459</v>
-      </c>
+      <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
@@ -11705,7 +11776,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="8">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y111" s="9">
         <v>42496</v>
@@ -11714,21 +11785,21 @@
         <v>42475</v>
       </c>
       <c r="AA111" s="10">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="AB111" s="10"/>
       <c r="AC111" s="10"/>
       <c r="AD111" s="15">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AE111" s="15"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="15">
-        <v>0.48</v>
+        <v>0.34999999999999987</v>
       </c>
       <c r="AH111" s="15">
-        <f t="shared" si="38"/>
-        <v>0.23300970873786406</v>
+        <f t="shared" ref="AH111:AH142" si="38">(AG111/AD111)</f>
+        <v>0.18134715025906731</v>
       </c>
       <c r="AI111" s="15"/>
       <c r="AJ111" s="8" t="s">
@@ -11783,7 +11854,7 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P112" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q112" s="9">
         <v>42446</v>
@@ -11791,16 +11862,14 @@
       <c r="R112" s="9">
         <v>42459</v>
       </c>
-      <c r="S112" s="9">
-        <v>42473</v>
-      </c>
+      <c r="S112" s="9"/>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="8">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y112" s="9">
         <v>42496</v>
@@ -11809,21 +11878,21 @@
         <v>42475</v>
       </c>
       <c r="AA112" s="10">
-        <v>2.2999999999999998</v>
+        <v>4</v>
       </c>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
       <c r="AD112" s="15">
-        <v>2.0099999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="AE112" s="15"/>
       <c r="AF112" s="15"/>
       <c r="AG112" s="15">
-        <v>0.42999999999999972</v>
+        <v>0.48</v>
       </c>
       <c r="AH112" s="15">
         <f t="shared" si="38"/>
-        <v>0.21393034825870635</v>
+        <v>0.23300970873786406</v>
       </c>
       <c r="AI112" s="15"/>
       <c r="AJ112" s="8" t="s">
@@ -11878,20 +11947,24 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P113" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q113" s="9">
-        <v>42437</v>
-      </c>
-      <c r="R113" s="9"/>
-      <c r="S113" s="9"/>
+        <v>42446</v>
+      </c>
+      <c r="R113" s="9">
+        <v>42459</v>
+      </c>
+      <c r="S113" s="9">
+        <v>42473</v>
+      </c>
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
       <c r="X113" s="8">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y113" s="9">
         <v>42496</v>
@@ -11900,21 +11973,21 @@
         <v>42475</v>
       </c>
       <c r="AA113" s="10">
-        <v>7.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
       <c r="AD113" s="15">
-        <v>1.86</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AE113" s="15"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="15">
-        <v>0.28000000000000003</v>
+        <v>0.42999999999999972</v>
       </c>
       <c r="AH113" s="15">
         <f t="shared" si="38"/>
-        <v>0.15053763440860216</v>
+        <v>0.21393034825870635</v>
       </c>
       <c r="AI113" s="15"/>
       <c r="AJ113" s="8" t="s">
@@ -11969,14 +12042,12 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P114" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q114" s="9">
         <v>42437</v>
       </c>
-      <c r="R114" s="9">
-        <v>42451</v>
-      </c>
+      <c r="R114" s="9"/>
       <c r="S114" s="9"/>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
@@ -11984,7 +12055,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="8">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y114" s="9">
         <v>42496</v>
@@ -11993,28 +12064,28 @@
         <v>42475</v>
       </c>
       <c r="AA114" s="10">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB114" s="10"/>
       <c r="AC114" s="10"/>
       <c r="AD114" s="15">
-        <v>2.0299999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="AE114" s="15"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="15">
-        <v>0.44999999999999973</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH114" s="15">
         <f t="shared" si="38"/>
-        <v>0.22167487684729054</v>
+        <v>0.15053763440860216</v>
       </c>
       <c r="AI114" s="15"/>
       <c r="AJ114" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>14</v>
       </c>
@@ -12062,13 +12133,13 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P115" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q115" s="9">
-        <v>42446</v>
+        <v>42437</v>
       </c>
       <c r="R115" s="9">
-        <v>42459</v>
+        <v>42451</v>
       </c>
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
@@ -12086,199 +12157,201 @@
         <v>42475</v>
       </c>
       <c r="AA115" s="10">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB115" s="10"/>
       <c r="AC115" s="10"/>
       <c r="AD115" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="AE115" s="15"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="15">
-        <v>0.71999999999999975</v>
+        <v>0.44999999999999973</v>
       </c>
       <c r="AH115" s="15">
         <f t="shared" si="38"/>
-        <v>0.31304347826086948</v>
+        <v>0.22167487684729054</v>
       </c>
       <c r="AI115" s="15"/>
       <c r="AJ115" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
+    <row r="116" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="8">
+        <v>12</v>
+      </c>
+      <c r="G116" s="8">
+        <v>4</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="I116" s="8">
+        <v>4</v>
+      </c>
+      <c r="J116" s="9">
+        <v>42403</v>
+      </c>
+      <c r="K116" s="9">
+        <v>42412</v>
+      </c>
+      <c r="L116" s="9">
+        <v>42437</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O116" s="18">
+        <f t="shared" si="37"/>
+        <v>62.349999999999994</v>
+      </c>
+      <c r="P116" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q116" s="9">
+        <v>42446</v>
+      </c>
+      <c r="R116" s="9">
+        <v>42459</v>
+      </c>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="8">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="Y116" s="9">
+        <v>42496</v>
+      </c>
+      <c r="Z116" s="9">
+        <v>42475</v>
+      </c>
+      <c r="AA116" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AB116" s="10"/>
+      <c r="AC116" s="10"/>
+      <c r="AD116" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE116" s="15"/>
+      <c r="AF116" s="15"/>
+      <c r="AG116" s="15">
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="AH116" s="15">
+        <f t="shared" si="38"/>
+        <v>0.31304347826086948</v>
+      </c>
+      <c r="AI116" s="15"/>
+      <c r="AJ116" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B117" s="26">
         <v>2016</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C117" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D117" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E117" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="26">
+      <c r="F117" s="26">
         <v>12</v>
       </c>
-      <c r="G116" s="26">
+      <c r="G117" s="26">
         <v>4</v>
       </c>
-      <c r="H116" s="26">
+      <c r="H117" s="26">
         <v>0.75</v>
       </c>
-      <c r="I116" s="26">
+      <c r="I117" s="26">
         <v>4</v>
       </c>
-      <c r="J116" s="27">
+      <c r="J117" s="27">
         <v>42411</v>
       </c>
-      <c r="K116" s="27">
+      <c r="K117" s="27">
         <v>42419</v>
       </c>
-      <c r="L116" s="27">
+      <c r="L117" s="27">
         <v>42438</v>
       </c>
-      <c r="M116" s="27"/>
-      <c r="N116" s="26" t="s">
+      <c r="M117" s="27"/>
+      <c r="N117" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O116" s="39"/>
-      <c r="P116" s="40">
+      <c r="O117" s="39"/>
+      <c r="P117" s="40">
         <v>1</v>
       </c>
-      <c r="Q116" s="27"/>
-      <c r="R116" s="27"/>
-      <c r="S116" s="27"/>
-      <c r="T116" s="27"/>
-      <c r="U116" s="27"/>
-      <c r="V116" s="27"/>
-      <c r="W116" s="27"/>
-      <c r="X116" s="41">
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="41">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y116" s="27">
+      <c r="Y117" s="27">
         <v>42500</v>
       </c>
-      <c r="Z116" s="27">
+      <c r="Z117" s="27">
         <v>42479</v>
       </c>
-      <c r="AA116" s="42">
+      <c r="AA117" s="42">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB116" s="42"/>
-      <c r="AC116" s="42"/>
-      <c r="AD116" s="43">
+      <c r="AB117" s="42"/>
+      <c r="AC117" s="42"/>
+      <c r="AD117" s="43">
         <v>0.58540000000000003</v>
       </c>
-      <c r="AE116" s="43"/>
-      <c r="AF116" s="43"/>
-      <c r="AG116" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH116" s="44">
+      <c r="AE117" s="43"/>
+      <c r="AF117" s="43"/>
+      <c r="AG117" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="44">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AI116" s="44"/>
-      <c r="AJ116" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B117" s="6">
-        <v>2016</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="6">
-        <v>12</v>
-      </c>
-      <c r="G117" s="6">
-        <v>4</v>
-      </c>
-      <c r="H117" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I117" s="6">
-        <v>4</v>
-      </c>
-      <c r="J117" s="9">
-        <v>42411</v>
-      </c>
-      <c r="K117" s="9">
-        <v>42419</v>
-      </c>
-      <c r="L117" s="9">
-        <v>42438</v>
-      </c>
-      <c r="M117" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N117" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O117" s="22">
-        <f t="shared" ref="O117:O122" si="39">430*0.145</f>
-        <v>62.349999999999994</v>
-      </c>
-      <c r="P117" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q117" s="9">
-        <v>42451</v>
-      </c>
-      <c r="R117" s="9"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="8">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Y117" s="9">
-        <v>42500</v>
-      </c>
-      <c r="Z117" s="9">
-        <v>42479</v>
-      </c>
-      <c r="AA117" s="10">
-        <v>7</v>
-      </c>
-      <c r="AB117" s="10"/>
-      <c r="AC117" s="10"/>
-      <c r="AD117" s="32">
-        <v>0.76439999999999997</v>
-      </c>
-      <c r="AE117" s="32"/>
-      <c r="AF117" s="32"/>
-      <c r="AG117" s="15">
-        <v>0.17899999999999994</v>
-      </c>
-      <c r="AH117" s="15">
-        <f t="shared" si="38"/>
-        <v>0.23417059131344839</v>
-      </c>
-      <c r="AI117" s="15"/>
-      <c r="AJ117" s="8" t="s">
+      <c r="AI117" s="44"/>
+      <c r="AJ117" s="41" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12326,18 +12399,16 @@
         <v>46</v>
       </c>
       <c r="O118" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="O118:O123" si="39">430*0.145</f>
         <v>62.349999999999994</v>
       </c>
       <c r="P118" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q118" s="9">
         <v>42451</v>
       </c>
-      <c r="R118" s="9">
-        <v>42465</v>
-      </c>
+      <c r="R118" s="9"/>
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
@@ -12345,7 +12416,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="8">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y118" s="9">
         <v>42500</v>
@@ -12354,21 +12425,21 @@
         <v>42479</v>
       </c>
       <c r="AA118" s="10">
-        <v>2.2999999999999998</v>
+        <v>7</v>
       </c>
       <c r="AB118" s="10"/>
       <c r="AC118" s="10"/>
       <c r="AD118" s="32">
-        <v>0.77669999999999995</v>
+        <v>0.76439999999999997</v>
       </c>
       <c r="AE118" s="32"/>
       <c r="AF118" s="32"/>
       <c r="AG118" s="15">
-        <v>0.19129999999999991</v>
+        <v>0.17899999999999994</v>
       </c>
       <c r="AH118" s="15">
         <f t="shared" si="38"/>
-        <v>0.24629844212694724</v>
+        <v>0.23417059131344839</v>
       </c>
       <c r="AI118" s="15"/>
       <c r="AJ118" s="8" t="s">
@@ -12423,7 +12494,7 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P119" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q119" s="9">
         <v>42451</v>
@@ -12431,16 +12502,14 @@
       <c r="R119" s="9">
         <v>42465</v>
       </c>
-      <c r="S119" s="9">
-        <v>42479</v>
-      </c>
+      <c r="S119" s="9"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
       <c r="W119" s="9"/>
       <c r="X119" s="8">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y119" s="9">
         <v>42500</v>
@@ -12449,21 +12518,21 @@
         <v>42479</v>
       </c>
       <c r="AA119" s="10">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AB119" s="10"/>
       <c r="AC119" s="10"/>
       <c r="AD119" s="32">
-        <v>0.64229999999999998</v>
+        <v>0.77669999999999995</v>
       </c>
       <c r="AE119" s="32"/>
       <c r="AF119" s="32"/>
       <c r="AG119" s="15">
-        <v>5.6899999999999951E-2</v>
+        <v>0.19129999999999991</v>
       </c>
       <c r="AH119" s="15">
         <f t="shared" si="38"/>
-        <v>8.858788728008711E-2</v>
+        <v>0.24629844212694724</v>
       </c>
       <c r="AI119" s="15"/>
       <c r="AJ119" s="8" t="s">
@@ -12518,20 +12587,24 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P120" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q120" s="9">
-        <v>42438</v>
-      </c>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
+        <v>42451</v>
+      </c>
+      <c r="R120" s="9">
+        <v>42465</v>
+      </c>
+      <c r="S120" s="9">
+        <v>42479</v>
+      </c>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
       <c r="W120" s="9"/>
       <c r="X120" s="8">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y120" s="9">
         <v>42500</v>
@@ -12540,21 +12613,21 @@
         <v>42479</v>
       </c>
       <c r="AA120" s="10">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
       <c r="AD120" s="32">
-        <v>0.67020000000000002</v>
+        <v>0.64229999999999998</v>
       </c>
       <c r="AE120" s="32"/>
       <c r="AF120" s="32"/>
       <c r="AG120" s="15">
-        <v>8.4799999999999986E-2</v>
+        <v>5.6899999999999951E-2</v>
       </c>
       <c r="AH120" s="15">
         <f t="shared" si="38"/>
-        <v>0.12652939421068335</v>
+        <v>8.858788728008711E-2</v>
       </c>
       <c r="AI120" s="15"/>
       <c r="AJ120" s="8" t="s">
@@ -12609,14 +12682,12 @@
         <v>62.349999999999994</v>
       </c>
       <c r="P121" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q121" s="9">
         <v>42438</v>
       </c>
-      <c r="R121" s="9">
-        <v>42451</v>
-      </c>
+      <c r="R121" s="9"/>
       <c r="S121" s="9"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
@@ -12624,7 +12695,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="8">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y121" s="9">
         <v>42500</v>
@@ -12633,197 +12704,212 @@
         <v>42479</v>
       </c>
       <c r="AA121" s="10">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB121" s="10"/>
       <c r="AC121" s="10"/>
       <c r="AD121" s="32">
-        <v>0.69199999999999995</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="AE121" s="32"/>
       <c r="AF121" s="32"/>
       <c r="AG121" s="15">
-        <v>0.10659999999999992</v>
+        <v>8.4799999999999986E-2</v>
       </c>
       <c r="AH121" s="15">
         <f t="shared" si="38"/>
-        <v>0.15404624277456636</v>
+        <v>0.12652939421068335</v>
       </c>
       <c r="AI121" s="15"/>
       <c r="AJ121" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+    <row r="122" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <v>2016</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="6">
         <v>12</v>
       </c>
-      <c r="G122" s="7">
+      <c r="G122" s="6">
         <v>4</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="6">
         <v>0.75</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="6">
         <v>4</v>
       </c>
-      <c r="J122" s="4">
+      <c r="J122" s="9">
         <v>42411</v>
       </c>
-      <c r="K122" s="4">
+      <c r="K122" s="9">
         <v>42419</v>
       </c>
-      <c r="L122" s="4">
+      <c r="L122" s="9">
         <v>42438</v>
       </c>
-      <c r="M122" s="4" t="s">
+      <c r="M122" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N122" s="7" t="s">
+      <c r="N122" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O122" s="24">
+      <c r="O122" s="22">
         <f t="shared" si="39"/>
         <v>62.349999999999994</v>
       </c>
-      <c r="P122" s="13">
-        <v>7</v>
-      </c>
-      <c r="Q122" s="4">
+      <c r="P122" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q122" s="9">
+        <v>42438</v>
+      </c>
+      <c r="R122" s="9">
         <v>42451</v>
       </c>
-      <c r="R122" s="4">
-        <v>42465</v>
-      </c>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="3">
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="8">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="Y122" s="4">
+      <c r="Y122" s="9">
         <v>42500</v>
       </c>
-      <c r="Z122" s="4">
+      <c r="Z122" s="9">
         <v>42479</v>
       </c>
-      <c r="AA122" s="5">
+      <c r="AA122" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AB122" s="10"/>
+      <c r="AC122" s="10"/>
+      <c r="AD122" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AE122" s="32"/>
+      <c r="AF122" s="32"/>
+      <c r="AG122" s="15">
+        <v>0.10659999999999992</v>
+      </c>
+      <c r="AH122" s="15">
+        <f t="shared" si="38"/>
+        <v>0.15404624277456636</v>
+      </c>
+      <c r="AI122" s="15"/>
+      <c r="AJ122" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="7">
+        <v>12</v>
+      </c>
+      <c r="G123" s="7">
+        <v>4</v>
+      </c>
+      <c r="H123" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I123" s="7">
+        <v>4</v>
+      </c>
+      <c r="J123" s="4">
+        <v>42411</v>
+      </c>
+      <c r="K123" s="4">
+        <v>42419</v>
+      </c>
+      <c r="L123" s="4">
+        <v>42438</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O123" s="24">
+        <f t="shared" si="39"/>
+        <v>62.349999999999994</v>
+      </c>
+      <c r="P123" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>42451</v>
+      </c>
+      <c r="R123" s="4">
+        <v>42465</v>
+      </c>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="3">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="Y123" s="4">
+        <v>42500</v>
+      </c>
+      <c r="Z123" s="4">
+        <v>42479</v>
+      </c>
+      <c r="AA123" s="5">
         <v>2.8</v>
       </c>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="5"/>
-      <c r="AD122" s="25">
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="25">
         <v>0.69769999999999999</v>
       </c>
-      <c r="AE122" s="25"/>
-      <c r="AF122" s="25"/>
-      <c r="AG122" s="14">
+      <c r="AE123" s="25"/>
+      <c r="AF123" s="25"/>
+      <c r="AG123" s="14">
         <v>0.11229999999999996</v>
       </c>
-      <c r="AH122" s="14">
+      <c r="AH123" s="14">
         <f t="shared" si="38"/>
         <v>0.16095743156084272</v>
       </c>
-      <c r="AI122" s="14"/>
-      <c r="AJ122" s="3" t="s">
+      <c r="AI123" s="14"/>
+      <c r="AJ123" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="6">
-        <v>10</v>
-      </c>
-      <c r="G123" s="6">
-        <v>2</v>
-      </c>
-      <c r="H123" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="I123" s="6">
-        <v>3</v>
-      </c>
-      <c r="J123" s="31">
-        <v>42760</v>
-      </c>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31">
-        <v>42815</v>
-      </c>
-      <c r="M123" s="9"/>
-      <c r="N123" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O123" s="16"/>
-      <c r="P123" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="31"/>
-      <c r="R123" s="31"/>
-      <c r="S123" s="31"/>
-      <c r="T123" s="31"/>
-      <c r="U123" s="31"/>
-      <c r="V123" s="31"/>
-      <c r="W123" s="31"/>
-      <c r="X123" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="9">
-        <v>42843</v>
-      </c>
-      <c r="AA123" s="8">
-        <v>9</v>
-      </c>
-      <c r="AB123" s="8"/>
-      <c r="AC123" s="8"/>
-      <c r="AD123" s="8">
-        <v>1.82489561071677</v>
-      </c>
-      <c r="AE123" s="8"/>
-      <c r="AF123" s="8"/>
-      <c r="AG123" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH123" s="15">
-        <f>(AG123/AD123)</f>
-        <v>0</v>
-      </c>
-      <c r="AI123" s="15"/>
-      <c r="AJ123" s="8"/>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -12848,7 +12934,7 @@
         <v>2</v>
       </c>
       <c r="H124" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I124" s="6">
         <v>3</v>
@@ -12868,9 +12954,7 @@
       <c r="P124" s="12">
         <v>1</v>
       </c>
-      <c r="Q124" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q124" s="31"/>
       <c r="R124" s="31"/>
       <c r="S124" s="31"/>
       <c r="T124" s="31"/>
@@ -12891,7 +12975,7 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
       <c r="AD124" s="8">
-        <v>1.60854019106295</v>
+        <v>1.82489561071677</v>
       </c>
       <c r="AE124" s="8"/>
       <c r="AF124" s="8"/>
@@ -12899,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="AH124" s="15">
-        <f t="shared" si="38"/>
+        <f>(AG124/AD124)</f>
         <v>0</v>
       </c>
       <c r="AI124" s="15"/>
@@ -12928,7 +13012,7 @@
         <v>2</v>
       </c>
       <c r="H125" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I125" s="6">
         <v>3</v>
@@ -12948,7 +13032,9 @@
       <c r="P125" s="12">
         <v>1</v>
       </c>
-      <c r="Q125" s="31"/>
+      <c r="Q125" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="R125" s="31"/>
       <c r="S125" s="31"/>
       <c r="T125" s="31"/>
@@ -12969,7 +13055,7 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
       <c r="AD125" s="8">
-        <v>1.22788870327402</v>
+        <v>1.60854019106295</v>
       </c>
       <c r="AE125" s="8"/>
       <c r="AF125" s="8"/>
@@ -13006,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="H126" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I126" s="6">
         <v>3</v>
@@ -13047,7 +13133,7 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
       <c r="AD126" s="8">
-        <v>2.0839414430769398</v>
+        <v>1.22788870327402</v>
       </c>
       <c r="AE126" s="8"/>
       <c r="AF126" s="8"/>
@@ -13084,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="H127" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I127" s="6">
         <v>3</v>
@@ -13125,7 +13211,7 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
       <c r="AD127" s="8">
-        <v>1.482819981829</v>
+        <v>2.0839414430769398</v>
       </c>
       <c r="AE127" s="8"/>
       <c r="AF127" s="8"/>
@@ -13162,7 +13248,7 @@
         <v>2</v>
       </c>
       <c r="H128" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I128" s="6">
         <v>3</v>
@@ -13198,12 +13284,12 @@
         <v>42843</v>
       </c>
       <c r="AA128" s="8">
-        <v>8.6666666666666696</v>
+        <v>9</v>
       </c>
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
       <c r="AD128" s="8">
-        <v>1.2265200429540399</v>
+        <v>1.482819981829</v>
       </c>
       <c r="AE128" s="8"/>
       <c r="AF128" s="8"/>
@@ -13240,7 +13326,7 @@
         <v>2</v>
       </c>
       <c r="H129" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I129" s="6">
         <v>3</v>
@@ -13276,12 +13362,12 @@
         <v>42843</v>
       </c>
       <c r="AA129" s="8">
-        <v>9</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
       <c r="AD129" s="8">
-        <v>1.64185917947517</v>
+        <v>1.2265200429540399</v>
       </c>
       <c r="AE129" s="8"/>
       <c r="AF129" s="8"/>
@@ -13318,7 +13404,7 @@
         <v>2</v>
       </c>
       <c r="H130" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I130" s="6">
         <v>3</v>
@@ -13359,7 +13445,7 @@
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
       <c r="AD130" s="8">
-        <v>1.5045725993666701</v>
+        <v>1.64185917947517</v>
       </c>
       <c r="AE130" s="8"/>
       <c r="AF130" s="8"/>
@@ -13396,7 +13482,7 @@
         <v>2</v>
       </c>
       <c r="H131" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I131" s="6">
         <v>3</v>
@@ -13437,7 +13523,7 @@
       <c r="AB131" s="8"/>
       <c r="AC131" s="8"/>
       <c r="AD131" s="8">
-        <v>1.4483717562427001</v>
+        <v>1.5045725993666701</v>
       </c>
       <c r="AE131" s="8"/>
       <c r="AF131" s="8"/>
@@ -13474,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="H132" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I132" s="6">
         <v>3</v>
@@ -13486,18 +13572,13 @@
       <c r="L132" s="31">
         <v>42815</v>
       </c>
-      <c r="M132" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="M132" s="9"/>
       <c r="N132" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O132" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O132" s="16"/>
       <c r="P132" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="31"/>
       <c r="R132" s="31"/>
@@ -13520,16 +13601,16 @@
       <c r="AB132" s="8"/>
       <c r="AC132" s="8"/>
       <c r="AD132" s="8">
-        <v>1.7242822303249401</v>
+        <v>1.4483717562427001</v>
       </c>
       <c r="AE132" s="8"/>
       <c r="AF132" s="8"/>
       <c r="AG132" s="15">
-        <v>-0.12594984743135318</v>
+        <v>0</v>
       </c>
       <c r="AH132" s="15">
         <f t="shared" si="38"/>
-        <v>-7.304479812891071E-2</v>
+        <v>0</v>
       </c>
       <c r="AI132" s="15"/>
       <c r="AJ132" s="8"/>
@@ -13557,7 +13638,7 @@
         <v>2</v>
       </c>
       <c r="H133" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I133" s="6">
         <v>3</v>
@@ -13582,9 +13663,7 @@
       <c r="P133" s="12">
         <v>2</v>
       </c>
-      <c r="Q133" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q133" s="31"/>
       <c r="R133" s="31"/>
       <c r="S133" s="31"/>
       <c r="T133" s="31"/>
@@ -13605,16 +13684,16 @@
       <c r="AB133" s="8"/>
       <c r="AC133" s="8"/>
       <c r="AD133" s="8">
-        <v>1.7172796026391399</v>
+        <v>1.7242822303249401</v>
       </c>
       <c r="AE133" s="8"/>
       <c r="AF133" s="8"/>
       <c r="AG133" s="15">
-        <v>0.18530201188626649</v>
+        <v>-0.12594984743135318</v>
       </c>
       <c r="AH133" s="15">
         <f t="shared" si="38"/>
-        <v>0.10790439227339084</v>
+        <v>-7.304479812891071E-2</v>
       </c>
       <c r="AI133" s="15"/>
       <c r="AJ133" s="8"/>
@@ -13642,7 +13721,7 @@
         <v>2</v>
       </c>
       <c r="H134" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I134" s="6">
         <v>3</v>
@@ -13667,7 +13746,9 @@
       <c r="P134" s="12">
         <v>2</v>
       </c>
-      <c r="Q134" s="31"/>
+      <c r="Q134" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="R134" s="31"/>
       <c r="S134" s="31"/>
       <c r="T134" s="31"/>
@@ -13688,16 +13769,16 @@
       <c r="AB134" s="8"/>
       <c r="AC134" s="8"/>
       <c r="AD134" s="8">
-        <v>1.4435202787883199</v>
+        <v>1.7172796026391399</v>
       </c>
       <c r="AE134" s="8"/>
       <c r="AF134" s="8"/>
       <c r="AG134" s="15">
-        <v>0.14259344463139989</v>
+        <v>0.18530201188626649</v>
       </c>
       <c r="AH134" s="15">
         <f t="shared" si="38"/>
-        <v>9.8781739838869301E-2</v>
+        <v>0.10790439227339084</v>
       </c>
       <c r="AI134" s="15"/>
       <c r="AJ134" s="8"/>
@@ -13725,7 +13806,7 @@
         <v>2</v>
       </c>
       <c r="H135" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I135" s="6">
         <v>3</v>
@@ -13738,14 +13819,14 @@
         <v>42815</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O135" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P135" s="12">
         <v>2</v>
@@ -13766,21 +13847,21 @@
         <v>42843</v>
       </c>
       <c r="AA135" s="8">
-        <v>8.6666666666666696</v>
+        <v>9</v>
       </c>
       <c r="AB135" s="8"/>
       <c r="AC135" s="8"/>
       <c r="AD135" s="8">
-        <v>1.7914059128494699</v>
+        <v>1.4435202787883199</v>
       </c>
       <c r="AE135" s="8"/>
       <c r="AF135" s="8"/>
       <c r="AG135" s="15">
-        <v>-5.8826164906823353E-2</v>
+        <v>0.14259344463139989</v>
       </c>
       <c r="AH135" s="15">
         <f t="shared" si="38"/>
-        <v>-3.2837987462736737E-2</v>
+        <v>9.8781739838869301E-2</v>
       </c>
       <c r="AI135" s="15"/>
       <c r="AJ135" s="8"/>
@@ -13808,7 +13889,7 @@
         <v>2</v>
       </c>
       <c r="H136" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I136" s="6">
         <v>3</v>
@@ -13854,16 +13935,16 @@
       <c r="AB136" s="8"/>
       <c r="AC136" s="8"/>
       <c r="AD136" s="8">
-        <v>1.7330036719553601</v>
+        <v>1.7914059128494699</v>
       </c>
       <c r="AE136" s="8"/>
       <c r="AF136" s="8"/>
       <c r="AG136" s="15">
-        <v>0.20102608120248666</v>
+        <v>-5.8826164906823353E-2</v>
       </c>
       <c r="AH136" s="15">
         <f t="shared" si="38"/>
-        <v>0.11599864700555858</v>
+        <v>-3.2837987462736737E-2</v>
       </c>
       <c r="AI136" s="15"/>
       <c r="AJ136" s="8"/>
@@ -13891,7 +13972,7 @@
         <v>2</v>
       </c>
       <c r="H137" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I137" s="6">
         <v>3</v>
@@ -13932,21 +14013,21 @@
         <v>42843</v>
       </c>
       <c r="AA137" s="8">
-        <v>9</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="AB137" s="8"/>
       <c r="AC137" s="8"/>
       <c r="AD137" s="8">
-        <v>1.1301771093544799</v>
+        <v>1.7330036719553601</v>
       </c>
       <c r="AE137" s="8"/>
       <c r="AF137" s="8"/>
       <c r="AG137" s="15">
-        <v>-0.17074972480244011</v>
+        <v>0.20102608120248666</v>
       </c>
       <c r="AH137" s="15">
         <f t="shared" si="38"/>
-        <v>-0.15108227143263125</v>
+        <v>0.11599864700555858</v>
       </c>
       <c r="AI137" s="15"/>
       <c r="AJ137" s="8"/>
@@ -13974,7 +14055,7 @@
         <v>2</v>
       </c>
       <c r="H138" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I138" s="6">
         <v>3</v>
@@ -13987,14 +14068,14 @@
         <v>42815</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O138" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P138" s="12">
         <v>2</v>
@@ -14015,21 +14096,21 @@
         <v>42843</v>
       </c>
       <c r="AA138" s="8">
-        <v>8.6666666666666696</v>
+        <v>9</v>
       </c>
       <c r="AB138" s="8"/>
       <c r="AC138" s="8"/>
       <c r="AD138" s="8">
-        <v>2.05107860367968</v>
+        <v>1.1301771093544799</v>
       </c>
       <c r="AE138" s="8"/>
       <c r="AF138" s="8"/>
       <c r="AG138" s="15">
-        <v>0.2008465259233867</v>
+        <v>-0.17074972480244011</v>
       </c>
       <c r="AH138" s="15">
         <f t="shared" si="38"/>
-        <v>9.7922393399776889E-2</v>
+        <v>-0.15108227143263125</v>
       </c>
       <c r="AI138" s="15"/>
       <c r="AJ138" s="8"/>
@@ -14057,7 +14138,7 @@
         <v>2</v>
       </c>
       <c r="H139" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I139" s="6">
         <v>3</v>
@@ -14103,16 +14184,16 @@
       <c r="AB139" s="8"/>
       <c r="AC139" s="8"/>
       <c r="AD139" s="8">
-        <v>1.76328355915084</v>
+        <v>2.05107860367968</v>
       </c>
       <c r="AE139" s="8"/>
       <c r="AF139" s="8"/>
       <c r="AG139" s="15">
-        <v>0.23130596839796658</v>
+        <v>0.2008465259233867</v>
       </c>
       <c r="AH139" s="15">
         <f t="shared" si="38"/>
-        <v>0.13117911024438897</v>
+        <v>9.7922393399776889E-2</v>
       </c>
       <c r="AI139" s="15"/>
       <c r="AJ139" s="8"/>
@@ -14140,7 +14221,7 @@
         <v>2</v>
       </c>
       <c r="H140" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I140" s="6">
         <v>3</v>
@@ -14181,21 +14262,21 @@
         <v>42843</v>
       </c>
       <c r="AA140" s="8">
-        <v>9</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="AB140" s="8"/>
       <c r="AC140" s="8"/>
       <c r="AD140" s="8">
-        <v>1.4199149205541599</v>
+        <v>1.76328355915084</v>
       </c>
       <c r="AE140" s="8"/>
       <c r="AF140" s="8"/>
       <c r="AG140" s="15">
-        <v>0.1189880863972399</v>
+        <v>0.23130596839796658</v>
       </c>
       <c r="AH140" s="15">
         <f t="shared" si="38"/>
-        <v>8.3799447892836845E-2</v>
+        <v>0.13117911024438897</v>
       </c>
       <c r="AI140" s="15"/>
       <c r="AJ140" s="8"/>
@@ -14223,7 +14304,7 @@
         <v>2</v>
       </c>
       <c r="H141" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I141" s="6">
         <v>3</v>
@@ -14236,17 +14317,17 @@
         <v>42815</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N141" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O141" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P141" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q141" s="31"/>
       <c r="R141" s="31"/>
@@ -14264,21 +14345,21 @@
         <v>42843</v>
       </c>
       <c r="AA141" s="8">
-        <v>8.6666666666666696</v>
+        <v>9</v>
       </c>
       <c r="AB141" s="8"/>
       <c r="AC141" s="8"/>
       <c r="AD141" s="8">
-        <v>1.9218522394687101</v>
+        <v>1.4199149205541599</v>
       </c>
       <c r="AE141" s="8"/>
       <c r="AF141" s="8"/>
       <c r="AG141" s="15">
-        <v>7.1620161712416808E-2</v>
+        <v>0.1189880863972399</v>
       </c>
       <c r="AH141" s="15">
         <f t="shared" si="38"/>
-        <v>3.7266216539215302E-2</v>
+        <v>8.3799447892836845E-2</v>
       </c>
       <c r="AI141" s="15"/>
       <c r="AJ141" s="8"/>
@@ -14306,7 +14387,7 @@
         <v>2</v>
       </c>
       <c r="H142" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I142" s="6">
         <v>3</v>
@@ -14331,9 +14412,7 @@
       <c r="P142" s="12">
         <v>3</v>
       </c>
-      <c r="Q142" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q142" s="31"/>
       <c r="R142" s="31"/>
       <c r="S142" s="31"/>
       <c r="T142" s="31"/>
@@ -14349,17 +14428,21 @@
         <v>42843</v>
       </c>
       <c r="AA142" s="8">
-        <v>8.3333333333333304</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="AB142" s="8"/>
       <c r="AC142" s="8"/>
-      <c r="AD142" s="8"/>
+      <c r="AD142" s="8">
+        <v>1.9218522394687101</v>
+      </c>
       <c r="AE142" s="8"/>
       <c r="AF142" s="8"/>
-      <c r="AG142" s="15"/>
-      <c r="AH142" s="15" t="e">
-        <f t="shared" ref="AH142:AH173" si="40">(AG142/AD142)</f>
-        <v>#DIV/0!</v>
+      <c r="AG142" s="15">
+        <v>7.1620161712416808E-2</v>
+      </c>
+      <c r="AH142" s="15">
+        <f t="shared" si="38"/>
+        <v>3.7266216539215302E-2</v>
       </c>
       <c r="AI142" s="15"/>
       <c r="AJ142" s="8"/>
@@ -14387,7 +14470,7 @@
         <v>2</v>
       </c>
       <c r="H143" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I143" s="6">
         <v>3</v>
@@ -14412,7 +14495,9 @@
       <c r="P143" s="12">
         <v>3</v>
       </c>
-      <c r="Q143" s="31"/>
+      <c r="Q143" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="R143" s="31"/>
       <c r="S143" s="31"/>
       <c r="T143" s="31"/>
@@ -14428,21 +14513,17 @@
         <v>42843</v>
       </c>
       <c r="AA143" s="8">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="AB143" s="8"/>
       <c r="AC143" s="8"/>
-      <c r="AD143" s="8">
-        <v>1.38905793764705</v>
-      </c>
+      <c r="AD143" s="8"/>
       <c r="AE143" s="8"/>
       <c r="AF143" s="8"/>
-      <c r="AG143" s="15">
-        <v>8.8131103490129981E-2</v>
-      </c>
-      <c r="AH143" s="15">
-        <f t="shared" si="40"/>
-        <v>6.3446672094482126E-2</v>
+      <c r="AG143" s="15"/>
+      <c r="AH143" s="15" t="e">
+        <f t="shared" ref="AH143:AH174" si="40">(AG143/AD143)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI143" s="15"/>
       <c r="AJ143" s="8"/>
@@ -14470,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="H144" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I144" s="6">
         <v>3</v>
@@ -14483,14 +14564,14 @@
         <v>42815</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O144" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P144" s="12">
         <v>3</v>
@@ -14516,16 +14597,16 @@
       <c r="AB144" s="8"/>
       <c r="AC144" s="8"/>
       <c r="AD144" s="8">
-        <v>2.1005559646482301</v>
+        <v>1.38905793764705</v>
       </c>
       <c r="AE144" s="8"/>
       <c r="AF144" s="8"/>
       <c r="AG144" s="15">
-        <v>0.25032388689193685</v>
+        <v>8.8131103490129981E-2</v>
       </c>
       <c r="AH144" s="15">
         <f t="shared" si="40"/>
-        <v>0.11917030115113232</v>
+        <v>6.3446672094482126E-2</v>
       </c>
       <c r="AI144" s="15"/>
       <c r="AJ144" s="8"/>
@@ -14553,7 +14634,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I145" s="6">
         <v>3</v>
@@ -14594,21 +14675,21 @@
         <v>42843</v>
       </c>
       <c r="AA145" s="8">
-        <v>8.3333333333333304</v>
+        <v>8</v>
       </c>
       <c r="AB145" s="8"/>
       <c r="AC145" s="8"/>
       <c r="AD145" s="8">
-        <v>1.85921909000592</v>
+        <v>2.1005559646482301</v>
       </c>
       <c r="AE145" s="8"/>
       <c r="AF145" s="8"/>
       <c r="AG145" s="15">
-        <v>0.32724149925304657</v>
+        <v>0.25032388689193685</v>
       </c>
       <c r="AH145" s="15">
         <f t="shared" si="40"/>
-        <v>0.1760101867564218</v>
+        <v>0.11917030115113232</v>
       </c>
       <c r="AI145" s="15"/>
       <c r="AJ145" s="8"/>
@@ -14636,7 +14717,7 @@
         <v>2</v>
       </c>
       <c r="H146" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I146" s="6">
         <v>3</v>
@@ -14677,21 +14758,21 @@
         <v>42843</v>
       </c>
       <c r="AA146" s="8">
-        <v>8.6666666666666696</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="AB146" s="8"/>
       <c r="AC146" s="8"/>
       <c r="AD146" s="8">
-        <v>1.49809569835384</v>
+        <v>1.85921909000592</v>
       </c>
       <c r="AE146" s="8"/>
       <c r="AF146" s="8"/>
       <c r="AG146" s="15">
-        <v>0.19716886419692004</v>
+        <v>0.32724149925304657</v>
       </c>
       <c r="AH146" s="15">
         <f t="shared" si="40"/>
-        <v>0.13161299669545548</v>
+        <v>0.1760101867564218</v>
       </c>
       <c r="AI146" s="15"/>
       <c r="AJ146" s="8"/>
@@ -14719,7 +14800,7 @@
         <v>2</v>
       </c>
       <c r="H147" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I147" s="6">
         <v>3</v>
@@ -14732,14 +14813,14 @@
         <v>42815</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O147" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P147" s="12">
         <v>3</v>
@@ -14760,21 +14841,21 @@
         <v>42843</v>
       </c>
       <c r="AA147" s="8">
-        <v>8.3333333333333304</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="AB147" s="8"/>
       <c r="AC147" s="8"/>
       <c r="AD147" s="8">
-        <v>2.0485359280449602</v>
+        <v>1.49809569835384</v>
       </c>
       <c r="AE147" s="8"/>
       <c r="AF147" s="8"/>
       <c r="AG147" s="15">
-        <v>0.19830385028866693</v>
+        <v>0.19716886419692004</v>
       </c>
       <c r="AH147" s="15">
         <f t="shared" si="40"/>
-        <v>9.680272021292792E-2</v>
+        <v>0.13161299669545548</v>
       </c>
       <c r="AI147" s="15"/>
       <c r="AJ147" s="8"/>
@@ -14802,7 +14883,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I148" s="6">
         <v>3</v>
@@ -14835,7 +14916,7 @@
       <c r="V148" s="31"/>
       <c r="W148" s="31"/>
       <c r="X148" s="8">
-        <f t="shared" ref="X148:X211" si="41">COUNT(Q148:S148)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y148" s="9"/>
@@ -14843,21 +14924,21 @@
         <v>42843</v>
       </c>
       <c r="AA148" s="8">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="AB148" s="8"/>
       <c r="AC148" s="8"/>
       <c r="AD148" s="8">
-        <v>1.9739362660609501</v>
+        <v>2.0485359280449602</v>
       </c>
       <c r="AE148" s="8"/>
       <c r="AF148" s="8"/>
       <c r="AG148" s="15">
-        <v>0.44195867530807664</v>
+        <v>0.19830385028866693</v>
       </c>
       <c r="AH148" s="15">
         <f t="shared" si="40"/>
-        <v>0.22389713533660266</v>
+        <v>9.680272021292792E-2</v>
       </c>
       <c r="AI148" s="15"/>
       <c r="AJ148" s="8"/>
@@ -14885,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="H149" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I149" s="6">
         <v>3</v>
@@ -14918,7 +14999,7 @@
       <c r="V149" s="31"/>
       <c r="W149" s="31"/>
       <c r="X149" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="X149:X212" si="41">COUNT(Q149:S149)</f>
         <v>0</v>
       </c>
       <c r="Y149" s="9"/>
@@ -14926,21 +15007,21 @@
         <v>42843</v>
       </c>
       <c r="AA149" s="8">
-        <v>8.3333333333333304</v>
+        <v>8</v>
       </c>
       <c r="AB149" s="8"/>
       <c r="AC149" s="8"/>
       <c r="AD149" s="8">
-        <v>1.4885523151578499</v>
+        <v>1.9739362660609501</v>
       </c>
       <c r="AE149" s="8"/>
       <c r="AF149" s="8"/>
       <c r="AG149" s="15">
-        <v>0.18762548100092991</v>
+        <v>0.44195867530807664</v>
       </c>
       <c r="AH149" s="15">
         <f t="shared" si="40"/>
-        <v>0.12604560759494277</v>
+        <v>0.22389713533660266</v>
       </c>
       <c r="AI149" s="15"/>
       <c r="AJ149" s="8"/>
@@ -14968,7 +15049,7 @@
         <v>2</v>
       </c>
       <c r="H150" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I150" s="6">
         <v>3</v>
@@ -14981,17 +15062,17 @@
         <v>42815</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N150" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O150" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P150" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q150" s="31"/>
       <c r="R150" s="31"/>
@@ -15009,21 +15090,21 @@
         <v>42843</v>
       </c>
       <c r="AA150" s="8">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="AB150" s="8"/>
       <c r="AC150" s="8"/>
       <c r="AD150" s="8">
-        <v>2.5262528427418798</v>
+        <v>1.4885523151578499</v>
       </c>
       <c r="AE150" s="8"/>
       <c r="AF150" s="8"/>
       <c r="AG150" s="15">
-        <v>0.6760207649855865</v>
+        <v>0.18762548100092991</v>
       </c>
       <c r="AH150" s="15">
         <f t="shared" si="40"/>
-        <v>0.26759822039501968</v>
+        <v>0.12604560759494277</v>
       </c>
       <c r="AI150" s="15"/>
       <c r="AJ150" s="8"/>
@@ -15051,7 +15132,7 @@
         <v>2</v>
       </c>
       <c r="H151" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I151" s="6">
         <v>3</v>
@@ -15076,9 +15157,7 @@
       <c r="P151" s="12">
         <v>4</v>
       </c>
-      <c r="Q151" s="37" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q151" s="31"/>
       <c r="R151" s="31"/>
       <c r="S151" s="31"/>
       <c r="T151" s="31"/>
@@ -15099,16 +15178,16 @@
       <c r="AB151" s="8"/>
       <c r="AC151" s="8"/>
       <c r="AD151" s="8">
-        <v>2.0006007883177799</v>
+        <v>2.5262528427418798</v>
       </c>
       <c r="AE151" s="8"/>
       <c r="AF151" s="8"/>
       <c r="AG151" s="15">
-        <v>0.46862319756490645</v>
+        <v>0.6760207649855865</v>
       </c>
       <c r="AH151" s="15">
         <f t="shared" si="40"/>
-        <v>0.23424123408396322</v>
+        <v>0.26759822039501968</v>
       </c>
       <c r="AI151" s="15"/>
       <c r="AJ151" s="8"/>
@@ -15136,7 +15215,7 @@
         <v>2</v>
       </c>
       <c r="H152" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I152" s="6">
         <v>3</v>
@@ -15161,7 +15240,9 @@
       <c r="P152" s="12">
         <v>4</v>
       </c>
-      <c r="Q152" s="31"/>
+      <c r="Q152" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="R152" s="31"/>
       <c r="S152" s="31"/>
       <c r="T152" s="31"/>
@@ -15182,16 +15263,16 @@
       <c r="AB152" s="8"/>
       <c r="AC152" s="8"/>
       <c r="AD152" s="8">
-        <v>1.79883941613374</v>
+        <v>2.0006007883177799</v>
       </c>
       <c r="AE152" s="8"/>
       <c r="AF152" s="8"/>
       <c r="AG152" s="15">
-        <v>0.49791258197681998</v>
+        <v>0.46862319756490645</v>
       </c>
       <c r="AH152" s="15">
         <f t="shared" si="40"/>
-        <v>0.27679657089513166</v>
+        <v>0.23424123408396322</v>
       </c>
       <c r="AI152" s="15"/>
       <c r="AJ152" s="8"/>
@@ -15219,7 +15300,7 @@
         <v>2</v>
       </c>
       <c r="H153" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I153" s="6">
         <v>3</v>
@@ -15232,14 +15313,14 @@
         <v>42815</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O153" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P153" s="12">
         <v>4</v>
@@ -15265,16 +15346,16 @@
       <c r="AB153" s="8"/>
       <c r="AC153" s="8"/>
       <c r="AD153" s="8">
-        <v>2.1016994313724702</v>
+        <v>1.79883941613374</v>
       </c>
       <c r="AE153" s="8"/>
       <c r="AF153" s="8"/>
       <c r="AG153" s="15">
-        <v>0.25146735361617689</v>
+        <v>0.49791258197681998</v>
       </c>
       <c r="AH153" s="15">
         <f t="shared" si="40"/>
-        <v>0.11964953211790207</v>
+        <v>0.27679657089513166</v>
       </c>
       <c r="AI153" s="15"/>
       <c r="AJ153" s="8"/>
@@ -15302,7 +15383,7 @@
         <v>2</v>
       </c>
       <c r="H154" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I154" s="6">
         <v>3</v>
@@ -15343,21 +15424,21 @@
         <v>42843</v>
       </c>
       <c r="AA154" s="8">
-        <v>7.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="AB154" s="8"/>
       <c r="AC154" s="8"/>
       <c r="AD154" s="8">
-        <v>2.1794810906747202</v>
+        <v>2.1016994313724702</v>
       </c>
       <c r="AE154" s="8"/>
       <c r="AF154" s="8"/>
       <c r="AG154" s="15">
-        <v>0.64750349992184675</v>
+        <v>0.25146735361617689</v>
       </c>
       <c r="AH154" s="15">
         <f t="shared" si="40"/>
-        <v>0.29709067111997456</v>
+        <v>0.11964953211790207</v>
       </c>
       <c r="AI154" s="15"/>
       <c r="AJ154" s="8"/>
@@ -15385,7 +15466,7 @@
         <v>2</v>
       </c>
       <c r="H155" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I155" s="6">
         <v>3</v>
@@ -15426,21 +15507,21 @@
         <v>42843</v>
       </c>
       <c r="AA155" s="8">
-        <v>8</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AB155" s="8"/>
       <c r="AC155" s="8"/>
       <c r="AD155" s="8">
-        <v>1.9737390242258599</v>
+        <v>2.1794810906747202</v>
       </c>
       <c r="AE155" s="8"/>
       <c r="AF155" s="8"/>
       <c r="AG155" s="15">
-        <v>0.67281219006893989</v>
+        <v>0.64750349992184675</v>
       </c>
       <c r="AH155" s="15">
         <f t="shared" si="40"/>
-        <v>0.3408820425652932</v>
+        <v>0.29709067111997456</v>
       </c>
       <c r="AI155" s="15"/>
       <c r="AJ155" s="8"/>
@@ -15468,7 +15549,7 @@
         <v>2</v>
       </c>
       <c r="H156" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I156" s="6">
         <v>3</v>
@@ -15481,14 +15562,14 @@
         <v>42815</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O156" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P156" s="12">
         <v>4</v>
@@ -15514,16 +15595,16 @@
       <c r="AB156" s="8"/>
       <c r="AC156" s="8"/>
       <c r="AD156" s="8">
-        <v>2.2661069846945998</v>
+        <v>1.9737390242258599</v>
       </c>
       <c r="AE156" s="8"/>
       <c r="AF156" s="8"/>
       <c r="AG156" s="15">
-        <v>0.41587490693830653</v>
+        <v>0.67281219006893989</v>
       </c>
       <c r="AH156" s="15">
         <f t="shared" si="40"/>
-        <v>0.18351953802143786</v>
+        <v>0.3408820425652932</v>
       </c>
       <c r="AI156" s="15"/>
       <c r="AJ156" s="8"/>
@@ -15551,7 +15632,7 @@
         <v>2</v>
       </c>
       <c r="H157" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I157" s="6">
         <v>3</v>
@@ -15597,16 +15678,16 @@
       <c r="AB157" s="8"/>
       <c r="AC157" s="8"/>
       <c r="AD157" s="8">
-        <v>2.0922098083312499</v>
+        <v>2.2661069846945998</v>
       </c>
       <c r="AE157" s="8"/>
       <c r="AF157" s="8"/>
       <c r="AG157" s="15">
-        <v>0.56023221757837649</v>
+        <v>0.41587490693830653</v>
       </c>
       <c r="AH157" s="15">
         <f t="shared" si="40"/>
-        <v>0.26777057221867184</v>
+        <v>0.18351953802143786</v>
       </c>
       <c r="AI157" s="15"/>
       <c r="AJ157" s="8"/>
@@ -15634,7 +15715,7 @@
         <v>2</v>
       </c>
       <c r="H158" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I158" s="6">
         <v>3</v>
@@ -15680,16 +15761,16 @@
       <c r="AB158" s="8"/>
       <c r="AC158" s="8"/>
       <c r="AD158" s="8">
-        <v>1.3137540699347301</v>
+        <v>2.0922098083312499</v>
       </c>
       <c r="AE158" s="8"/>
       <c r="AF158" s="8"/>
       <c r="AG158" s="15">
-        <v>1.2827235777810087E-2</v>
+        <v>0.56023221757837649</v>
       </c>
       <c r="AH158" s="15">
         <f t="shared" si="40"/>
-        <v>9.7638028846961968E-3</v>
+        <v>0.26777057221867184</v>
       </c>
       <c r="AI158" s="15"/>
       <c r="AJ158" s="8"/>
@@ -15717,7 +15798,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I159" s="6">
         <v>3</v>
@@ -15730,17 +15811,17 @@
         <v>42815</v>
       </c>
       <c r="M159" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N159" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O159" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P159" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q159" s="31"/>
       <c r="R159" s="31"/>
@@ -15763,16 +15844,16 @@
       <c r="AB159" s="8"/>
       <c r="AC159" s="8"/>
       <c r="AD159" s="8">
-        <v>1.8777801163653201</v>
+        <v>1.3137540699347301</v>
       </c>
       <c r="AE159" s="8"/>
       <c r="AF159" s="8"/>
       <c r="AG159" s="15">
-        <v>2.754803860902677E-2</v>
+        <v>1.2827235777810087E-2</v>
       </c>
       <c r="AH159" s="15">
         <f t="shared" si="40"/>
-        <v>1.4670534834690586E-2</v>
+        <v>9.7638028846961968E-3</v>
       </c>
       <c r="AI159" s="15"/>
       <c r="AJ159" s="8"/>
@@ -15800,7 +15881,7 @@
         <v>2</v>
       </c>
       <c r="H160" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I160" s="6">
         <v>3</v>
@@ -15825,9 +15906,7 @@
       <c r="P160" s="12">
         <v>5</v>
       </c>
-      <c r="Q160" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q160" s="31"/>
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
       <c r="T160" s="31"/>
@@ -15848,16 +15927,16 @@
       <c r="AB160" s="8"/>
       <c r="AC160" s="8"/>
       <c r="AD160" s="8">
-        <v>1.78061480009739</v>
+        <v>1.8777801163653201</v>
       </c>
       <c r="AE160" s="8"/>
       <c r="AF160" s="8"/>
       <c r="AG160" s="15">
-        <v>0.24863720934451661</v>
+        <v>2.754803860902677E-2</v>
       </c>
       <c r="AH160" s="15">
         <f t="shared" si="40"/>
-        <v>0.13963559627321839</v>
+        <v>1.4670534834690586E-2</v>
       </c>
       <c r="AI160" s="15"/>
       <c r="AJ160" s="8"/>
@@ -15885,7 +15964,7 @@
         <v>2</v>
       </c>
       <c r="H161" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I161" s="6">
         <v>3</v>
@@ -15910,7 +15989,9 @@
       <c r="P161" s="12">
         <v>5</v>
       </c>
-      <c r="Q161" s="31"/>
+      <c r="Q161" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="R161" s="31"/>
       <c r="S161" s="31"/>
       <c r="T161" s="31"/>
@@ -15931,16 +16012,16 @@
       <c r="AB161" s="8"/>
       <c r="AC161" s="8"/>
       <c r="AD161" s="8">
-        <v>1.5336703831809599</v>
+        <v>1.78061480009739</v>
       </c>
       <c r="AE161" s="8"/>
       <c r="AF161" s="8"/>
       <c r="AG161" s="15">
-        <v>0.23274354902403993</v>
+        <v>0.24863720934451661</v>
       </c>
       <c r="AH161" s="15">
         <f t="shared" si="40"/>
-        <v>0.15175591285873985</v>
+        <v>0.13963559627321839</v>
       </c>
       <c r="AI161" s="15"/>
       <c r="AJ161" s="8"/>
@@ -15968,7 +16049,7 @@
         <v>2</v>
       </c>
       <c r="H162" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I162" s="6">
         <v>3</v>
@@ -15981,14 +16062,14 @@
         <v>42815</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O162" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P162" s="12">
         <v>5</v>
@@ -16014,16 +16095,16 @@
       <c r="AB162" s="8"/>
       <c r="AC162" s="8"/>
       <c r="AD162" s="8">
-        <v>2.1433538333161501</v>
+        <v>1.5336703831809599</v>
       </c>
       <c r="AE162" s="8"/>
       <c r="AF162" s="8"/>
       <c r="AG162" s="15">
-        <v>0.29312175555985687</v>
+        <v>0.23274354902403993</v>
       </c>
       <c r="AH162" s="15">
         <f t="shared" si="40"/>
-        <v>0.13675845350571225</v>
+        <v>0.15175591285873985</v>
       </c>
       <c r="AI162" s="15"/>
       <c r="AJ162" s="8"/>
@@ -16051,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="H163" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I163" s="6">
         <v>3</v>
@@ -16097,16 +16178,16 @@
       <c r="AB163" s="8"/>
       <c r="AC163" s="8"/>
       <c r="AD163" s="8">
-        <v>1.82789865751201</v>
+        <v>2.1433538333161501</v>
       </c>
       <c r="AE163" s="8"/>
       <c r="AF163" s="8"/>
       <c r="AG163" s="15">
-        <v>0.29592106675913654</v>
+        <v>0.29312175555985687</v>
       </c>
       <c r="AH163" s="15">
         <f t="shared" si="40"/>
-        <v>0.16189139673745409</v>
+        <v>0.13675845350571225</v>
       </c>
       <c r="AI163" s="15"/>
       <c r="AJ163" s="8"/>
@@ -16134,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="H164" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I164" s="6">
         <v>3</v>
@@ -16180,16 +16261,16 @@
       <c r="AB164" s="8"/>
       <c r="AC164" s="8"/>
       <c r="AD164" s="8">
-        <v>1.7563899648635299</v>
+        <v>1.82789865751201</v>
       </c>
       <c r="AE164" s="8"/>
       <c r="AF164" s="8"/>
       <c r="AG164" s="15">
-        <v>0.45546313070660993</v>
+        <v>0.29592106675913654</v>
       </c>
       <c r="AH164" s="15">
         <f t="shared" si="40"/>
-        <v>0.25931777100650827</v>
+        <v>0.16189139673745409</v>
       </c>
       <c r="AI164" s="15"/>
       <c r="AJ164" s="8"/>
@@ -16217,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="H165" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I165" s="6">
         <v>3</v>
@@ -16230,14 +16311,14 @@
         <v>42815</v>
       </c>
       <c r="M165" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O165" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P165" s="12">
         <v>5</v>
@@ -16263,16 +16344,16 @@
       <c r="AB165" s="8"/>
       <c r="AC165" s="8"/>
       <c r="AD165" s="8">
-        <v>2.6421837564693398</v>
+        <v>1.7563899648635299</v>
       </c>
       <c r="AE165" s="8"/>
       <c r="AF165" s="8"/>
       <c r="AG165" s="15">
-        <v>0.7919516787130465</v>
+        <v>0.45546313070660993</v>
       </c>
       <c r="AH165" s="15">
         <f t="shared" si="40"/>
-        <v>0.29973376256438145</v>
+        <v>0.25931777100650827</v>
       </c>
       <c r="AI165" s="15"/>
       <c r="AJ165" s="8"/>
@@ -16300,7 +16381,7 @@
         <v>2</v>
       </c>
       <c r="H166" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I166" s="6">
         <v>3</v>
@@ -16346,16 +16427,16 @@
       <c r="AB166" s="8"/>
       <c r="AC166" s="8"/>
       <c r="AD166" s="8">
-        <v>2.1369819883489698</v>
+        <v>2.6421837564693398</v>
       </c>
       <c r="AE166" s="8"/>
       <c r="AF166" s="8"/>
       <c r="AG166" s="15">
-        <v>0.60500439759609637</v>
+        <v>0.7919516787130465</v>
       </c>
       <c r="AH166" s="15">
         <f t="shared" si="40"/>
-        <v>0.28311160360482129</v>
+        <v>0.29973376256438145</v>
       </c>
       <c r="AI166" s="15"/>
       <c r="AJ166" s="8"/>
@@ -16383,7 +16464,7 @@
         <v>2</v>
       </c>
       <c r="H167" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I167" s="6">
         <v>3</v>
@@ -16429,16 +16510,16 @@
       <c r="AB167" s="8"/>
       <c r="AC167" s="8"/>
       <c r="AD167" s="8">
-        <v>1.84339985025659</v>
+        <v>2.1369819883489698</v>
       </c>
       <c r="AE167" s="8"/>
       <c r="AF167" s="8"/>
       <c r="AG167" s="15">
-        <v>0.54247301609967002</v>
+        <v>0.60500439759609637</v>
       </c>
       <c r="AH167" s="15">
         <f t="shared" si="40"/>
-        <v>0.2942785397450049</v>
+        <v>0.28311160360482129</v>
       </c>
       <c r="AI167" s="15"/>
       <c r="AJ167" s="8"/>
@@ -16466,7 +16547,7 @@
         <v>2</v>
       </c>
       <c r="H168" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I168" s="6">
         <v>3</v>
@@ -16479,17 +16560,17 @@
         <v>42815</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N168" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O168" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P168" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q168" s="31"/>
       <c r="R168" s="31"/>
@@ -16507,21 +16588,21 @@
         <v>42843</v>
       </c>
       <c r="AA168" s="8">
-        <v>7.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="AB168" s="8"/>
       <c r="AC168" s="8"/>
       <c r="AD168" s="8">
-        <v>2.27791368868079</v>
+        <v>1.84339985025659</v>
       </c>
       <c r="AE168" s="8"/>
       <c r="AF168" s="8"/>
       <c r="AG168" s="15">
-        <v>0.42768161092449675</v>
+        <v>0.54247301609967002</v>
       </c>
       <c r="AH168" s="15">
         <f t="shared" si="40"/>
-        <v>0.18775145566300203</v>
+        <v>0.2942785397450049</v>
       </c>
       <c r="AI168" s="15"/>
       <c r="AJ168" s="8"/>
@@ -16549,7 +16630,7 @@
         <v>2</v>
       </c>
       <c r="H169" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I169" s="6">
         <v>3</v>
@@ -16574,9 +16655,7 @@
       <c r="P169" s="12">
         <v>6</v>
       </c>
-      <c r="Q169" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q169" s="31"/>
       <c r="R169" s="31"/>
       <c r="S169" s="31"/>
       <c r="T169" s="31"/>
@@ -16592,21 +16671,21 @@
         <v>42843</v>
       </c>
       <c r="AA169" s="8">
-        <v>8</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AB169" s="8"/>
       <c r="AC169" s="8"/>
       <c r="AD169" s="8">
-        <v>1.35690258922655</v>
+        <v>2.27791368868079</v>
       </c>
       <c r="AE169" s="8"/>
       <c r="AF169" s="8"/>
       <c r="AG169" s="15">
-        <v>-0.17507500152632338</v>
+        <v>0.42768161092449675</v>
       </c>
       <c r="AH169" s="15">
         <f t="shared" si="40"/>
-        <v>-0.12902547531147252</v>
+        <v>0.18775145566300203</v>
       </c>
       <c r="AI169" s="15"/>
       <c r="AJ169" s="8"/>
@@ -16634,7 +16713,7 @@
         <v>2</v>
       </c>
       <c r="H170" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I170" s="6">
         <v>3</v>
@@ -16659,7 +16738,9 @@
       <c r="P170" s="12">
         <v>6</v>
       </c>
-      <c r="Q170" s="31"/>
+      <c r="Q170" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="R170" s="31"/>
       <c r="S170" s="31"/>
       <c r="T170" s="31"/>
@@ -16680,16 +16761,16 @@
       <c r="AB170" s="8"/>
       <c r="AC170" s="8"/>
       <c r="AD170" s="8">
-        <v>1.7424353553490299</v>
+        <v>1.35690258922655</v>
       </c>
       <c r="AE170" s="8"/>
       <c r="AF170" s="8"/>
       <c r="AG170" s="15">
-        <v>0.44150852119210993</v>
+        <v>-0.17507500152632338</v>
       </c>
       <c r="AH170" s="15">
         <f t="shared" si="40"/>
-        <v>0.25338588306116566</v>
+        <v>-0.12902547531147252</v>
       </c>
       <c r="AI170" s="15"/>
       <c r="AJ170" s="8"/>
@@ -16717,7 +16798,7 @@
         <v>2</v>
       </c>
       <c r="H171" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I171" s="6">
         <v>3</v>
@@ -16730,14 +16811,14 @@
         <v>42815</v>
       </c>
       <c r="M171" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O171" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P171" s="12">
         <v>6</v>
@@ -16763,16 +16844,16 @@
       <c r="AB171" s="8"/>
       <c r="AC171" s="8"/>
       <c r="AD171" s="8">
-        <v>2.3121443631354301</v>
+        <v>1.7424353553490299</v>
       </c>
       <c r="AE171" s="8"/>
       <c r="AF171" s="8"/>
       <c r="AG171" s="15">
-        <v>0.46191228537913687</v>
+        <v>0.44150852119210993</v>
       </c>
       <c r="AH171" s="15">
         <f t="shared" si="40"/>
-        <v>0.19977657655975745</v>
+        <v>0.25338588306116566</v>
       </c>
       <c r="AI171" s="15"/>
       <c r="AJ171" s="8"/>
@@ -16800,7 +16881,7 @@
         <v>2</v>
       </c>
       <c r="H172" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I172" s="6">
         <v>3</v>
@@ -16846,16 +16927,16 @@
       <c r="AB172" s="8"/>
       <c r="AC172" s="8"/>
       <c r="AD172" s="8">
-        <v>2.1125934089755098</v>
+        <v>2.3121443631354301</v>
       </c>
       <c r="AE172" s="8"/>
       <c r="AF172" s="8"/>
       <c r="AG172" s="15">
-        <v>0.58061581822263642</v>
+        <v>0.46191228537913687</v>
       </c>
       <c r="AH172" s="15">
         <f t="shared" si="40"/>
-        <v>0.2748355721246914</v>
+        <v>0.19977657655975745</v>
       </c>
       <c r="AI172" s="15"/>
       <c r="AJ172" s="8"/>
@@ -16883,7 +16964,7 @@
         <v>2</v>
       </c>
       <c r="H173" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I173" s="6">
         <v>3</v>
@@ -16929,16 +17010,16 @@
       <c r="AB173" s="8"/>
       <c r="AC173" s="8"/>
       <c r="AD173" s="8">
-        <v>1.79216546387105</v>
+        <v>2.1125934089755098</v>
       </c>
       <c r="AE173" s="8"/>
       <c r="AF173" s="8"/>
       <c r="AG173" s="15">
-        <v>0.49123862971413002</v>
+        <v>0.58061581822263642</v>
       </c>
       <c r="AH173" s="15">
         <f t="shared" si="40"/>
-        <v>0.2741033903493833</v>
+        <v>0.2748355721246914</v>
       </c>
       <c r="AI173" s="15"/>
       <c r="AJ173" s="8"/>
@@ -16966,7 +17047,7 @@
         <v>2</v>
       </c>
       <c r="H174" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I174" s="6">
         <v>3</v>
@@ -16979,14 +17060,14 @@
         <v>42815</v>
       </c>
       <c r="M174" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O174" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P174" s="12">
         <v>6</v>
@@ -17012,16 +17093,16 @@
       <c r="AB174" s="8"/>
       <c r="AC174" s="8"/>
       <c r="AD174" s="8">
-        <v>2.2719427873169802</v>
+        <v>1.79216546387105</v>
       </c>
       <c r="AE174" s="8"/>
       <c r="AF174" s="8"/>
       <c r="AG174" s="15">
-        <v>0.4217107095606869</v>
+        <v>0.49123862971413002</v>
       </c>
       <c r="AH174" s="15">
-        <f t="shared" ref="AH174:AH205" si="42">(AG174/AD174)</f>
-        <v>0.18561678221602596</v>
+        <f t="shared" si="40"/>
+        <v>0.2741033903493833</v>
       </c>
       <c r="AI174" s="15"/>
       <c r="AJ174" s="8"/>
@@ -17049,7 +17130,7 @@
         <v>2</v>
       </c>
       <c r="H175" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I175" s="6">
         <v>3</v>
@@ -17095,21 +17176,21 @@
       <c r="AB175" s="8"/>
       <c r="AC175" s="8"/>
       <c r="AD175" s="8">
-        <v>1.97413836034495</v>
+        <v>2.2719427873169802</v>
       </c>
       <c r="AE175" s="8"/>
       <c r="AF175" s="8"/>
       <c r="AG175" s="15">
-        <v>0.44216076959207662</v>
+        <v>0.4217107095606869</v>
       </c>
       <c r="AH175" s="15">
-        <f t="shared" si="42"/>
-        <v>0.22397658567093337</v>
+        <f t="shared" ref="AH175:AH206" si="42">(AG175/AD175)</f>
+        <v>0.18561678221602596</v>
       </c>
       <c r="AI175" s="15"/>
       <c r="AJ175" s="8"/>
     </row>
-    <row r="176" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>65</v>
       </c>
@@ -17132,7 +17213,7 @@
         <v>2</v>
       </c>
       <c r="H176" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I176" s="6">
         <v>3</v>
@@ -17175,168 +17256,174 @@
       <c r="AA176" s="8">
         <v>8</v>
       </c>
+      <c r="AB176" s="8"/>
+      <c r="AC176" s="8"/>
       <c r="AD176" s="8">
-        <v>1.71399910210255</v>
-      </c>
+        <v>1.97413836034495</v>
+      </c>
+      <c r="AE176" s="8"/>
+      <c r="AF176" s="8"/>
       <c r="AG176" s="15">
-        <v>0.41307226794563001</v>
+        <v>0.44216076959207662</v>
       </c>
       <c r="AH176" s="15">
         <f t="shared" si="42"/>
+        <v>0.22397658567093337</v>
+      </c>
+      <c r="AI176" s="15"/>
+      <c r="AJ176" s="8"/>
+    </row>
+    <row r="177" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B177" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="6">
+        <v>10</v>
+      </c>
+      <c r="G177" s="6">
+        <v>2</v>
+      </c>
+      <c r="H177" s="6">
+        <v>1</v>
+      </c>
+      <c r="I177" s="6">
+        <v>3</v>
+      </c>
+      <c r="J177" s="31">
+        <v>42760</v>
+      </c>
+      <c r="K177" s="31"/>
+      <c r="L177" s="31">
+        <v>42815</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N177" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O177" s="16">
+        <f>0.3*200</f>
+        <v>60</v>
+      </c>
+      <c r="P177" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q177" s="31"/>
+      <c r="R177" s="31"/>
+      <c r="S177" s="31"/>
+      <c r="T177" s="31"/>
+      <c r="U177" s="31"/>
+      <c r="V177" s="31"/>
+      <c r="W177" s="31"/>
+      <c r="X177" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Y177" s="9"/>
+      <c r="Z177" s="9">
+        <v>42843</v>
+      </c>
+      <c r="AA177" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD177" s="8">
+        <v>1.71399910210255</v>
+      </c>
+      <c r="AG177" s="15">
+        <v>0.41307226794563001</v>
+      </c>
+      <c r="AH177" s="15">
+        <f t="shared" si="42"/>
         <v>0.2409991157165236</v>
       </c>
-      <c r="AI176" s="15"/>
-    </row>
-    <row r="177" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="26" t="s">
+      <c r="AI177" s="15"/>
+    </row>
+    <row r="178" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B177" s="26">
+      <c r="B178" s="26">
         <v>2017</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C178" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D178" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E178" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F177" s="45">
+      <c r="F178" s="45">
         <v>6</v>
       </c>
-      <c r="G177" s="45">
+      <c r="G178" s="45">
         <v>2</v>
       </c>
-      <c r="H177" s="26">
+      <c r="H178" s="26">
         <v>0.25</v>
       </c>
-      <c r="I177" s="26">
-        <v>3</v>
-      </c>
-      <c r="J177" s="30"/>
-      <c r="K177" s="30"/>
-      <c r="L177" s="30">
+      <c r="I178" s="26">
+        <v>3</v>
+      </c>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="30">
         <v>42817</v>
       </c>
-      <c r="M177" s="27"/>
-      <c r="N177" s="26" t="s">
+      <c r="M178" s="27"/>
+      <c r="N178" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O177" s="28"/>
-      <c r="P177" s="40">
+      <c r="O178" s="28"/>
+      <c r="P178" s="40">
         <v>1</v>
       </c>
-      <c r="Q177" s="30"/>
-      <c r="R177" s="30"/>
-      <c r="S177" s="30"/>
-      <c r="T177" s="30"/>
-      <c r="U177" s="30"/>
-      <c r="V177" s="30"/>
-      <c r="W177" s="30"/>
-      <c r="X177" s="41">
+      <c r="Q178" s="30"/>
+      <c r="R178" s="30"/>
+      <c r="S178" s="30"/>
+      <c r="T178" s="30"/>
+      <c r="U178" s="30"/>
+      <c r="V178" s="30"/>
+      <c r="W178" s="30"/>
+      <c r="X178" s="41">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="Y177" s="27"/>
-      <c r="Z177" s="27">
+      <c r="Y178" s="27"/>
+      <c r="Z178" s="27">
         <v>42866</v>
       </c>
-      <c r="AA177" s="41">
+      <c r="AA178" s="41">
         <v>8</v>
       </c>
-      <c r="AD177" s="41">
+      <c r="AD178" s="41">
         <v>0.96143333333333303</v>
       </c>
-      <c r="AG177" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH177" s="44">
+      <c r="AG178" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH178" s="44">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AI177" s="44"/>
-      <c r="AJ177" s="44">
-        <f>AVERAGE(AD177,AD180,AD183)</f>
+      <c r="AI178" s="44"/>
+      <c r="AJ178" s="44">
+        <f>AVERAGE(AD178,AD181,AD184)</f>
         <v>0.8378000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B178" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="29">
-        <v>6</v>
-      </c>
-      <c r="G178" s="29">
-        <v>2</v>
-      </c>
-      <c r="H178" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I178" s="6">
-        <v>3</v>
-      </c>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="31">
-        <v>42817</v>
-      </c>
-      <c r="M178" s="9"/>
-      <c r="N178" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O178" s="16"/>
-      <c r="P178" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q178" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="R178" s="31"/>
-      <c r="S178" s="31"/>
-      <c r="T178" s="31"/>
-      <c r="U178" s="31"/>
-      <c r="V178" s="31"/>
-      <c r="W178" s="31"/>
-      <c r="X178" s="8">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y178" s="9"/>
-      <c r="Z178" s="9">
-        <v>42866</v>
-      </c>
-      <c r="AA178" s="8">
-        <v>8</v>
-      </c>
-      <c r="AD178" s="8">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="AG178" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH178" s="15">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AI178" s="15"/>
-      <c r="AJ178" s="15">
-        <f>AVERAGE(AD178,AD181,AD184)</f>
-        <v>0.8746222222222233</v>
       </c>
     </row>
     <row r="179" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -17362,7 +17449,7 @@
         <v>2</v>
       </c>
       <c r="H179" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I179" s="6">
         <v>3</v>
@@ -17380,7 +17467,9 @@
       <c r="P179" s="12">
         <v>1</v>
       </c>
-      <c r="Q179" s="31"/>
+      <c r="Q179" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="R179" s="31"/>
       <c r="S179" s="31"/>
       <c r="T179" s="31"/>
@@ -17399,7 +17488,7 @@
         <v>8</v>
       </c>
       <c r="AD179" s="8">
-        <v>0.74860000000000004</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="AG179" s="15">
         <v>0</v>
@@ -17411,7 +17500,7 @@
       <c r="AI179" s="15"/>
       <c r="AJ179" s="15">
         <f>AVERAGE(AD179,AD182,AD185)</f>
-        <v>0.77196666666666669</v>
+        <v>0.8746222222222233</v>
       </c>
     </row>
     <row r="180" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -17437,7 +17526,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I180" s="6">
         <v>3</v>
@@ -17474,7 +17563,7 @@
         <v>8</v>
       </c>
       <c r="AD180" s="8">
-        <v>0.68826666666666703</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="AG180" s="15">
         <v>0</v>
@@ -17484,6 +17573,10 @@
         <v>0</v>
       </c>
       <c r="AI180" s="15"/>
+      <c r="AJ180" s="15">
+        <f>AVERAGE(AD180,AD183,AD186)</f>
+        <v>0.77196666666666669</v>
+      </c>
     </row>
     <row r="181" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
@@ -17508,7 +17601,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I181" s="6">
         <v>3</v>
@@ -17522,7 +17615,7 @@
       <c r="N181" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O181" s="15"/>
+      <c r="O181" s="16"/>
       <c r="P181" s="12">
         <v>1</v>
       </c>
@@ -17545,7 +17638,7 @@
         <v>8</v>
       </c>
       <c r="AD181" s="8">
-        <v>1.00016666666667</v>
+        <v>0.68826666666666703</v>
       </c>
       <c r="AG181" s="15">
         <v>0</v>
@@ -17579,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="H182" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I182" s="6">
         <v>3</v>
@@ -17593,7 +17686,7 @@
       <c r="N182" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O182" s="16"/>
+      <c r="O182" s="15"/>
       <c r="P182" s="12">
         <v>1</v>
       </c>
@@ -17616,7 +17709,7 @@
         <v>8</v>
       </c>
       <c r="AD182" s="8">
-        <v>0.73619999999999997</v>
+        <v>1.00016666666667</v>
       </c>
       <c r="AG182" s="15">
         <v>0</v>
@@ -17650,7 +17743,7 @@
         <v>2</v>
       </c>
       <c r="H183" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I183" s="6">
         <v>3</v>
@@ -17687,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="AD183" s="8">
-        <v>0.86370000000000002</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="AG183" s="15">
         <v>0</v>
@@ -17721,7 +17814,7 @@
         <v>2</v>
       </c>
       <c r="H184" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I184" s="6">
         <v>3</v>
@@ -17758,7 +17851,7 @@
         <v>8</v>
       </c>
       <c r="AD184" s="8">
-        <v>0.84719999999999995</v>
+        <v>0.86370000000000002</v>
       </c>
       <c r="AG184" s="15">
         <v>0</v>
@@ -17792,7 +17885,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I185" s="6">
         <v>3</v>
@@ -17829,7 +17922,7 @@
         <v>8</v>
       </c>
       <c r="AD185" s="8">
-        <v>0.83109999999999995</v>
+        <v>0.84719999999999995</v>
       </c>
       <c r="AG185" s="15">
         <v>0</v>
@@ -17863,7 +17956,7 @@
         <v>2</v>
       </c>
       <c r="H186" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I186" s="6">
         <v>3</v>
@@ -17873,18 +17966,13 @@
       <c r="L186" s="31">
         <v>42817</v>
       </c>
-      <c r="M186" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="M186" s="9"/>
       <c r="N186" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O186" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O186" s="16"/>
       <c r="P186" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q186" s="31"/>
       <c r="R186" s="31"/>
@@ -17905,14 +17993,14 @@
         <v>8</v>
       </c>
       <c r="AD186" s="8">
-        <v>0.83203333333333296</v>
+        <v>0.83109999999999995</v>
       </c>
       <c r="AG186" s="15">
-        <v>-5.7666666666671418E-3</v>
+        <v>0</v>
       </c>
       <c r="AH186" s="15">
         <f t="shared" si="42"/>
-        <v>-6.9308120668248197E-3</v>
+        <v>0</v>
       </c>
       <c r="AI186" s="15"/>
     </row>
@@ -17939,7 +18027,7 @@
         <v>2</v>
       </c>
       <c r="H187" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I187" s="6">
         <v>3</v>
@@ -17962,9 +18050,7 @@
       <c r="P187" s="12">
         <v>2</v>
       </c>
-      <c r="Q187" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q187" s="31"/>
       <c r="R187" s="31"/>
       <c r="S187" s="31"/>
       <c r="T187" s="31"/>
@@ -17983,14 +18069,14 @@
         <v>8</v>
       </c>
       <c r="AD187" s="8">
-        <v>0.78263333333333296</v>
+        <v>0.83203333333333296</v>
       </c>
       <c r="AG187" s="15">
-        <v>-9.1988888888890341E-2</v>
+        <v>-5.7666666666671418E-3</v>
       </c>
       <c r="AH187" s="15">
         <f t="shared" si="42"/>
-        <v>-0.11753765776509696</v>
+        <v>-6.9308120668248197E-3</v>
       </c>
       <c r="AI187" s="15"/>
     </row>
@@ -18017,7 +18103,7 @@
         <v>2</v>
       </c>
       <c r="H188" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I188" s="6">
         <v>3</v>
@@ -18040,7 +18126,9 @@
       <c r="P188" s="12">
         <v>2</v>
       </c>
-      <c r="Q188" s="31"/>
+      <c r="Q188" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="R188" s="31"/>
       <c r="S188" s="31"/>
       <c r="T188" s="31"/>
@@ -18056,17 +18144,17 @@
         <v>42866</v>
       </c>
       <c r="AA188" s="8">
-        <v>7.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="AD188" s="8">
-        <v>0.74446666666666705</v>
+        <v>0.78263333333333296</v>
       </c>
       <c r="AG188" s="15">
-        <v>-2.7499999999999636E-2</v>
+        <v>-9.1988888888890341E-2</v>
       </c>
       <c r="AH188" s="15">
         <f t="shared" si="42"/>
-        <v>-3.6939195844899644E-2</v>
+        <v>-0.11753765776509696</v>
       </c>
       <c r="AI188" s="15"/>
     </row>
@@ -18093,7 +18181,7 @@
         <v>2</v>
       </c>
       <c r="H189" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I189" s="6">
         <v>3</v>
@@ -18104,14 +18192,14 @@
         <v>42817</v>
       </c>
       <c r="M189" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O189" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P189" s="12">
         <v>2</v>
@@ -18132,17 +18220,17 @@
         <v>42866</v>
       </c>
       <c r="AA189" s="8">
-        <v>8</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AD189" s="8">
-        <v>0.79549999999999998</v>
+        <v>0.74446666666666705</v>
       </c>
       <c r="AG189" s="15">
-        <v>-4.2300000000000115E-2</v>
+        <v>-2.7499999999999636E-2</v>
       </c>
       <c r="AH189" s="15">
         <f t="shared" si="42"/>
-        <v>-5.3174104336895178E-2</v>
+        <v>-3.6939195844899644E-2</v>
       </c>
       <c r="AI189" s="15"/>
     </row>
@@ -18169,7 +18257,7 @@
         <v>2</v>
       </c>
       <c r="H190" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I190" s="6">
         <v>3</v>
@@ -18208,17 +18296,17 @@
         <v>42866</v>
       </c>
       <c r="AA190" s="8">
-        <v>7.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="AD190" s="8">
-        <v>0.92096666666666704</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="AG190" s="15">
-        <v>4.6344444444443744E-2</v>
+        <v>-4.2300000000000115E-2</v>
       </c>
       <c r="AH190" s="15">
         <f t="shared" si="42"/>
-        <v>5.0321522072218024E-2</v>
+        <v>-5.3174104336895178E-2</v>
       </c>
       <c r="AI190" s="15"/>
     </row>
@@ -18245,7 +18333,7 @@
         <v>2</v>
       </c>
       <c r="H191" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I191" s="6">
         <v>3</v>
@@ -18284,17 +18372,17 @@
         <v>42866</v>
       </c>
       <c r="AA191" s="8">
-        <v>8</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AD191" s="8">
-        <v>0.92266666666666697</v>
+        <v>0.92096666666666704</v>
       </c>
       <c r="AG191" s="15">
-        <v>0.15070000000000028</v>
+        <v>4.6344444444443744E-2</v>
       </c>
       <c r="AH191" s="15">
         <f t="shared" si="42"/>
-        <v>0.16333092485549158</v>
+        <v>5.0321522072218024E-2</v>
       </c>
       <c r="AI191" s="15"/>
     </row>
@@ -18321,7 +18409,7 @@
         <v>2</v>
       </c>
       <c r="H192" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I192" s="6">
         <v>3</v>
@@ -18332,14 +18420,14 @@
         <v>42817</v>
       </c>
       <c r="M192" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O192" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P192" s="12">
         <v>2</v>
@@ -18360,17 +18448,17 @@
         <v>42866</v>
       </c>
       <c r="AA192" s="8">
-        <v>7.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="AD192" s="8">
-        <v>0.92930000000000001</v>
+        <v>0.92266666666666697</v>
       </c>
       <c r="AG192" s="15">
-        <v>9.1499999999999915E-2</v>
+        <v>0.15070000000000028</v>
       </c>
       <c r="AH192" s="15">
         <f t="shared" si="42"/>
-        <v>9.846120736037868E-2</v>
+        <v>0.16333092485549158</v>
       </c>
       <c r="AI192" s="15"/>
     </row>
@@ -18397,7 +18485,7 @@
         <v>2</v>
       </c>
       <c r="H193" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I193" s="6">
         <v>3</v>
@@ -18439,14 +18527,14 @@
         <v>7.6666666666666696</v>
       </c>
       <c r="AD193" s="8">
-        <v>0.77676666666666705</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="AG193" s="15">
-        <v>-9.7855555555556251E-2</v>
+        <v>9.1499999999999915E-2</v>
       </c>
       <c r="AH193" s="15">
         <f t="shared" si="42"/>
-        <v>-0.12597805718863175</v>
+        <v>9.846120736037868E-2</v>
       </c>
       <c r="AI193" s="15"/>
     </row>
@@ -18473,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="H194" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I194" s="6">
         <v>3</v>
@@ -18512,17 +18600,17 @@
         <v>42866</v>
       </c>
       <c r="AA194" s="8">
-        <v>8</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AD194" s="8">
-        <v>0.69159999999999999</v>
+        <v>0.77676666666666705</v>
       </c>
       <c r="AG194" s="15">
-        <v>-8.0366666666666697E-2</v>
+        <v>-9.7855555555556251E-2</v>
       </c>
       <c r="AH194" s="15">
         <f t="shared" si="42"/>
-        <v>-0.11620397146712941</v>
+        <v>-0.12597805718863175</v>
       </c>
       <c r="AI194" s="15"/>
     </row>
@@ -18549,7 +18637,7 @@
         <v>2</v>
       </c>
       <c r="H195" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I195" s="6">
         <v>3</v>
@@ -18560,17 +18648,17 @@
         <v>42817</v>
       </c>
       <c r="M195" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N195" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O195" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P195" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q195" s="31"/>
       <c r="R195" s="31"/>
@@ -18588,17 +18676,17 @@
         <v>42866</v>
       </c>
       <c r="AA195" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD195" s="8">
-        <v>0.95923333333333305</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="AG195" s="15">
-        <v>0.12143333333333295</v>
+        <v>-8.0366666666666697E-2</v>
       </c>
       <c r="AH195" s="15">
         <f t="shared" si="42"/>
-        <v>0.12659415505438334</v>
+        <v>-0.11620397146712941</v>
       </c>
       <c r="AI195" s="15"/>
     </row>
@@ -18625,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="H196" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I196" s="6">
         <v>3</v>
@@ -18648,9 +18736,7 @@
       <c r="P196" s="12">
         <v>3</v>
       </c>
-      <c r="Q196" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q196" s="31"/>
       <c r="R196" s="31"/>
       <c r="S196" s="31"/>
       <c r="T196" s="31"/>
@@ -18669,14 +18755,14 @@
         <v>7</v>
       </c>
       <c r="AD196" s="8">
-        <v>0.80606666666666704</v>
+        <v>0.95923333333333305</v>
       </c>
       <c r="AG196" s="15">
-        <v>-2.0722222222221864E-2</v>
+        <v>0.12143333333333295</v>
       </c>
       <c r="AH196" s="15">
         <f t="shared" si="42"/>
-        <v>-2.5707826758194344E-2</v>
+        <v>0.12659415505438334</v>
       </c>
       <c r="AI196" s="15"/>
     </row>
@@ -18703,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="H197" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I197" s="6">
         <v>3</v>
@@ -18726,7 +18812,9 @@
       <c r="P197" s="12">
         <v>3</v>
       </c>
-      <c r="Q197" s="31"/>
+      <c r="Q197" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="R197" s="31"/>
       <c r="S197" s="31"/>
       <c r="T197" s="31"/>
@@ -18745,14 +18833,14 @@
         <v>7</v>
       </c>
       <c r="AD197" s="8">
-        <v>0.73329999999999995</v>
+        <v>0.80606666666666704</v>
       </c>
       <c r="AG197" s="15">
-        <v>-5.2944444444444794E-2</v>
+        <v>-2.0722222222221864E-2</v>
       </c>
       <c r="AH197" s="15">
         <f t="shared" si="42"/>
-        <v>-7.2200251526585019E-2</v>
+        <v>-2.5707826758194344E-2</v>
       </c>
       <c r="AI197" s="15"/>
     </row>
@@ -18779,7 +18867,7 @@
         <v>2</v>
       </c>
       <c r="H198" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I198" s="6">
         <v>3</v>
@@ -18790,14 +18878,14 @@
         <v>42817</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O198" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P198" s="12">
         <v>3</v>
@@ -18821,14 +18909,14 @@
         <v>7</v>
       </c>
       <c r="AD198" s="8">
-        <v>0.75346666666666695</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="AG198" s="15">
-        <v>-8.4333333333333149E-2</v>
+        <v>-5.2944444444444794E-2</v>
       </c>
       <c r="AH198" s="15">
         <f t="shared" si="42"/>
-        <v>-0.11192709254999086</v>
+        <v>-7.2200251526585019E-2</v>
       </c>
       <c r="AI198" s="15"/>
     </row>
@@ -18855,7 +18943,7 @@
         <v>2</v>
       </c>
       <c r="H199" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I199" s="6">
         <v>3</v>
@@ -18897,14 +18985,14 @@
         <v>7</v>
       </c>
       <c r="AD199" s="8">
-        <v>0.58126666666666704</v>
+        <v>0.75346666666666695</v>
       </c>
       <c r="AG199" s="15">
-        <v>-0.24552222222222186</v>
+        <v>-8.4333333333333149E-2</v>
       </c>
       <c r="AH199" s="15">
         <f t="shared" si="42"/>
-        <v>-0.42239171158771943</v>
+        <v>-0.11192709254999086</v>
       </c>
       <c r="AI199" s="15"/>
     </row>
@@ -18931,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="H200" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I200" s="6">
         <v>3</v>
@@ -18973,14 +19061,14 @@
         <v>7</v>
       </c>
       <c r="AD200" s="8">
-        <v>1.0233000000000001</v>
+        <v>0.58126666666666704</v>
       </c>
       <c r="AG200" s="15">
-        <v>0.23705555555555535</v>
+        <v>-0.24552222222222186</v>
       </c>
       <c r="AH200" s="15">
         <f t="shared" si="42"/>
-        <v>0.23165792588249323</v>
+        <v>-0.42239171158771943</v>
       </c>
       <c r="AI200" s="15"/>
     </row>
@@ -19007,7 +19095,7 @@
         <v>2</v>
       </c>
       <c r="H201" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I201" s="6">
         <v>3</v>
@@ -19018,14 +19106,14 @@
         <v>42817</v>
       </c>
       <c r="M201" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O201" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P201" s="12">
         <v>3</v>
@@ -19049,14 +19137,14 @@
         <v>7</v>
       </c>
       <c r="AD201" s="8">
-        <v>0.80100000000000005</v>
+        <v>1.0233000000000001</v>
       </c>
       <c r="AG201" s="15">
-        <v>-3.6800000000000055E-2</v>
+        <v>0.23705555555555535</v>
       </c>
       <c r="AH201" s="15">
         <f t="shared" si="42"/>
-        <v>-4.5942571785268484E-2</v>
+        <v>0.23165792588249323</v>
       </c>
       <c r="AI201" s="15"/>
     </row>
@@ -19083,7 +19171,7 @@
         <v>2</v>
       </c>
       <c r="H202" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I202" s="6">
         <v>3</v>
@@ -19125,14 +19213,14 @@
         <v>7</v>
       </c>
       <c r="AD202" s="8">
-        <v>0.83313333333333295</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="AG202" s="15">
-        <v>6.3444444444440418E-3</v>
+        <v>-3.6800000000000055E-2</v>
       </c>
       <c r="AH202" s="15">
         <f t="shared" si="42"/>
-        <v>7.6151609719661258E-3</v>
+        <v>-4.5942571785268484E-2</v>
       </c>
       <c r="AI202" s="15"/>
     </row>
@@ -19159,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="H203" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I203" s="6">
         <v>3</v>
@@ -19201,14 +19289,14 @@
         <v>7</v>
       </c>
       <c r="AD203" s="8">
-        <v>0.66076666666666695</v>
+        <v>0.83313333333333295</v>
       </c>
       <c r="AG203" s="15">
-        <v>-0.1254777777777778</v>
+        <v>6.3444444444440418E-3</v>
       </c>
       <c r="AH203" s="15">
         <f t="shared" si="42"/>
-        <v>-0.18989725739460891</v>
+        <v>7.6151609719661258E-3</v>
       </c>
       <c r="AI203" s="15"/>
     </row>
@@ -19235,7 +19323,7 @@
         <v>2</v>
       </c>
       <c r="H204" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I204" s="6">
         <v>3</v>
@@ -19246,17 +19334,17 @@
         <v>42817</v>
       </c>
       <c r="M204" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N204" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O204" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P204" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q204" s="31"/>
       <c r="R204" s="31"/>
@@ -19274,17 +19362,17 @@
         <v>42866</v>
       </c>
       <c r="AA204" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD204" s="8">
-        <v>1.0246999999999999</v>
+        <v>0.66076666666666695</v>
       </c>
       <c r="AG204" s="15">
-        <v>0.18689999999999984</v>
+        <v>-0.1254777777777778</v>
       </c>
       <c r="AH204" s="15">
         <f t="shared" si="42"/>
-        <v>0.18239484727237226</v>
+        <v>-0.18989725739460891</v>
       </c>
       <c r="AI204" s="15"/>
     </row>
@@ -19311,7 +19399,7 @@
         <v>2</v>
       </c>
       <c r="H205" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I205" s="6">
         <v>3</v>
@@ -19334,9 +19422,7 @@
       <c r="P205" s="12">
         <v>4</v>
       </c>
-      <c r="Q205" s="37" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q205" s="31"/>
       <c r="R205" s="31"/>
       <c r="S205" s="31"/>
       <c r="T205" s="31"/>
@@ -19355,14 +19441,14 @@
         <v>8</v>
       </c>
       <c r="AD205" s="8">
-        <v>0.70376666666666698</v>
+        <v>1.0246999999999999</v>
       </c>
       <c r="AG205" s="15">
-        <v>-3.6388888888888804E-2</v>
+        <v>0.18689999999999984</v>
       </c>
       <c r="AH205" s="15">
         <f t="shared" si="42"/>
-        <v>-5.1705899998421047E-2</v>
+        <v>0.18239484727237226</v>
       </c>
       <c r="AI205" s="15"/>
     </row>
@@ -19389,7 +19475,7 @@
         <v>2</v>
       </c>
       <c r="H206" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I206" s="6">
         <v>3</v>
@@ -19412,7 +19498,9 @@
       <c r="P206" s="12">
         <v>4</v>
       </c>
-      <c r="Q206" s="31"/>
+      <c r="Q206" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="R206" s="31"/>
       <c r="S206" s="31"/>
       <c r="T206" s="31"/>
@@ -19431,14 +19519,14 @@
         <v>8</v>
       </c>
       <c r="AD206" s="8">
-        <v>0.81163333333333298</v>
+        <v>0.70376666666666698</v>
       </c>
       <c r="AG206" s="15">
-        <v>5.8444444444439858E-3</v>
+        <v>-3.6388888888888804E-2</v>
       </c>
       <c r="AH206" s="15">
-        <f t="shared" ref="AH206:AH237" si="43">(AG206/AD206)</f>
-        <v>7.2008432926740171E-3</v>
+        <f t="shared" si="42"/>
+        <v>-5.1705899998421047E-2</v>
       </c>
       <c r="AI206" s="15"/>
     </row>
@@ -19465,7 +19553,7 @@
         <v>2</v>
       </c>
       <c r="H207" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I207" s="6">
         <v>3</v>
@@ -19476,14 +19564,14 @@
         <v>42817</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O207" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P207" s="12">
         <v>4</v>
@@ -19507,14 +19595,14 @@
         <v>8</v>
       </c>
       <c r="AD207" s="8">
-        <v>1.0044</v>
+        <v>0.81163333333333298</v>
       </c>
       <c r="AG207" s="15">
-        <v>0.16659999999999986</v>
+        <v>5.8444444444439858E-3</v>
       </c>
       <c r="AH207" s="15">
-        <f t="shared" si="43"/>
-        <v>0.16587017124651521</v>
+        <f t="shared" ref="AH207:AH238" si="43">(AG207/AD207)</f>
+        <v>7.2008432926740171E-3</v>
       </c>
       <c r="AI207" s="15"/>
     </row>
@@ -19541,7 +19629,7 @@
         <v>2</v>
       </c>
       <c r="H208" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I208" s="6">
         <v>3</v>
@@ -19583,14 +19671,14 @@
         <v>8</v>
       </c>
       <c r="AD208" s="8">
-        <v>0.93213333333333304</v>
+        <v>1.0044</v>
       </c>
       <c r="AG208" s="15">
-        <v>0.19197777777777725</v>
+        <v>0.16659999999999986</v>
       </c>
       <c r="AH208" s="15">
         <f t="shared" si="43"/>
-        <v>0.20595527583082962</v>
+        <v>0.16587017124651521</v>
       </c>
       <c r="AI208" s="15"/>
     </row>
@@ -19617,7 +19705,7 @@
         <v>2</v>
       </c>
       <c r="H209" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I209" s="6">
         <v>3</v>
@@ -19656,17 +19744,17 @@
         <v>42866</v>
       </c>
       <c r="AA209" s="8">
-        <v>7.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="AD209" s="8">
-        <v>0.85140000000000005</v>
+        <v>0.93213333333333304</v>
       </c>
       <c r="AG209" s="15">
-        <v>4.5611111111111047E-2</v>
+        <v>0.19197777777777725</v>
       </c>
       <c r="AH209" s="15">
         <f t="shared" si="43"/>
-        <v>5.35718946571659E-2</v>
+        <v>0.20595527583082962</v>
       </c>
       <c r="AI209" s="15"/>
     </row>
@@ -19693,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="H210" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I210" s="6">
         <v>3</v>
@@ -19704,14 +19792,14 @@
         <v>42817</v>
       </c>
       <c r="M210" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O210" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P210" s="12">
         <v>4</v>
@@ -19735,14 +19823,14 @@
         <v>7.6666666666666696</v>
       </c>
       <c r="AD210" s="8">
-        <v>0.74239999999999995</v>
+        <v>0.85140000000000005</v>
       </c>
       <c r="AG210" s="15">
-        <v>-9.5400000000000151E-2</v>
+        <v>4.5611111111111047E-2</v>
       </c>
       <c r="AH210" s="15">
         <f t="shared" si="43"/>
-        <v>-0.12850215517241401</v>
+        <v>5.35718946571659E-2</v>
       </c>
       <c r="AI210" s="15"/>
     </row>
@@ -19769,7 +19857,7 @@
         <v>2</v>
       </c>
       <c r="H211" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I211" s="6">
         <v>3</v>
@@ -19811,14 +19899,14 @@
         <v>7.6666666666666696</v>
       </c>
       <c r="AD211" s="8">
-        <v>0.78073333333333295</v>
+        <v>0.74239999999999995</v>
       </c>
       <c r="AG211" s="15">
-        <v>4.0577777777777158E-2</v>
+        <v>-9.5400000000000151E-2</v>
       </c>
       <c r="AH211" s="15">
         <f t="shared" si="43"/>
-        <v>5.1973927646371591E-2</v>
+        <v>-0.12850215517241401</v>
       </c>
       <c r="AI211" s="15"/>
     </row>
@@ -19845,7 +19933,7 @@
         <v>2</v>
       </c>
       <c r="H212" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I212" s="6">
         <v>3</v>
@@ -19876,7 +19964,7 @@
       <c r="V212" s="31"/>
       <c r="W212" s="31"/>
       <c r="X212" s="8">
-        <f t="shared" ref="X212:X242" si="44">COUNT(Q212:S212)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y212" s="9"/>
@@ -19887,14 +19975,14 @@
         <v>7.6666666666666696</v>
       </c>
       <c r="AD212" s="8">
-        <v>0.903266666666667</v>
+        <v>0.78073333333333295</v>
       </c>
       <c r="AG212" s="15">
-        <v>9.7477777777777996E-2</v>
+        <v>4.0577777777777158E-2</v>
       </c>
       <c r="AH212" s="15">
         <f t="shared" si="43"/>
-        <v>0.10791694343986047</v>
+        <v>5.1973927646371591E-2</v>
       </c>
       <c r="AI212" s="15"/>
     </row>
@@ -19921,7 +20009,7 @@
         <v>2</v>
       </c>
       <c r="H213" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I213" s="6">
         <v>3</v>
@@ -19932,17 +20020,17 @@
         <v>42817</v>
       </c>
       <c r="M213" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N213" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O213" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P213" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q213" s="31"/>
       <c r="R213" s="31"/>
@@ -19952,7 +20040,7 @@
       <c r="V213" s="31"/>
       <c r="W213" s="31"/>
       <c r="X213" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="X213:X243" si="44">COUNT(Q213:S213)</f>
         <v>0</v>
       </c>
       <c r="Y213" s="9"/>
@@ -19960,17 +20048,17 @@
         <v>42866</v>
       </c>
       <c r="AA213" s="8">
-        <v>7</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AD213" s="8">
-        <v>0.79216666666666702</v>
+        <v>0.903266666666667</v>
       </c>
       <c r="AG213" s="15">
-        <v>-4.5633333333333082E-2</v>
+        <v>9.7477777777777996E-2</v>
       </c>
       <c r="AH213" s="15">
         <f t="shared" si="43"/>
-        <v>-5.7605722701451374E-2</v>
+        <v>0.10791694343986047</v>
       </c>
       <c r="AI213" s="15"/>
     </row>
@@ -19997,7 +20085,7 @@
         <v>2</v>
       </c>
       <c r="H214" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I214" s="6">
         <v>3</v>
@@ -20020,9 +20108,7 @@
       <c r="P214" s="12">
         <v>5</v>
       </c>
-      <c r="Q214" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q214" s="31"/>
       <c r="R214" s="31"/>
       <c r="S214" s="31"/>
       <c r="T214" s="31"/>
@@ -20041,14 +20127,14 @@
         <v>7</v>
       </c>
       <c r="AD214" s="8">
-        <v>0.87860000000000005</v>
+        <v>0.79216666666666702</v>
       </c>
       <c r="AG214" s="15">
-        <v>7.3055555555555762E-2</v>
+        <v>-4.5633333333333082E-2</v>
       </c>
       <c r="AH214" s="15">
         <f t="shared" si="43"/>
-        <v>8.3149960796216435E-2</v>
+        <v>-5.7605722701451374E-2</v>
       </c>
       <c r="AI214" s="15"/>
     </row>
@@ -20075,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="H215" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I215" s="6">
         <v>3</v>
@@ -20098,7 +20184,9 @@
       <c r="P215" s="12">
         <v>5</v>
       </c>
-      <c r="Q215" s="31"/>
+      <c r="Q215" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="R215" s="31"/>
       <c r="S215" s="31"/>
       <c r="T215" s="31"/>
@@ -20117,14 +20205,14 @@
         <v>7</v>
       </c>
       <c r="AD215" s="8">
-        <v>0.99133333333333296</v>
+        <v>0.87860000000000005</v>
       </c>
       <c r="AG215" s="15">
-        <v>0.13589999999999958</v>
+        <v>7.3055555555555762E-2</v>
       </c>
       <c r="AH215" s="15">
         <f t="shared" si="43"/>
-        <v>0.13708809683927334</v>
+        <v>8.3149960796216435E-2</v>
       </c>
       <c r="AI215" s="15"/>
     </row>
@@ -20151,7 +20239,7 @@
         <v>2</v>
       </c>
       <c r="H216" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I216" s="6">
         <v>3</v>
@@ -20162,14 +20250,14 @@
         <v>42817</v>
       </c>
       <c r="M216" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O216" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P216" s="12">
         <v>5</v>
@@ -20193,14 +20281,14 @@
         <v>7</v>
       </c>
       <c r="AD216" s="8">
-        <v>1.0433333333333299</v>
+        <v>0.99133333333333296</v>
       </c>
       <c r="AG216" s="15">
-        <v>0.20553333333332979</v>
+        <v>0.13589999999999958</v>
       </c>
       <c r="AH216" s="15">
         <f t="shared" si="43"/>
-        <v>0.19699680511181833</v>
+        <v>0.13708809683927334</v>
       </c>
       <c r="AI216" s="15"/>
     </row>
@@ -20227,7 +20315,7 @@
         <v>2</v>
       </c>
       <c r="H217" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I217" s="6">
         <v>3</v>
@@ -20266,17 +20354,17 @@
         <v>42866</v>
       </c>
       <c r="AA217" s="8">
-        <v>5.3333333333333304</v>
+        <v>7</v>
       </c>
       <c r="AD217" s="8">
-        <v>0.83246666666666702</v>
+        <v>1.0433333333333299</v>
       </c>
       <c r="AG217" s="15">
-        <v>2.6922222222222736E-2</v>
+        <v>0.20553333333332979</v>
       </c>
       <c r="AH217" s="15">
         <f t="shared" si="43"/>
-        <v>3.2340300579269711E-2</v>
+        <v>0.19699680511181833</v>
       </c>
       <c r="AI217" s="15"/>
     </row>
@@ -20303,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="H218" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I218" s="6">
         <v>3</v>
@@ -20342,17 +20430,17 @@
         <v>42866</v>
       </c>
       <c r="AA218" s="8">
-        <v>7</v>
+        <v>5.3333333333333304</v>
       </c>
       <c r="AD218" s="8">
-        <v>0.64743333333333297</v>
+        <v>0.83246666666666702</v>
       </c>
       <c r="AG218" s="15">
-        <v>-0.20800000000000041</v>
+        <v>2.6922222222222736E-2</v>
       </c>
       <c r="AH218" s="15">
         <f t="shared" si="43"/>
-        <v>-0.32126859908356153</v>
+        <v>3.2340300579269711E-2</v>
       </c>
       <c r="AI218" s="15"/>
     </row>
@@ -20379,7 +20467,7 @@
         <v>2</v>
       </c>
       <c r="H219" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I219" s="6">
         <v>3</v>
@@ -20390,14 +20478,14 @@
         <v>42817</v>
       </c>
       <c r="M219" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O219" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P219" s="12">
         <v>5</v>
@@ -20421,14 +20509,14 @@
         <v>7</v>
       </c>
       <c r="AD219" s="8">
-        <v>0.7157</v>
+        <v>0.64743333333333297</v>
       </c>
       <c r="AG219" s="15">
-        <v>-0.1221000000000001</v>
+        <v>-0.20800000000000041</v>
       </c>
       <c r="AH219" s="15">
         <f t="shared" si="43"/>
-        <v>-0.17060220762889491</v>
+        <v>-0.32126859908356153</v>
       </c>
       <c r="AI219" s="15"/>
     </row>
@@ -20455,7 +20543,7 @@
         <v>2</v>
       </c>
       <c r="H220" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I220" s="6">
         <v>3</v>
@@ -20497,14 +20585,14 @@
         <v>7</v>
       </c>
       <c r="AD220" s="8">
-        <v>1.1087</v>
+        <v>0.7157</v>
       </c>
       <c r="AG220" s="15">
-        <v>0.30315555555555573</v>
+        <v>-0.1221000000000001</v>
       </c>
       <c r="AH220" s="15">
         <f t="shared" si="43"/>
-        <v>0.2734333503703037</v>
+        <v>-0.17060220762889491</v>
       </c>
       <c r="AI220" s="15"/>
     </row>
@@ -20531,7 +20619,7 @@
         <v>2</v>
       </c>
       <c r="H221" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I221" s="6">
         <v>3</v>
@@ -20573,14 +20661,14 @@
         <v>7</v>
       </c>
       <c r="AD221" s="8">
-        <v>0.89893333333333303</v>
+        <v>1.1087</v>
       </c>
       <c r="AG221" s="15">
-        <v>4.349999999999965E-2</v>
+        <v>0.30315555555555573</v>
       </c>
       <c r="AH221" s="15">
         <f t="shared" si="43"/>
-        <v>4.8390685256600043E-2</v>
+        <v>0.2734333503703037</v>
       </c>
       <c r="AI221" s="15"/>
     </row>
@@ -20607,7 +20695,7 @@
         <v>2</v>
       </c>
       <c r="H222" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I222" s="6">
         <v>3</v>
@@ -20618,17 +20706,17 @@
         <v>42817</v>
       </c>
       <c r="M222" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N222" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O222" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P222" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q222" s="31"/>
       <c r="R222" s="31"/>
@@ -20646,17 +20734,17 @@
         <v>42866</v>
       </c>
       <c r="AA222" s="8">
-        <v>7.3333333333333304</v>
+        <v>7</v>
       </c>
       <c r="AD222" s="8">
-        <v>0.82726666666666704</v>
+        <v>0.89893333333333303</v>
       </c>
       <c r="AG222" s="15">
-        <v>-1.0533333333333061E-2</v>
+        <v>4.349999999999965E-2</v>
       </c>
       <c r="AH222" s="15">
         <f t="shared" si="43"/>
-        <v>-1.2732694012410013E-2</v>
+        <v>4.8390685256600043E-2</v>
       </c>
       <c r="AI222" s="15"/>
     </row>
@@ -20683,7 +20771,7 @@
         <v>2</v>
       </c>
       <c r="H223" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I223" s="6">
         <v>3</v>
@@ -20706,9 +20794,7 @@
       <c r="P223" s="12">
         <v>6</v>
       </c>
-      <c r="Q223" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q223" s="31"/>
       <c r="R223" s="31"/>
       <c r="S223" s="31"/>
       <c r="T223" s="31"/>
@@ -20724,17 +20810,17 @@
         <v>42866</v>
       </c>
       <c r="AA223" s="8">
-        <v>7.6666666666666696</v>
+        <v>7.3333333333333304</v>
       </c>
       <c r="AD223" s="8">
-        <v>0.762133333333333</v>
+        <v>0.82726666666666704</v>
       </c>
       <c r="AG223" s="15">
-        <v>-0.17778888888888944</v>
+        <v>-1.0533333333333061E-2</v>
       </c>
       <c r="AH223" s="15">
         <f t="shared" si="43"/>
-        <v>-0.23327793328668148</v>
+        <v>-1.2732694012410013E-2</v>
       </c>
       <c r="AI223" s="15"/>
     </row>
@@ -20761,7 +20847,7 @@
         <v>2</v>
       </c>
       <c r="H224" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I224" s="6">
         <v>3</v>
@@ -20784,7 +20870,9 @@
       <c r="P224" s="12">
         <v>6</v>
       </c>
-      <c r="Q224" s="31"/>
+      <c r="Q224" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="R224" s="31"/>
       <c r="S224" s="31"/>
       <c r="T224" s="31"/>
@@ -20800,17 +20888,17 @@
         <v>42866</v>
       </c>
       <c r="AA224" s="8">
-        <v>8</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AD224" s="8">
-        <v>1.0802</v>
+        <v>0.762133333333333</v>
       </c>
       <c r="AG224" s="15">
-        <v>0.23430000000000051</v>
+        <v>-0.17778888888888944</v>
       </c>
       <c r="AH224" s="15">
         <f t="shared" si="43"/>
-        <v>0.21690427698574385</v>
+        <v>-0.23327793328668148</v>
       </c>
       <c r="AI224" s="15"/>
     </row>
@@ -20837,7 +20925,7 @@
         <v>2</v>
       </c>
       <c r="H225" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I225" s="6">
         <v>3</v>
@@ -20848,14 +20936,14 @@
         <v>42817</v>
       </c>
       <c r="M225" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N225" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O225" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P225" s="12">
         <v>6</v>
@@ -20876,17 +20964,17 @@
         <v>42866</v>
       </c>
       <c r="AA225" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD225" s="8">
-        <v>0.78083333333333305</v>
+        <v>1.0802</v>
       </c>
       <c r="AG225" s="15">
-        <v>-5.6966666666667054E-2</v>
+        <v>0.23430000000000051</v>
       </c>
       <c r="AH225" s="15">
         <f t="shared" si="43"/>
-        <v>-7.2956243329776405E-2</v>
+        <v>0.21690427698574385</v>
       </c>
       <c r="AI225" s="15"/>
     </row>
@@ -20913,7 +21001,7 @@
         <v>2</v>
       </c>
       <c r="H226" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I226" s="6">
         <v>3</v>
@@ -20955,14 +21043,14 @@
         <v>7</v>
       </c>
       <c r="AD226" s="8">
-        <v>0.73066666666666702</v>
+        <v>0.78083333333333305</v>
       </c>
       <c r="AG226" s="15">
-        <v>-0.20925555555555542</v>
+        <v>-5.6966666666667054E-2</v>
       </c>
       <c r="AH226" s="15">
         <f t="shared" si="43"/>
-        <v>-0.28638990267639869</v>
+        <v>-7.2956243329776405E-2</v>
       </c>
       <c r="AI226" s="15"/>
     </row>
@@ -20989,7 +21077,7 @@
         <v>2</v>
       </c>
       <c r="H227" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I227" s="6">
         <v>3</v>
@@ -21031,14 +21119,14 @@
         <v>7</v>
       </c>
       <c r="AD227" s="8">
-        <v>0.861866666666667</v>
+        <v>0.73066666666666702</v>
       </c>
       <c r="AG227" s="15">
-        <v>1.5966666666667462E-2</v>
+        <v>-0.20925555555555542</v>
       </c>
       <c r="AH227" s="15">
         <f t="shared" si="43"/>
-        <v>1.8525680693070222E-2</v>
+        <v>-0.28638990267639869</v>
       </c>
       <c r="AI227" s="15"/>
     </row>
@@ -21065,7 +21153,7 @@
         <v>2</v>
       </c>
       <c r="H228" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I228" s="6">
         <v>3</v>
@@ -21076,14 +21164,14 @@
         <v>42817</v>
       </c>
       <c r="M228" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N228" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O228" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.25*500</f>
+        <v>125</v>
       </c>
       <c r="P228" s="12">
         <v>6</v>
@@ -21107,14 +21195,14 @@
         <v>7</v>
       </c>
       <c r="AD228" s="8">
-        <v>0.94299999999999995</v>
+        <v>0.861866666666667</v>
       </c>
       <c r="AG228" s="15">
-        <v>0.10519999999999985</v>
+        <v>1.5966666666667462E-2</v>
       </c>
       <c r="AH228" s="15">
         <f t="shared" si="43"/>
-        <v>0.11155885471898182</v>
+        <v>1.8525680693070222E-2</v>
       </c>
       <c r="AI228" s="15"/>
     </row>
@@ -21141,7 +21229,7 @@
         <v>2</v>
       </c>
       <c r="H229" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I229" s="6">
         <v>3</v>
@@ -21183,164 +21271,168 @@
         <v>7</v>
       </c>
       <c r="AD229" s="8">
-        <v>0.85073333333333301</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="AG229" s="15">
-        <v>-8.9188888888889428E-2</v>
+        <v>0.10519999999999985</v>
       </c>
       <c r="AH229" s="15">
         <f t="shared" si="43"/>
-        <v>-0.10483765640101418</v>
+        <v>0.11155885471898182</v>
       </c>
       <c r="AI229" s="15"/>
     </row>
-    <row r="230" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7" t="s">
+    <row r="230" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B230" s="7">
+      <c r="B230" s="6">
         <v>2017</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="E230" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F230" s="34">
+      <c r="F230" s="29">
         <v>6</v>
       </c>
-      <c r="G230" s="34">
+      <c r="G230" s="29">
         <v>2</v>
       </c>
-      <c r="H230" s="7">
-        <v>1</v>
-      </c>
-      <c r="I230" s="7">
-        <v>3</v>
-      </c>
-      <c r="J230" s="20"/>
-      <c r="K230" s="20"/>
-      <c r="L230" s="20">
+      <c r="H230" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I230" s="6">
+        <v>3</v>
+      </c>
+      <c r="J230" s="31"/>
+      <c r="K230" s="31"/>
+      <c r="L230" s="31">
         <v>42817</v>
       </c>
-      <c r="M230" s="4" t="s">
+      <c r="M230" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N230" s="7" t="s">
+      <c r="N230" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O230" s="11">
+      <c r="O230" s="16">
         <f>0.3*200</f>
         <v>60</v>
       </c>
-      <c r="P230" s="13">
+      <c r="P230" s="12">
         <v>6</v>
       </c>
-      <c r="Q230" s="20"/>
-      <c r="R230" s="20"/>
-      <c r="S230" s="20"/>
-      <c r="T230" s="20"/>
-      <c r="U230" s="20"/>
-      <c r="V230" s="20"/>
-      <c r="W230" s="20"/>
-      <c r="X230" s="3">
+      <c r="Q230" s="31"/>
+      <c r="R230" s="31"/>
+      <c r="S230" s="31"/>
+      <c r="T230" s="31"/>
+      <c r="U230" s="31"/>
+      <c r="V230" s="31"/>
+      <c r="W230" s="31"/>
+      <c r="X230" s="8">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="Y230" s="4"/>
-      <c r="Z230" s="4">
+      <c r="Y230" s="9"/>
+      <c r="Z230" s="9">
         <v>42866</v>
       </c>
-      <c r="AA230" s="3">
+      <c r="AA230" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD230" s="8">
+        <v>0.85073333333333301</v>
+      </c>
+      <c r="AG230" s="15">
+        <v>-8.9188888888889428E-2</v>
+      </c>
+      <c r="AH230" s="15">
+        <f t="shared" si="43"/>
+        <v>-0.10483765640101418</v>
+      </c>
+      <c r="AI230" s="15"/>
+    </row>
+    <row r="231" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B231" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" s="34">
+        <v>6</v>
+      </c>
+      <c r="G231" s="34">
+        <v>2</v>
+      </c>
+      <c r="H231" s="7">
+        <v>1</v>
+      </c>
+      <c r="I231" s="7">
+        <v>3</v>
+      </c>
+      <c r="J231" s="20"/>
+      <c r="K231" s="20"/>
+      <c r="L231" s="20">
+        <v>42817</v>
+      </c>
+      <c r="M231" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N231" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O231" s="11">
+        <f>0.3*200</f>
+        <v>60</v>
+      </c>
+      <c r="P231" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q231" s="20"/>
+      <c r="R231" s="20"/>
+      <c r="S231" s="20"/>
+      <c r="T231" s="20"/>
+      <c r="U231" s="20"/>
+      <c r="V231" s="20"/>
+      <c r="W231" s="20"/>
+      <c r="X231" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Y231" s="4"/>
+      <c r="Z231" s="4">
+        <v>42866</v>
+      </c>
+      <c r="AA231" s="3">
         <v>7.6666666666666696</v>
       </c>
-      <c r="AD230" s="3">
+      <c r="AD231" s="3">
         <v>0.94096666666666695</v>
       </c>
-      <c r="AG230" s="14">
+      <c r="AG231" s="14">
         <v>9.506666666666741E-2</v>
       </c>
-      <c r="AH230" s="14">
+      <c r="AH231" s="14">
         <f t="shared" si="43"/>
         <v>0.10103085479471541</v>
       </c>
-      <c r="AI230" s="14"/>
-    </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B231" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D231" s="8"/>
-      <c r="E231" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F231" s="6">
-        <v>10</v>
-      </c>
-      <c r="G231" s="6">
-        <v>2</v>
-      </c>
-      <c r="H231" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="I231" s="8"/>
-      <c r="J231" s="29"/>
-      <c r="K231" s="29"/>
-      <c r="L231" s="38">
-        <v>43182</v>
-      </c>
-      <c r="M231" s="8"/>
-      <c r="N231" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O231" s="18"/>
-      <c r="P231" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q231" s="29"/>
-      <c r="R231" s="29"/>
-      <c r="S231" s="29"/>
-      <c r="T231" s="29"/>
-      <c r="U231" s="29"/>
-      <c r="V231" s="29"/>
-      <c r="W231" s="29"/>
-      <c r="X231" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Y231" s="8"/>
-      <c r="Z231" s="35">
-        <v>43222</v>
-      </c>
-      <c r="AA231" s="8">
-        <v>8.6666666666666696</v>
-      </c>
-      <c r="AB231" s="8"/>
-      <c r="AC231" s="8"/>
-      <c r="AD231" s="8">
-        <v>1.2369166323141001</v>
-      </c>
-      <c r="AE231" s="8"/>
-      <c r="AF231" s="8"/>
-      <c r="AG231" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH231" s="15">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AI231" s="15"/>
-      <c r="AJ231" s="8"/>
+      <c r="AI231" s="14"/>
     </row>
     <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
@@ -21363,7 +21455,7 @@
         <v>2</v>
       </c>
       <c r="H232" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I232" s="8"/>
       <c r="J232" s="29"/>
@@ -21395,12 +21487,12 @@
         <v>43222</v>
       </c>
       <c r="AA232" s="8">
-        <v>8.3333333333333304</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="AB232" s="8"/>
       <c r="AC232" s="8"/>
       <c r="AD232" s="8">
-        <v>1.27018713186918</v>
+        <v>1.2369166323141001</v>
       </c>
       <c r="AE232" s="8"/>
       <c r="AF232" s="8"/>
@@ -21435,7 +21527,7 @@
         <v>2</v>
       </c>
       <c r="H233" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I233" s="8"/>
       <c r="J233" s="29"/>
@@ -21467,12 +21559,12 @@
         <v>43222</v>
       </c>
       <c r="AA233" s="8">
-        <v>7.6666666666666696</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="AB233" s="8"/>
       <c r="AC233" s="8"/>
       <c r="AD233" s="8">
-        <v>1.0744504698869599</v>
+        <v>1.27018713186918</v>
       </c>
       <c r="AE233" s="8"/>
       <c r="AF233" s="8"/>
@@ -21507,7 +21599,7 @@
         <v>2</v>
       </c>
       <c r="H234" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I234" s="8"/>
       <c r="J234" s="29"/>
@@ -21515,18 +21607,13 @@
       <c r="L234" s="38">
         <v>43182</v>
       </c>
-      <c r="M234" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M234" s="8"/>
       <c r="N234" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O234" s="16">
-        <f>0.145*430</f>
-        <v>62.349999999999994</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O234" s="18"/>
       <c r="P234" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q234" s="29"/>
       <c r="R234" s="29"/>
@@ -21544,22 +21631,21 @@
         <v>43222</v>
       </c>
       <c r="AA234" s="8">
-        <v>6.5</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="AB234" s="8"/>
       <c r="AC234" s="8"/>
       <c r="AD234" s="8">
-        <v>1.49557809580193</v>
+        <v>1.0744504698869599</v>
       </c>
       <c r="AE234" s="8"/>
       <c r="AF234" s="8"/>
-      <c r="AG234" s="8">
-        <f>AD234-AD$231</f>
-        <v>0.25866146348782992</v>
+      <c r="AG234" s="15">
+        <v>0</v>
       </c>
       <c r="AH234" s="15">
         <f t="shared" si="43"/>
-        <v>0.17295082364063072</v>
+        <v>0</v>
       </c>
       <c r="AI234" s="15"/>
       <c r="AJ234" s="8"/>
@@ -21585,7 +21671,7 @@
         <v>2</v>
       </c>
       <c r="H235" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="29"/>
@@ -21622,22 +21708,22 @@
         <v>43222</v>
       </c>
       <c r="AA235" s="8">
-        <v>7.1666666666666696</v>
+        <v>6.5</v>
       </c>
       <c r="AB235" s="8"/>
       <c r="AC235" s="8"/>
       <c r="AD235" s="8">
-        <v>1.5651208674249899</v>
+        <v>1.49557809580193</v>
       </c>
       <c r="AE235" s="8"/>
       <c r="AF235" s="8"/>
       <c r="AG235" s="8">
         <f>AD235-AD$232</f>
-        <v>0.29493373555580993</v>
+        <v>0.25866146348782992</v>
       </c>
       <c r="AH235" s="15">
         <f t="shared" si="43"/>
-        <v>0.18844150742239396</v>
+        <v>0.17295082364063072</v>
       </c>
       <c r="AI235" s="15"/>
       <c r="AJ235" s="8"/>
@@ -21663,7 +21749,7 @@
         <v>2</v>
       </c>
       <c r="H236" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I236" s="8"/>
       <c r="J236" s="29"/>
@@ -21700,22 +21786,22 @@
         <v>43222</v>
       </c>
       <c r="AA236" s="8">
-        <v>6.8333333333333304</v>
+        <v>7.1666666666666696</v>
       </c>
       <c r="AB236" s="8"/>
       <c r="AC236" s="8"/>
       <c r="AD236" s="8">
-        <v>1.0474946708717301</v>
+        <v>1.5651208674249899</v>
       </c>
       <c r="AE236" s="8"/>
       <c r="AF236" s="8"/>
       <c r="AG236" s="8">
         <f>AD236-AD$233</f>
-        <v>-2.695579901522982E-2</v>
+        <v>0.29493373555580993</v>
       </c>
       <c r="AH236" s="15">
         <f t="shared" si="43"/>
-        <v>-2.5733590599365124E-2</v>
+        <v>0.18844150742239396</v>
       </c>
       <c r="AI236" s="15"/>
       <c r="AJ236" s="8"/>
@@ -21741,7 +21827,7 @@
         <v>2</v>
       </c>
       <c r="H237" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="29"/>
@@ -21750,17 +21836,17 @@
         <v>43182</v>
       </c>
       <c r="M237" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N237" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O237" s="16">
-        <f>0.3*200</f>
-        <v>60</v>
+        <f>0.145*430</f>
+        <v>62.349999999999994</v>
       </c>
       <c r="P237" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q237" s="29"/>
       <c r="R237" s="29"/>
@@ -21778,22 +21864,22 @@
         <v>43222</v>
       </c>
       <c r="AA237" s="8">
-        <v>7.3333333333333304</v>
+        <v>6.8333333333333304</v>
       </c>
       <c r="AB237" s="8"/>
       <c r="AC237" s="8"/>
       <c r="AD237" s="8">
-        <v>1.56567230256205</v>
+        <v>1.0474946708717301</v>
       </c>
       <c r="AE237" s="8"/>
       <c r="AF237" s="8"/>
       <c r="AG237" s="8">
-        <f>AD237-AD$231</f>
-        <v>0.32875567024794994</v>
+        <f>AD237-AD$234</f>
+        <v>-2.695579901522982E-2</v>
       </c>
       <c r="AH237" s="15">
         <f t="shared" si="43"/>
-        <v>0.20997731754593701</v>
+        <v>-2.5733590599365124E-2</v>
       </c>
       <c r="AI237" s="15"/>
       <c r="AJ237" s="8"/>
@@ -21819,7 +21905,7 @@
         <v>2</v>
       </c>
       <c r="H238" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I238" s="8"/>
       <c r="J238" s="29"/>
@@ -21856,22 +21942,22 @@
         <v>43222</v>
       </c>
       <c r="AA238" s="8">
-        <v>7.1666666666666696</v>
+        <v>7.3333333333333304</v>
       </c>
       <c r="AB238" s="8"/>
       <c r="AC238" s="8"/>
       <c r="AD238" s="8">
-        <v>1.3447369647448</v>
+        <v>1.56567230256205</v>
       </c>
       <c r="AE238" s="8"/>
       <c r="AF238" s="8"/>
       <c r="AG238" s="8">
         <f>AD238-AD$232</f>
-        <v>7.4549832875620003E-2</v>
+        <v>0.32875567024794994</v>
       </c>
       <c r="AH238" s="15">
-        <f t="shared" ref="AH238:AH242" si="45">(AG238/AD238)</f>
-        <v>5.5438226828075511E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.20997731754593701</v>
       </c>
       <c r="AI238" s="15"/>
       <c r="AJ238" s="8"/>
@@ -21897,7 +21983,7 @@
         <v>2</v>
       </c>
       <c r="H239" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I239" s="8"/>
       <c r="J239" s="29"/>
@@ -21934,22 +22020,22 @@
         <v>43222</v>
       </c>
       <c r="AA239" s="8">
-        <v>7</v>
+        <v>7.1666666666666696</v>
       </c>
       <c r="AB239" s="8"/>
       <c r="AC239" s="8"/>
       <c r="AD239" s="8">
-        <v>1.15944034721598</v>
+        <v>1.3447369647448</v>
       </c>
       <c r="AE239" s="8"/>
       <c r="AF239" s="8"/>
       <c r="AG239" s="8">
         <f>AD239-AD$233</f>
-        <v>8.498987732902008E-2</v>
+        <v>7.4549832875620003E-2</v>
       </c>
       <c r="AH239" s="15">
-        <f t="shared" si="45"/>
-        <v>7.3302501101583803E-2</v>
+        <f t="shared" ref="AH239:AH243" si="45">(AG239/AD239)</f>
+        <v>5.5438226828075511E-2</v>
       </c>
       <c r="AI239" s="15"/>
       <c r="AJ239" s="8"/>
@@ -21975,7 +22061,7 @@
         <v>2</v>
       </c>
       <c r="H240" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I240" s="8"/>
       <c r="J240" s="29"/>
@@ -21983,18 +22069,18 @@
       <c r="L240" s="38">
         <v>43182</v>
       </c>
-      <c r="M240" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N240" s="8" t="s">
-        <v>20</v>
+      <c r="M240" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N240" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="O240" s="16">
-        <f>0.25*500</f>
-        <v>125</v>
+        <f>0.3*200</f>
+        <v>60</v>
       </c>
       <c r="P240" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q240" s="29"/>
       <c r="R240" s="29"/>
@@ -22012,22 +22098,22 @@
         <v>43222</v>
       </c>
       <c r="AA240" s="8">
-        <v>6.1666666666666696</v>
+        <v>7</v>
       </c>
       <c r="AB240" s="8"/>
       <c r="AC240" s="8"/>
       <c r="AD240" s="8">
-        <v>1.61706705873273</v>
+        <v>1.15944034721598</v>
       </c>
       <c r="AE240" s="8"/>
       <c r="AF240" s="8"/>
       <c r="AG240" s="8">
-        <f>AD240-AD$231</f>
-        <v>0.38015042641862995</v>
+        <f>AD240-AD$234</f>
+        <v>8.498987732902008E-2</v>
       </c>
       <c r="AH240" s="15">
         <f t="shared" si="45"/>
-        <v>0.23508637094898702</v>
+        <v>7.3302501101583803E-2</v>
       </c>
       <c r="AI240" s="15"/>
       <c r="AJ240" s="8"/>
@@ -22053,7 +22139,7 @@
         <v>2</v>
       </c>
       <c r="H241" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I241" s="8"/>
       <c r="J241" s="29"/>
@@ -22090,95 +22176,173 @@
         <v>43222</v>
       </c>
       <c r="AA241" s="8">
-        <v>6.5</v>
+        <v>6.1666666666666696</v>
       </c>
       <c r="AB241" s="8"/>
       <c r="AC241" s="8"/>
       <c r="AD241" s="8">
-        <v>1.64119381859991</v>
+        <v>1.61706705873273</v>
       </c>
       <c r="AE241" s="8"/>
       <c r="AF241" s="8"/>
       <c r="AG241" s="8">
         <f>AD241-AD$232</f>
-        <v>0.37100668673073001</v>
+        <v>0.38015042641862995</v>
       </c>
       <c r="AH241" s="15">
         <f t="shared" si="45"/>
-        <v>0.22605903247139511</v>
+        <v>0.23508637094898702</v>
       </c>
       <c r="AI241" s="15"/>
       <c r="AJ241" s="8"/>
     </row>
-    <row r="242" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="7" t="s">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B242" s="7">
+      <c r="B242" s="6">
         <v>2018</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E242" s="7" t="s">
+      <c r="D242" s="8"/>
+      <c r="E242" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F242" s="7">
+      <c r="F242" s="6">
         <v>10</v>
       </c>
-      <c r="G242" s="7">
+      <c r="G242" s="6">
         <v>2</v>
       </c>
-      <c r="H242" s="7">
-        <v>1</v>
-      </c>
-      <c r="J242" s="34"/>
-      <c r="K242" s="34"/>
-      <c r="L242" s="46">
+      <c r="H242" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I242" s="8"/>
+      <c r="J242" s="29"/>
+      <c r="K242" s="29"/>
+      <c r="L242" s="38">
         <v>43182</v>
       </c>
-      <c r="M242" s="4" t="s">
+      <c r="M242" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N242" s="3" t="s">
+      <c r="N242" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O242" s="11">
+      <c r="O242" s="16">
         <f>0.25*500</f>
         <v>125</v>
       </c>
-      <c r="P242" s="13">
+      <c r="P242" s="12">
         <v>4</v>
       </c>
-      <c r="Q242" s="34"/>
-      <c r="R242" s="34"/>
-      <c r="S242" s="34"/>
-      <c r="T242" s="34"/>
-      <c r="U242" s="34"/>
-      <c r="V242" s="34"/>
-      <c r="W242" s="34"/>
-      <c r="X242" s="3">
+      <c r="Q242" s="29"/>
+      <c r="R242" s="29"/>
+      <c r="S242" s="29"/>
+      <c r="T242" s="29"/>
+      <c r="U242" s="29"/>
+      <c r="V242" s="29"/>
+      <c r="W242" s="29"/>
+      <c r="X242" s="8">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="Z242" s="33">
+      <c r="Y242" s="8"/>
+      <c r="Z242" s="35">
         <v>43222</v>
       </c>
-      <c r="AA242" s="3">
+      <c r="AA242" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="AB242" s="8"/>
+      <c r="AC242" s="8"/>
+      <c r="AD242" s="8">
+        <v>1.64119381859991</v>
+      </c>
+      <c r="AE242" s="8"/>
+      <c r="AF242" s="8"/>
+      <c r="AG242" s="8">
+        <f>AD242-AD$233</f>
+        <v>0.37100668673073001</v>
+      </c>
+      <c r="AH242" s="15">
+        <f t="shared" si="45"/>
+        <v>0.22605903247139511</v>
+      </c>
+      <c r="AI242" s="15"/>
+      <c r="AJ242" s="8"/>
+    </row>
+    <row r="243" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F243" s="7">
+        <v>10</v>
+      </c>
+      <c r="G243" s="7">
+        <v>2</v>
+      </c>
+      <c r="H243" s="7">
+        <v>1</v>
+      </c>
+      <c r="J243" s="34"/>
+      <c r="K243" s="34"/>
+      <c r="L243" s="46">
+        <v>43182</v>
+      </c>
+      <c r="M243" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O243" s="11">
+        <f>0.25*500</f>
+        <v>125</v>
+      </c>
+      <c r="P243" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q243" s="34"/>
+      <c r="R243" s="34"/>
+      <c r="S243" s="34"/>
+      <c r="T243" s="34"/>
+      <c r="U243" s="34"/>
+      <c r="V243" s="34"/>
+      <c r="W243" s="34"/>
+      <c r="X243" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Z243" s="33">
+        <v>43222</v>
+      </c>
+      <c r="AA243" s="3">
         <v>5.8333333333333304</v>
       </c>
-      <c r="AD242" s="3">
+      <c r="AD243" s="3">
         <v>1.16367223355557</v>
       </c>
-      <c r="AG242" s="3">
-        <f>AD242-AD$233</f>
+      <c r="AG243" s="3">
+        <f>AD243-AD$234</f>
         <v>8.9221763668610121E-2</v>
       </c>
-      <c r="AH242" s="14">
+      <c r="AH243" s="14">
         <f t="shared" si="45"/>
         <v>7.6672589665558455E-2</v>
       </c>
-      <c r="AI242" s="14"/>
+      <c r="AI243" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:AE210">
@@ -22187,7 +22351,7 @@
     <sortCondition ref="D2:D210"/>
     <sortCondition ref="P2:P210"/>
   </sortState>
-  <conditionalFormatting sqref="AG66:AI1048576 AG1:AI2 AG3:AH16 AH56:AH65 AG39:AH40 AH41:AH45">
+  <conditionalFormatting sqref="AG1:AI2 AG3:AH16 AH56:AH65 AG39:AH40 AH41:AH45 AG66:AI1048576">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
